--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_Cascade" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="136">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -145,9 +145,6 @@
     <t>MoS</t>
   </si>
   <si>
-    <t>Sensitivity_pav</t>
-  </si>
-  <si>
     <t>['reb']</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Cascade_reb</t>
   </si>
   <si>
-    <t>Cascade_pav</t>
-  </si>
-  <si>
     <t>['pav','reb','nrb']</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>World_passvehicles_sensitivity</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>World_resbuildings_cascade</t>
   </si>
   <si>
@@ -217,106 +208,226 @@
     <t>Sensitivity_reb</t>
   </si>
   <si>
-    <t>RECC_Global_2020_5_5__19_8_57_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_11_50_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_14_41_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_17_38_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_20_37_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_23_34_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_26_33_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_29_43_reb__FYI</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_32_46_reb__FSD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_35_50_reb__EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_38_54_reb__MSU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_41_59_reb__ULD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_45_6_reb__RUS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_48_7_reb__LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_51_11_reb__MIU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__19_54_15_reb__NoR</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_0_15_pav_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_11_6_pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_13_47_pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_16_23_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_19_5_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_21_47_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_24_30_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_27_15_pav_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_29_58_pav__FYI</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_32_41_pav__FSD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_35_25_pav__EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_38_12_pav__MSU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_40_57_pav__ULD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_43_42_pav__RUS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_46_22_pav__LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_48_51_pav__CaS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_51_52_pav__RiS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_5_5__20_54_33_pav__NoR</t>
+    <t>USA_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>USA_resbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>RECC_R32USA</t>
+  </si>
+  <si>
+    <t>Germany_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>Poland_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>Japan_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>China_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>India_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>RECC_Poland</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN</t>
+  </si>
+  <si>
+    <t>RECC_R32IND</t>
+  </si>
+  <si>
+    <t>India_resbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_26__22_34_22_reb_</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_26__22_42_44_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_26__22_44_12_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_26__22_45_41_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_5_7_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_6_30_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_7_55_reb_</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_9_23_reb__FYI</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_10_45_reb__FSD</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_12_12_reb__EoL</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_13_40_reb__MSU</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_15_6_reb__ULD</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_16_34_reb__RUS</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_18_16_reb__LTE</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_19_46_reb__MIU</t>
+  </si>
+  <si>
+    <t>RECC_USA_2020_5_27__6_21_18_reb__NoR</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_22_51_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_31_47_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_33_18_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_34_48_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_36_16_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_5_27__6_37_43_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_39_14_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_48_24_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_49_54_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_51_33_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_53_6_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Poland_2020_5_27__6_54_39_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__6_56_15_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__7_5_17_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__7_6_50_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__7_8_22_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__7_9_54_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Japan_2020_5_27__7_11_38_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_13_13_reb_</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_22_8_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_23_42_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_25_15_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_26_48_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_China_2020_5_27__7_28_22_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_29_56_reb_</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_38_50_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_40_25_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_41_59_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_43_31_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_45_5_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_46_37_reb_</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_48_13_reb__FYI</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_49_50_reb__FSD</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_51_24_reb__EoL</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_52_59_reb__MSU</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_54_34_reb__ULD</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_56_8_reb__RUS</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_57_43_reb__LTE</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__7_59_18_reb__MIU</t>
+  </si>
+  <si>
+    <t>RECC_India_2020_5_27__8_0_53_reb__NoR</t>
   </si>
 </sst>
 </file>
@@ -667,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V21"/>
+  <dimension ref="A2:V59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -718,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -772,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>35</v>
@@ -790,24 +901,25 @@
         <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -865,11 +977,13 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -927,11 +1041,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -989,11 +1105,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1052,10 +1170,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1114,10 +1232,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1141,10 +1259,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
         <v>12</v>
@@ -1175,41 +1293,44 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="s">
         <v>12</v>
@@ -1237,17 +1358,14 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1303,16 +1421,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1365,19 +1483,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1427,10 +1545,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1439,10 +1557,10 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1489,10 +1607,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1504,10 +1622,10 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -1551,10 +1669,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1569,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -1611,12 +1729,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1634,10 +1752,10 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1673,12 +1791,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1699,10 +1817,10 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -1735,12 +1853,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1767,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
         <v>12</v>
@@ -1776,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S19" t="s">
         <v>31</v>
@@ -1797,12 +1915,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1832,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="s">
         <v>12</v>
@@ -1859,21 +1980,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1900,13 +2021,13 @@
         <v>12</v>
       </c>
       <c r="P21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S21" t="s">
         <v>31</v>
@@ -1918,6 +2039,2377 @@
         <v>13</v>
       </c>
       <c r="V21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" t="s">
+        <v>13</v>
+      </c>
+      <c r="U30" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" t="s">
+        <v>13</v>
+      </c>
+      <c r="U31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" t="s">
+        <v>13</v>
+      </c>
+      <c r="U38" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" t="s">
+        <v>13</v>
+      </c>
+      <c r="V39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U43" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" t="s">
+        <v>13</v>
+      </c>
+      <c r="U44" t="s">
+        <v>13</v>
+      </c>
+      <c r="V44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" t="s">
+        <v>13</v>
+      </c>
+      <c r="U45" t="s">
+        <v>13</v>
+      </c>
+      <c r="V45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" t="s">
+        <v>13</v>
+      </c>
+      <c r="U46" t="s">
+        <v>13</v>
+      </c>
+      <c r="V46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+      <c r="S47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" t="s">
+        <v>13</v>
+      </c>
+      <c r="U47" t="s">
+        <v>13</v>
+      </c>
+      <c r="V47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S48" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" t="s">
+        <v>13</v>
+      </c>
+      <c r="U48" t="s">
+        <v>13</v>
+      </c>
+      <c r="V48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" t="s">
+        <v>31</v>
+      </c>
+      <c r="T49" t="s">
+        <v>13</v>
+      </c>
+      <c r="U49" t="s">
+        <v>13</v>
+      </c>
+      <c r="V49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" t="s">
+        <v>13</v>
+      </c>
+      <c r="U50" t="s">
+        <v>13</v>
+      </c>
+      <c r="V50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" t="s">
+        <v>13</v>
+      </c>
+      <c r="U51" t="s">
+        <v>13</v>
+      </c>
+      <c r="V51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>13</v>
+      </c>
+      <c r="S52" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" t="s">
+        <v>13</v>
+      </c>
+      <c r="U52" t="s">
+        <v>13</v>
+      </c>
+      <c r="V52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" t="s">
+        <v>13</v>
+      </c>
+      <c r="S53" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" t="s">
+        <v>13</v>
+      </c>
+      <c r="U53" t="s">
+        <v>13</v>
+      </c>
+      <c r="V53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" t="s">
+        <v>13</v>
+      </c>
+      <c r="U54" t="s">
+        <v>13</v>
+      </c>
+      <c r="V54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S55" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" t="s">
+        <v>13</v>
+      </c>
+      <c r="U55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" t="s">
+        <v>13</v>
+      </c>
+      <c r="S56" t="s">
+        <v>31</v>
+      </c>
+      <c r="T56" t="s">
+        <v>13</v>
+      </c>
+      <c r="U56" t="s">
+        <v>13</v>
+      </c>
+      <c r="V56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>13</v>
+      </c>
+      <c r="R57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S57" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" t="s">
+        <v>13</v>
+      </c>
+      <c r="S58" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" t="s">
+        <v>13</v>
+      </c>
+      <c r="U58" t="s">
+        <v>13</v>
+      </c>
+      <c r="V58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>12</v>
+      </c>
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" t="s">
+        <v>13</v>
+      </c>
+      <c r="U59" t="s">
+        <v>13</v>
+      </c>
+      <c r="V59" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1929,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V37"/>
+  <dimension ref="A2:V95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:V40"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1977,7 +4469,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -2031,7 +4523,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>35</v>
@@ -2049,24 +4541,24 @@
         <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2125,10 +4617,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2187,10 +4679,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2249,10 +4741,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2311,10 +4803,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2373,10 +4865,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2435,13 +4927,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2500,10 +4992,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2562,10 +5054,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2624,10 +5116,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2686,10 +5178,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -2748,10 +5240,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -2810,10 +5302,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -2872,10 +5364,10 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2934,10 +5426,10 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2996,10 +5488,10 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -3058,10 +5550,10 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -3123,7 +5615,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -3185,7 +5677,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -3247,7 +5739,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -3309,7 +5801,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -3371,7 +5863,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -3433,7 +5925,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -3495,10 +5987,10 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -3560,7 +6052,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -3622,7 +6114,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -3684,7 +6176,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -3746,7 +6238,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -3808,7 +6300,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -3868,9 +6360,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -3930,9 +6422,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -3992,9 +6484,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -4054,9 +6546,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -4116,9 +6608,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -4175,6 +6667,3502 @@
         <v>13</v>
       </c>
       <c r="V37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" t="s">
+        <v>13</v>
+      </c>
+      <c r="U43" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" t="s">
+        <v>13</v>
+      </c>
+      <c r="S44" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" t="s">
+        <v>13</v>
+      </c>
+      <c r="U44" t="s">
+        <v>13</v>
+      </c>
+      <c r="V44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" t="s">
+        <v>13</v>
+      </c>
+      <c r="U45" t="s">
+        <v>13</v>
+      </c>
+      <c r="V45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" t="s">
+        <v>13</v>
+      </c>
+      <c r="U46" t="s">
+        <v>13</v>
+      </c>
+      <c r="V46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" t="s">
+        <v>13</v>
+      </c>
+      <c r="S47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" t="s">
+        <v>13</v>
+      </c>
+      <c r="U47" t="s">
+        <v>13</v>
+      </c>
+      <c r="V47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S48" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" t="s">
+        <v>13</v>
+      </c>
+      <c r="U48" t="s">
+        <v>13</v>
+      </c>
+      <c r="V48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" t="s">
+        <v>31</v>
+      </c>
+      <c r="T49" t="s">
+        <v>13</v>
+      </c>
+      <c r="U49" t="s">
+        <v>13</v>
+      </c>
+      <c r="V49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" t="s">
+        <v>13</v>
+      </c>
+      <c r="U50" t="s">
+        <v>13</v>
+      </c>
+      <c r="V50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S51" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" t="s">
+        <v>13</v>
+      </c>
+      <c r="U51" t="s">
+        <v>13</v>
+      </c>
+      <c r="V51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>13</v>
+      </c>
+      <c r="S52" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" t="s">
+        <v>13</v>
+      </c>
+      <c r="U52" t="s">
+        <v>13</v>
+      </c>
+      <c r="V52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" t="s">
+        <v>13</v>
+      </c>
+      <c r="S53" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" t="s">
+        <v>13</v>
+      </c>
+      <c r="U53" t="s">
+        <v>13</v>
+      </c>
+      <c r="V53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>13</v>
+      </c>
+      <c r="R54" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" t="s">
+        <v>13</v>
+      </c>
+      <c r="U54" t="s">
+        <v>13</v>
+      </c>
+      <c r="V54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>12</v>
+      </c>
+      <c r="R55" t="s">
+        <v>12</v>
+      </c>
+      <c r="S55" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" t="s">
+        <v>13</v>
+      </c>
+      <c r="U55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" t="s">
+        <v>13</v>
+      </c>
+      <c r="S56" t="s">
+        <v>31</v>
+      </c>
+      <c r="T56" t="s">
+        <v>13</v>
+      </c>
+      <c r="U56" t="s">
+        <v>13</v>
+      </c>
+      <c r="V56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>13</v>
+      </c>
+      <c r="R57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S57" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" t="s">
+        <v>13</v>
+      </c>
+      <c r="S58" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" t="s">
+        <v>13</v>
+      </c>
+      <c r="U58" t="s">
+        <v>13</v>
+      </c>
+      <c r="V58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>13</v>
+      </c>
+      <c r="R59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S59" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" t="s">
+        <v>13</v>
+      </c>
+      <c r="U59" t="s">
+        <v>13</v>
+      </c>
+      <c r="V59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" t="s">
+        <v>13</v>
+      </c>
+      <c r="S60" t="s">
+        <v>31</v>
+      </c>
+      <c r="T60" t="s">
+        <v>13</v>
+      </c>
+      <c r="U60" t="s">
+        <v>13</v>
+      </c>
+      <c r="V60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" t="s">
+        <v>13</v>
+      </c>
+      <c r="S61" t="s">
+        <v>31</v>
+      </c>
+      <c r="T61" t="s">
+        <v>13</v>
+      </c>
+      <c r="U61" t="s">
+        <v>13</v>
+      </c>
+      <c r="V61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>13</v>
+      </c>
+      <c r="R62" t="s">
+        <v>13</v>
+      </c>
+      <c r="S62" t="s">
+        <v>31</v>
+      </c>
+      <c r="T62" t="s">
+        <v>13</v>
+      </c>
+      <c r="U62" t="s">
+        <v>13</v>
+      </c>
+      <c r="V62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>13</v>
+      </c>
+      <c r="R63" t="s">
+        <v>13</v>
+      </c>
+      <c r="S63" t="s">
+        <v>31</v>
+      </c>
+      <c r="T63" t="s">
+        <v>13</v>
+      </c>
+      <c r="U63" t="s">
+        <v>13</v>
+      </c>
+      <c r="V63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>13</v>
+      </c>
+      <c r="R64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S64" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" t="s">
+        <v>13</v>
+      </c>
+      <c r="U64" t="s">
+        <v>13</v>
+      </c>
+      <c r="V64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>13</v>
+      </c>
+      <c r="R65" t="s">
+        <v>13</v>
+      </c>
+      <c r="S65" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" t="s">
+        <v>13</v>
+      </c>
+      <c r="U65" t="s">
+        <v>13</v>
+      </c>
+      <c r="V65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>13</v>
+      </c>
+      <c r="R66" t="s">
+        <v>13</v>
+      </c>
+      <c r="S66" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" t="s">
+        <v>13</v>
+      </c>
+      <c r="U66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>13</v>
+      </c>
+      <c r="R67" t="s">
+        <v>13</v>
+      </c>
+      <c r="S67" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" t="s">
+        <v>13</v>
+      </c>
+      <c r="U67" t="s">
+        <v>13</v>
+      </c>
+      <c r="V67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>13</v>
+      </c>
+      <c r="R68" t="s">
+        <v>13</v>
+      </c>
+      <c r="S68" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" t="s">
+        <v>13</v>
+      </c>
+      <c r="U68" t="s">
+        <v>13</v>
+      </c>
+      <c r="V68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" t="s">
+        <v>12</v>
+      </c>
+      <c r="O69" t="s">
+        <v>12</v>
+      </c>
+      <c r="P69" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>13</v>
+      </c>
+      <c r="R69" t="s">
+        <v>13</v>
+      </c>
+      <c r="S69" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" t="s">
+        <v>13</v>
+      </c>
+      <c r="U69" t="s">
+        <v>13</v>
+      </c>
+      <c r="V69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>13</v>
+      </c>
+      <c r="R70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S70" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" t="s">
+        <v>13</v>
+      </c>
+      <c r="U70" t="s">
+        <v>13</v>
+      </c>
+      <c r="V70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" t="s">
+        <v>12</v>
+      </c>
+      <c r="O71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>13</v>
+      </c>
+      <c r="R71" t="s">
+        <v>13</v>
+      </c>
+      <c r="S71" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" t="s">
+        <v>13</v>
+      </c>
+      <c r="U71" t="s">
+        <v>13</v>
+      </c>
+      <c r="V71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" t="s">
+        <v>12</v>
+      </c>
+      <c r="O72" t="s">
+        <v>12</v>
+      </c>
+      <c r="P72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>13</v>
+      </c>
+      <c r="R72" t="s">
+        <v>13</v>
+      </c>
+      <c r="S72" t="s">
+        <v>31</v>
+      </c>
+      <c r="T72" t="s">
+        <v>13</v>
+      </c>
+      <c r="U72" t="s">
+        <v>13</v>
+      </c>
+      <c r="V72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O73" t="s">
+        <v>12</v>
+      </c>
+      <c r="P73" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>13</v>
+      </c>
+      <c r="R73" t="s">
+        <v>13</v>
+      </c>
+      <c r="S73" t="s">
+        <v>31</v>
+      </c>
+      <c r="T73" t="s">
+        <v>13</v>
+      </c>
+      <c r="U73" t="s">
+        <v>13</v>
+      </c>
+      <c r="V73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" t="s">
+        <v>12</v>
+      </c>
+      <c r="O74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" t="s">
+        <v>13</v>
+      </c>
+      <c r="S74" t="s">
+        <v>31</v>
+      </c>
+      <c r="T74" t="s">
+        <v>13</v>
+      </c>
+      <c r="U74" t="s">
+        <v>13</v>
+      </c>
+      <c r="V74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" t="s">
+        <v>12</v>
+      </c>
+      <c r="O75" t="s">
+        <v>12</v>
+      </c>
+      <c r="P75" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>13</v>
+      </c>
+      <c r="R75" t="s">
+        <v>13</v>
+      </c>
+      <c r="S75" t="s">
+        <v>31</v>
+      </c>
+      <c r="T75" t="s">
+        <v>13</v>
+      </c>
+      <c r="U75" t="s">
+        <v>13</v>
+      </c>
+      <c r="V75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>13</v>
+      </c>
+      <c r="R76" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" t="s">
+        <v>13</v>
+      </c>
+      <c r="U76" t="s">
+        <v>13</v>
+      </c>
+      <c r="V76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" t="s">
+        <v>12</v>
+      </c>
+      <c r="O77" t="s">
+        <v>12</v>
+      </c>
+      <c r="P77" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>13</v>
+      </c>
+      <c r="R77" t="s">
+        <v>13</v>
+      </c>
+      <c r="S77" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" t="s">
+        <v>13</v>
+      </c>
+      <c r="U77" t="s">
+        <v>13</v>
+      </c>
+      <c r="V77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P78" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" t="s">
+        <v>13</v>
+      </c>
+      <c r="S78" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" t="s">
+        <v>13</v>
+      </c>
+      <c r="U78" t="s">
+        <v>13</v>
+      </c>
+      <c r="V78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S79" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" t="s">
+        <v>13</v>
+      </c>
+      <c r="U79" t="s">
+        <v>13</v>
+      </c>
+      <c r="V79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" t="s">
+        <v>12</v>
+      </c>
+      <c r="P80" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" t="s">
+        <v>13</v>
+      </c>
+      <c r="S80" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" t="s">
+        <v>13</v>
+      </c>
+      <c r="U80" t="s">
+        <v>13</v>
+      </c>
+      <c r="V80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" t="s">
+        <v>12</v>
+      </c>
+      <c r="P81" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" t="s">
+        <v>13</v>
+      </c>
+      <c r="S81" t="s">
+        <v>31</v>
+      </c>
+      <c r="T81" t="s">
+        <v>13</v>
+      </c>
+      <c r="U81" t="s">
+        <v>13</v>
+      </c>
+      <c r="V81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S82" t="s">
+        <v>31</v>
+      </c>
+      <c r="T82" t="s">
+        <v>13</v>
+      </c>
+      <c r="U82" t="s">
+        <v>13</v>
+      </c>
+      <c r="V82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" t="s">
+        <v>12</v>
+      </c>
+      <c r="P83" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>13</v>
+      </c>
+      <c r="R83" t="s">
+        <v>13</v>
+      </c>
+      <c r="S83" t="s">
+        <v>31</v>
+      </c>
+      <c r="T83" t="s">
+        <v>13</v>
+      </c>
+      <c r="U83" t="s">
+        <v>13</v>
+      </c>
+      <c r="V83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" t="s">
+        <v>12</v>
+      </c>
+      <c r="N84" t="s">
+        <v>12</v>
+      </c>
+      <c r="O84" t="s">
+        <v>12</v>
+      </c>
+      <c r="P84" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>13</v>
+      </c>
+      <c r="R84" t="s">
+        <v>13</v>
+      </c>
+      <c r="S84" t="s">
+        <v>31</v>
+      </c>
+      <c r="T84" t="s">
+        <v>13</v>
+      </c>
+      <c r="U84" t="s">
+        <v>13</v>
+      </c>
+      <c r="V84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" t="s">
+        <v>13</v>
+      </c>
+      <c r="M85" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" t="s">
+        <v>12</v>
+      </c>
+      <c r="O85" t="s">
+        <v>12</v>
+      </c>
+      <c r="P85" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>13</v>
+      </c>
+      <c r="R85" t="s">
+        <v>13</v>
+      </c>
+      <c r="S85" t="s">
+        <v>31</v>
+      </c>
+      <c r="T85" t="s">
+        <v>13</v>
+      </c>
+      <c r="U85" t="s">
+        <v>13</v>
+      </c>
+      <c r="V85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" t="s">
+        <v>12</v>
+      </c>
+      <c r="O86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P86" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>13</v>
+      </c>
+      <c r="R86" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86" t="s">
+        <v>31</v>
+      </c>
+      <c r="T86" t="s">
+        <v>13</v>
+      </c>
+      <c r="U86" t="s">
+        <v>13</v>
+      </c>
+      <c r="V86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" t="s">
+        <v>12</v>
+      </c>
+      <c r="O87" t="s">
+        <v>12</v>
+      </c>
+      <c r="P87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" t="s">
+        <v>13</v>
+      </c>
+      <c r="U87" t="s">
+        <v>13</v>
+      </c>
+      <c r="V87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" t="s">
+        <v>12</v>
+      </c>
+      <c r="O88" t="s">
+        <v>12</v>
+      </c>
+      <c r="P88" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" t="s">
+        <v>31</v>
+      </c>
+      <c r="T88" t="s">
+        <v>13</v>
+      </c>
+      <c r="U88" t="s">
+        <v>13</v>
+      </c>
+      <c r="V88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" t="s">
+        <v>12</v>
+      </c>
+      <c r="O89" t="s">
+        <v>12</v>
+      </c>
+      <c r="P89" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>13</v>
+      </c>
+      <c r="R89" t="s">
+        <v>13</v>
+      </c>
+      <c r="S89" t="s">
+        <v>31</v>
+      </c>
+      <c r="T89" t="s">
+        <v>13</v>
+      </c>
+      <c r="U89" t="s">
+        <v>13</v>
+      </c>
+      <c r="V89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O90" t="s">
+        <v>12</v>
+      </c>
+      <c r="P90" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>13</v>
+      </c>
+      <c r="R90" t="s">
+        <v>13</v>
+      </c>
+      <c r="S90" t="s">
+        <v>31</v>
+      </c>
+      <c r="T90" t="s">
+        <v>13</v>
+      </c>
+      <c r="U90" t="s">
+        <v>13</v>
+      </c>
+      <c r="V90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" t="s">
+        <v>12</v>
+      </c>
+      <c r="O91" t="s">
+        <v>12</v>
+      </c>
+      <c r="P91" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>13</v>
+      </c>
+      <c r="R91" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" t="s">
+        <v>31</v>
+      </c>
+      <c r="T91" t="s">
+        <v>13</v>
+      </c>
+      <c r="U91" t="s">
+        <v>13</v>
+      </c>
+      <c r="V91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" t="s">
+        <v>12</v>
+      </c>
+      <c r="O92" t="s">
+        <v>12</v>
+      </c>
+      <c r="P92" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>13</v>
+      </c>
+      <c r="R92" t="s">
+        <v>13</v>
+      </c>
+      <c r="S92" t="s">
+        <v>31</v>
+      </c>
+      <c r="T92" t="s">
+        <v>13</v>
+      </c>
+      <c r="U92" t="s">
+        <v>13</v>
+      </c>
+      <c r="V92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" t="s">
+        <v>12</v>
+      </c>
+      <c r="O93" t="s">
+        <v>12</v>
+      </c>
+      <c r="P93" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>13</v>
+      </c>
+      <c r="R93" t="s">
+        <v>13</v>
+      </c>
+      <c r="S93" t="s">
+        <v>31</v>
+      </c>
+      <c r="T93" t="s">
+        <v>13</v>
+      </c>
+      <c r="U93" t="s">
+        <v>13</v>
+      </c>
+      <c r="V93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" t="s">
+        <v>13</v>
+      </c>
+      <c r="M94" t="s">
+        <v>12</v>
+      </c>
+      <c r="N94" t="s">
+        <v>12</v>
+      </c>
+      <c r="O94" t="s">
+        <v>12</v>
+      </c>
+      <c r="P94" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>13</v>
+      </c>
+      <c r="R94" t="s">
+        <v>13</v>
+      </c>
+      <c r="S94" t="s">
+        <v>31</v>
+      </c>
+      <c r="T94" t="s">
+        <v>13</v>
+      </c>
+      <c r="U94" t="s">
+        <v>13</v>
+      </c>
+      <c r="V94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" t="s">
+        <v>12</v>
+      </c>
+      <c r="M95" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" t="s">
+        <v>12</v>
+      </c>
+      <c r="O95" t="s">
+        <v>12</v>
+      </c>
+      <c r="P95" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>12</v>
+      </c>
+      <c r="R95" t="s">
+        <v>12</v>
+      </c>
+      <c r="S95" t="s">
+        <v>31</v>
+      </c>
+      <c r="T95" t="s">
+        <v>13</v>
+      </c>
+      <c r="U95" t="s">
+        <v>13</v>
+      </c>
+      <c r="V95" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4199,10 +10187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D36"/>
+  <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4227,200 +10215,334 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4492,7 +10614,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -4545,7 +10667,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>35</v>
@@ -4563,24 +10685,24 @@
         <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -4672,35 +10794,35 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_list" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="182">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -206,514 +206,370 @@
     <t>World_resbuildings_SensAn</t>
   </si>
   <si>
+    <t>USA_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>USA_resbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>RECC_R32USA</t>
+  </si>
+  <si>
+    <t>Germany_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>Poland_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>Japan_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>China_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>India_resbuildings_cascade</t>
+  </si>
+  <si>
+    <t>RECC_Poland</t>
+  </si>
+  <si>
+    <t>RECC_R32JPN</t>
+  </si>
+  <si>
+    <t>RECC_R32CHN</t>
+  </si>
+  <si>
+    <t>RECC_R32IND</t>
+  </si>
+  <si>
+    <t>India_resbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>Germany_nonresbuildings_cascade</t>
+  </si>
+  <si>
+    <t>['nrb']</t>
+  </si>
+  <si>
+    <t>Germany_passvehicles_cascade</t>
+  </si>
+  <si>
+    <t>Germany_all_cascade</t>
+  </si>
+  <si>
+    <t>Germany_resbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>Germany_nonresbuildings_SensAn</t>
+  </si>
+  <si>
+    <t>Germany_passvehicles_SensAn</t>
+  </si>
+  <si>
+    <t>Germany_all_supplysideME</t>
+  </si>
+  <si>
+    <t>Germany_all_demandsideME</t>
+  </si>
+  <si>
+    <t>Germany_all_No_EE</t>
+  </si>
+  <si>
+    <t>Germany_supplydemand_ME</t>
+  </si>
+  <si>
+    <t>RECC_Germany_detail</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__17_53_15_pav_reb_nrb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__17_55_18_pav_reb_nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__17_57_14_pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__17_59_5_pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_0_58_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_2_53_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_4_46_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_6_39_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_8_34_pav_reb_nrb__FYI_FSD_EoL_MSU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_10_27_pav_reb_nrb__RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_12_21_pav_reb_nrb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_14_15_pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_16_10_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_17_48_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_19_30_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_21_12_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_22_54_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__18_24_37_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Do_not_include</t>
+  </si>
+  <si>
+    <t>Cascade_pav_reb_nrb</t>
+  </si>
+  <si>
+    <t>Cascade_nrb</t>
+  </si>
+  <si>
+    <t>Cascade_pav</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_22_44_nrb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_24_32_nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_26_23_nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_28_15_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_30_1_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_31_46_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_33_31_pav_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_35_6_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_36_44_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_38_24_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_40_8_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_41_56_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_11__19_43_43_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_TestRun</t>
+  </si>
+  <si>
+    <t>['pav','reb']</t>
+  </si>
+  <si>
+    <t>World_all_cascade</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_7_9_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_8_35_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_10_8_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_12_1_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_14_0_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_15_48_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_17_40_pav_</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_19_35_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_21_14_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_23_5_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_25_1_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_26_51_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Germany_2020_6_18__19_28_54_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_17_3_pav_</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_30_52_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_35_24_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_40_0_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_44_38_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_48_58_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_53_16_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__22_57_33_pav_</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_1_50_pav__FYI</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_6_11_pav__FSD</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_10_28_pav__EoL</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_14_45_pav__MSU</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_19_2_pav__ULD</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_23_20_pav__RUS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_28_10_pav__LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_32_28_pav__CaS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_37_4_pav__RiS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_41_26_pav__NoR</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_45_46_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_18__23_57_34_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_7_21_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_16_34_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_26_3_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_37_22_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_47_50_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__0_57_23_reb__FYI</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_7_2_reb__FSD</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_16_26_reb__EoL</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_25_26_reb__MSU</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_34_44_reb__ULD</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_43_56_reb__RUS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__1_53_3_reb__LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_2_33_reb__MIU</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_11_21_reb__NoR</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_21_22_pav_reb_</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_32_4_pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_44_58_pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__2_56_20_pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__3_6_38_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__3_17_3_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>RECC_Global_2020_6_19__3_27_25_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Cascade_pav_reb</t>
+  </si>
+  <si>
+    <t>Sensitivity_pav</t>
+  </si>
+  <si>
     <t>Sensitivity_reb</t>
   </si>
   <si>
-    <t>USA_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>USA_resbuildings_SensAn</t>
-  </si>
-  <si>
-    <t>RECC_R32USA</t>
-  </si>
-  <si>
-    <t>Germany_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>Poland_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>Japan_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>China_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>India_resbuildings_cascade</t>
-  </si>
-  <si>
-    <t>RECC_Poland</t>
-  </si>
-  <si>
-    <t>RECC_R32JPN</t>
-  </si>
-  <si>
-    <t>RECC_R32CHN</t>
-  </si>
-  <si>
-    <t>RECC_R32IND</t>
-  </si>
-  <si>
-    <t>India_resbuildings_SensAn</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Germany_nonresbuildings_cascade</t>
-  </si>
-  <si>
-    <t>['nrb']</t>
-  </si>
-  <si>
-    <t>Germany_passvehicles_cascade</t>
-  </si>
-  <si>
-    <t>Germany_all_cascade</t>
-  </si>
-  <si>
-    <t>Germany_resbuildings_SensAn</t>
-  </si>
-  <si>
-    <t>Germany_nonresbuildings_SensAn</t>
-  </si>
-  <si>
-    <t>Germany_passvehicles_SensAn</t>
-  </si>
-  <si>
-    <t>Germany_all_supplysideME</t>
-  </si>
-  <si>
-    <t>Germany_all_demandsideME</t>
-  </si>
-  <si>
-    <t>Germany_all_No_EE</t>
-  </si>
-  <si>
-    <t>Germany_supplydemand_ME</t>
-  </si>
-  <si>
-    <t>RECC_Germany_detail</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__17_53_15_pav_reb_nrb_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__17_55_18_pav_reb_nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__17_57_14_pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__17_59_5_pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_0_58_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_2_53_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_4_46_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_6_39_pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_8_34_pav_reb_nrb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_10_27_pav_reb_nrb__RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_12_21_pav_reb_nrb_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_14_15_pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_16_10_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_17_48_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_19_30_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_21_12_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_22_54_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__18_24_37_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Do_not_include</t>
-  </si>
-  <si>
-    <t>Cascade_pav_reb_nrb</t>
-  </si>
-  <si>
-    <t>Cascade_nrb</t>
-  </si>
-  <si>
-    <t>Cascade_pav</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_22_44_nrb_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_24_32_nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_26_23_nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_28_15_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_30_1_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_31_46_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_33_31_pav_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_35_6_pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_36_44_pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_38_24_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_40_8_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_41_56_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_11__19_43_43_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_TestRun</t>
-  </si>
-  <si>
-    <t>['pav','reb']</t>
-  </si>
-  <si>
-    <t>World_all_cascade</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_39_45_reb_</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_48_30_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_50_2_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_51_36_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_53_11_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_54_45_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_56_20_reb_</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_57_55_reb__FYI</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_11__23_59_30_reb__FSD</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_1_7_reb__EoL</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_2_42_reb__MSU</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_4_17_reb__ULD</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_5_53_reb__RUS</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_7_32_reb__LTE</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_9_6_reb__MIU</t>
-  </si>
-  <si>
-    <t>RECC_USA_2020_6_12__0_10_43_reb__NoR</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_12_19_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_21_11_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_22_44_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_24_20_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_25_55_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Germany_2020_6_12__0_27_32_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_29_6_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_37_59_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_39_32_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_41_8_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_42_43_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Poland_2020_6_12__0_44_18_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__0_45_53_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__0_54_41_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__0_56_14_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__0_57_49_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__0_59_25_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Japan_2020_6_12__1_1_2_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_2_40_reb_</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_11_45_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_13_21_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_14_58_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_16_35_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_China_2020_6_12__1_18_12_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_19_50_reb_</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_28_56_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_30_32_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_32_9_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_33_45_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_35_21_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_36_58_reb_</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_38_36_reb__FYI</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_40_15_reb__FSD</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_41_52_reb__EoL</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_43_30_reb__MSU</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_45_8_reb__ULD</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_46_45_reb__RUS</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_48_23_reb__LTE</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_50_0_reb__MIU</t>
-  </si>
-  <si>
-    <t>RECC_India_2020_6_12__1_51_37_reb__NoR</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__1_53_14_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_5_9_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_15_23_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_27_26_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_37_25_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_49_30_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__2_58_35_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_8_9_reb__FYI</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_17_52_reb__FSD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_26_52_reb__EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_36_9_reb__MSU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_45_20_reb__ULD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__3_56_31_reb__RUS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_5_41_reb__LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_14_56_reb__MIU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_23_57_reb__NoR</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_33_32_pav_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_37_36_pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_41_40_pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_45_44_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_49_49_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_53_53_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__4_57_57_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_2_2_pav_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_6_5_pav__FYI</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_10_8_pav__FSD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_14_12_pav__EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_18_17_pav__MSU</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_22_22_pav__ULD</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_26_37_pav__RUS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_30_47_pav__LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_35_1_pav__CaS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_39_46_pav__RiS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_44_11_pav__NoR</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__5_48_37_pav_reb_</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_4_5_pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_16_49_pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_25_1_pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_33_22_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_41_44_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_50_4_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>RECC_Global_2020_6_12__6_58_21_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
-    <t>Sensitivity_pav</t>
-  </si>
-  <si>
-    <t>Cascade_pav_reb</t>
+    <t>RECC_Global_2020_6_19__3_40_6_pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -737,12 +593,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -757,9 +619,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1064,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V101"/>
+  <dimension ref="A2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1199,13 +1062,13 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1264,12 +1127,11 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1328,12 +1190,11 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1392,12 +1253,11 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1456,10 +1316,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1518,10 +1378,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1545,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
         <v>12</v>
@@ -1579,44 +1439,41 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
         <v>12</v>
@@ -1644,14 +1501,17 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1707,16 +1567,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1769,19 +1629,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1831,10 +1691,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1843,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1893,10 +1753,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1908,10 +1768,10 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -1955,10 +1815,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1973,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -2017,10 +1877,10 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -2038,10 +1898,10 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -2079,10 +1939,10 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2103,10 +1963,10 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -2141,10 +2001,10 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -2171,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
         <v>12</v>
@@ -2180,13 +2040,13 @@
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S19" t="s">
         <v>31</v>
@@ -2202,14 +2062,11 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -2239,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
         <v>12</v>
@@ -2268,19 +2125,19 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -2307,13 +2164,13 @@
         <v>12</v>
       </c>
       <c r="P21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S21" t="s">
         <v>31</v>
@@ -2329,20 +2186,23 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -2351,10 +2211,10 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -2392,7 +2252,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -2407,16 +2267,16 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -2454,7 +2314,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -2469,10 +2329,10 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -2516,7 +2376,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -2534,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -2543,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" t="s">
         <v>12</v>
@@ -2577,35 +2437,32 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -2643,7 +2500,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -2658,19 +2515,19 @@
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
@@ -2704,20 +2561,23 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -2726,10 +2586,10 @@
         <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -2767,7 +2627,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -2776,22 +2636,22 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -2829,31 +2689,31 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -2891,34 +2751,34 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M31" t="s">
         <v>12</v>
@@ -2952,11 +2812,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -2971,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -3018,25 +2875,25 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -3080,19 +2937,19 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -3104,7 +2961,7 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -3142,28 +2999,28 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
         <v>13</v>
@@ -3204,34 +3061,34 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36" t="s">
         <v>12</v>
@@ -3266,34 +3123,34 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M37" t="s">
         <v>12</v>
@@ -3305,13 +3162,13 @@
         <v>12</v>
       </c>
       <c r="P37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S37" t="s">
         <v>31</v>
@@ -3328,13 +3185,13 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -3372,8 +3229,8 @@
       <c r="P38" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" t="s">
-        <v>13</v>
+      <c r="Q38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R38" t="s">
         <v>13</v>
@@ -3393,10 +3250,10 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -3434,8 +3291,8 @@
       <c r="P39" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" t="s">
-        <v>13</v>
+      <c r="Q39" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R39" t="s">
         <v>13</v>
@@ -3455,10 +3312,10 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -3496,8 +3353,8 @@
       <c r="P40" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" t="s">
-        <v>13</v>
+      <c r="Q40" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R40" t="s">
         <v>13</v>
@@ -3517,10 +3374,10 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -3558,8 +3415,8 @@
       <c r="P41" t="s">
         <v>13</v>
       </c>
-      <c r="Q41" t="s">
-        <v>13</v>
+      <c r="Q41" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R41" t="s">
         <v>13</v>
@@ -3579,10 +3436,10 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -3620,8 +3477,8 @@
       <c r="P42" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" t="s">
-        <v>13</v>
+      <c r="Q42" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R42" t="s">
         <v>13</v>
@@ -3641,10 +3498,10 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -3668,10 +3525,10 @@
         <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N43" t="s">
         <v>12</v>
@@ -3682,8 +3539,8 @@
       <c r="P43" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" t="s">
-        <v>13</v>
+      <c r="Q43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R43" t="s">
         <v>13</v>
@@ -3702,44 +3559,41 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
       </c>
       <c r="M44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O44" t="s">
         <v>12</v>
@@ -3747,8 +3601,8 @@
       <c r="P44" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" t="s">
-        <v>13</v>
+      <c r="Q44" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R44" t="s">
         <v>13</v>
@@ -3768,10 +3622,10 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -3783,25 +3637,25 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O45" t="s">
         <v>12</v>
@@ -3809,8 +3663,8 @@
       <c r="P45" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" t="s">
-        <v>13</v>
+      <c r="Q45" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R45" t="s">
         <v>13</v>
@@ -3825,3496 +3679,6 @@
         <v>13</v>
       </c>
       <c r="V45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" t="s">
-        <v>12</v>
-      </c>
-      <c r="O46" t="s">
-        <v>12</v>
-      </c>
-      <c r="P46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>13</v>
-      </c>
-      <c r="R46" t="s">
-        <v>13</v>
-      </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-      <c r="T46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" t="s">
-        <v>12</v>
-      </c>
-      <c r="O47" t="s">
-        <v>12</v>
-      </c>
-      <c r="P47" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>13</v>
-      </c>
-      <c r="R47" t="s">
-        <v>13</v>
-      </c>
-      <c r="S47" t="s">
-        <v>31</v>
-      </c>
-      <c r="T47" t="s">
-        <v>13</v>
-      </c>
-      <c r="U47" t="s">
-        <v>13</v>
-      </c>
-      <c r="V47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" t="s">
-        <v>12</v>
-      </c>
-      <c r="O48" t="s">
-        <v>12</v>
-      </c>
-      <c r="P48" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>13</v>
-      </c>
-      <c r="R48" t="s">
-        <v>13</v>
-      </c>
-      <c r="S48" t="s">
-        <v>31</v>
-      </c>
-      <c r="T48" t="s">
-        <v>13</v>
-      </c>
-      <c r="U48" t="s">
-        <v>13</v>
-      </c>
-      <c r="V48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" t="s">
-        <v>12</v>
-      </c>
-      <c r="O49" t="s">
-        <v>12</v>
-      </c>
-      <c r="P49" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>13</v>
-      </c>
-      <c r="R49" t="s">
-        <v>13</v>
-      </c>
-      <c r="S49" t="s">
-        <v>31</v>
-      </c>
-      <c r="T49" t="s">
-        <v>13</v>
-      </c>
-      <c r="U49" t="s">
-        <v>13</v>
-      </c>
-      <c r="V49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O50" t="s">
-        <v>12</v>
-      </c>
-      <c r="P50" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>13</v>
-      </c>
-      <c r="R50" t="s">
-        <v>13</v>
-      </c>
-      <c r="S50" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" t="s">
-        <v>13</v>
-      </c>
-      <c r="U50" t="s">
-        <v>13</v>
-      </c>
-      <c r="V50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" t="s">
-        <v>12</v>
-      </c>
-      <c r="P51" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>13</v>
-      </c>
-      <c r="R51" t="s">
-        <v>13</v>
-      </c>
-      <c r="S51" t="s">
-        <v>31</v>
-      </c>
-      <c r="T51" t="s">
-        <v>13</v>
-      </c>
-      <c r="U51" t="s">
-        <v>13</v>
-      </c>
-      <c r="V51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" t="s">
-        <v>12</v>
-      </c>
-      <c r="O52" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>13</v>
-      </c>
-      <c r="R52" t="s">
-        <v>13</v>
-      </c>
-      <c r="S52" t="s">
-        <v>31</v>
-      </c>
-      <c r="T52" t="s">
-        <v>13</v>
-      </c>
-      <c r="U52" t="s">
-        <v>13</v>
-      </c>
-      <c r="V52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O53" t="s">
-        <v>12</v>
-      </c>
-      <c r="P53" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>13</v>
-      </c>
-      <c r="R53" t="s">
-        <v>13</v>
-      </c>
-      <c r="S53" t="s">
-        <v>31</v>
-      </c>
-      <c r="T53" t="s">
-        <v>13</v>
-      </c>
-      <c r="U53" t="s">
-        <v>13</v>
-      </c>
-      <c r="V53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O54" t="s">
-        <v>12</v>
-      </c>
-      <c r="P54" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>13</v>
-      </c>
-      <c r="R54" t="s">
-        <v>13</v>
-      </c>
-      <c r="S54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T54" t="s">
-        <v>13</v>
-      </c>
-      <c r="U54" t="s">
-        <v>13</v>
-      </c>
-      <c r="V54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" t="s">
-        <v>12</v>
-      </c>
-      <c r="O55" t="s">
-        <v>12</v>
-      </c>
-      <c r="P55" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>13</v>
-      </c>
-      <c r="R55" t="s">
-        <v>13</v>
-      </c>
-      <c r="S55" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" t="s">
-        <v>13</v>
-      </c>
-      <c r="U55" t="s">
-        <v>13</v>
-      </c>
-      <c r="V55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N56" t="s">
-        <v>12</v>
-      </c>
-      <c r="O56" t="s">
-        <v>12</v>
-      </c>
-      <c r="P56" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>13</v>
-      </c>
-      <c r="R56" t="s">
-        <v>13</v>
-      </c>
-      <c r="S56" t="s">
-        <v>31</v>
-      </c>
-      <c r="T56" t="s">
-        <v>13</v>
-      </c>
-      <c r="U56" t="s">
-        <v>13</v>
-      </c>
-      <c r="V56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" t="s">
-        <v>12</v>
-      </c>
-      <c r="O57" t="s">
-        <v>12</v>
-      </c>
-      <c r="P57" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>13</v>
-      </c>
-      <c r="R57" t="s">
-        <v>13</v>
-      </c>
-      <c r="S57" t="s">
-        <v>31</v>
-      </c>
-      <c r="T57" t="s">
-        <v>13</v>
-      </c>
-      <c r="U57" t="s">
-        <v>13</v>
-      </c>
-      <c r="V57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" t="s">
-        <v>13</v>
-      </c>
-      <c r="M58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P58" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>13</v>
-      </c>
-      <c r="R58" t="s">
-        <v>13</v>
-      </c>
-      <c r="S58" t="s">
-        <v>31</v>
-      </c>
-      <c r="T58" t="s">
-        <v>13</v>
-      </c>
-      <c r="U58" t="s">
-        <v>13</v>
-      </c>
-      <c r="V58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" t="s">
-        <v>12</v>
-      </c>
-      <c r="O59" t="s">
-        <v>12</v>
-      </c>
-      <c r="P59" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>12</v>
-      </c>
-      <c r="R59" t="s">
-        <v>12</v>
-      </c>
-      <c r="S59" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" t="s">
-        <v>13</v>
-      </c>
-      <c r="U59" t="s">
-        <v>13</v>
-      </c>
-      <c r="V59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60" t="s">
-        <v>12</v>
-      </c>
-      <c r="P60" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>13</v>
-      </c>
-      <c r="R60" t="s">
-        <v>13</v>
-      </c>
-      <c r="S60" t="s">
-        <v>31</v>
-      </c>
-      <c r="T60" t="s">
-        <v>13</v>
-      </c>
-      <c r="U60" t="s">
-        <v>13</v>
-      </c>
-      <c r="V60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" t="s">
-        <v>12</v>
-      </c>
-      <c r="L61" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" t="s">
-        <v>12</v>
-      </c>
-      <c r="O61" t="s">
-        <v>12</v>
-      </c>
-      <c r="P61" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>13</v>
-      </c>
-      <c r="R61" t="s">
-        <v>13</v>
-      </c>
-      <c r="S61" t="s">
-        <v>31</v>
-      </c>
-      <c r="T61" t="s">
-        <v>13</v>
-      </c>
-      <c r="U61" t="s">
-        <v>13</v>
-      </c>
-      <c r="V61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L62" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62" t="s">
-        <v>12</v>
-      </c>
-      <c r="P62" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>13</v>
-      </c>
-      <c r="R62" t="s">
-        <v>13</v>
-      </c>
-      <c r="S62" t="s">
-        <v>31</v>
-      </c>
-      <c r="T62" t="s">
-        <v>13</v>
-      </c>
-      <c r="U62" t="s">
-        <v>13</v>
-      </c>
-      <c r="V62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" t="s">
-        <v>12</v>
-      </c>
-      <c r="O63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P63" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>13</v>
-      </c>
-      <c r="R63" t="s">
-        <v>13</v>
-      </c>
-      <c r="S63" t="s">
-        <v>31</v>
-      </c>
-      <c r="T63" t="s">
-        <v>13</v>
-      </c>
-      <c r="U63" t="s">
-        <v>13</v>
-      </c>
-      <c r="V63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" t="s">
-        <v>13</v>
-      </c>
-      <c r="L64" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" t="s">
-        <v>12</v>
-      </c>
-      <c r="O64" t="s">
-        <v>12</v>
-      </c>
-      <c r="P64" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>13</v>
-      </c>
-      <c r="R64" t="s">
-        <v>13</v>
-      </c>
-      <c r="S64" t="s">
-        <v>31</v>
-      </c>
-      <c r="T64" t="s">
-        <v>13</v>
-      </c>
-      <c r="U64" t="s">
-        <v>13</v>
-      </c>
-      <c r="V64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" t="s">
-        <v>13</v>
-      </c>
-      <c r="L65" t="s">
-        <v>13</v>
-      </c>
-      <c r="M65" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" t="s">
-        <v>12</v>
-      </c>
-      <c r="P65" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>13</v>
-      </c>
-      <c r="R65" t="s">
-        <v>13</v>
-      </c>
-      <c r="S65" t="s">
-        <v>31</v>
-      </c>
-      <c r="T65" t="s">
-        <v>13</v>
-      </c>
-      <c r="U65" t="s">
-        <v>13</v>
-      </c>
-      <c r="V65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" t="s">
-        <v>12</v>
-      </c>
-      <c r="O66" t="s">
-        <v>12</v>
-      </c>
-      <c r="P66" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>13</v>
-      </c>
-      <c r="R66" t="s">
-        <v>13</v>
-      </c>
-      <c r="S66" t="s">
-        <v>31</v>
-      </c>
-      <c r="T66" t="s">
-        <v>13</v>
-      </c>
-      <c r="U66" t="s">
-        <v>13</v>
-      </c>
-      <c r="V66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67" t="s">
-        <v>12</v>
-      </c>
-      <c r="L67" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" t="s">
-        <v>12</v>
-      </c>
-      <c r="O67" t="s">
-        <v>12</v>
-      </c>
-      <c r="P67" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>13</v>
-      </c>
-      <c r="R67" t="s">
-        <v>13</v>
-      </c>
-      <c r="S67" t="s">
-        <v>31</v>
-      </c>
-      <c r="T67" t="s">
-        <v>13</v>
-      </c>
-      <c r="U67" t="s">
-        <v>13</v>
-      </c>
-      <c r="V67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L68" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" t="s">
-        <v>12</v>
-      </c>
-      <c r="O68" t="s">
-        <v>12</v>
-      </c>
-      <c r="P68" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>13</v>
-      </c>
-      <c r="R68" t="s">
-        <v>13</v>
-      </c>
-      <c r="S68" t="s">
-        <v>31</v>
-      </c>
-      <c r="T68" t="s">
-        <v>13</v>
-      </c>
-      <c r="U68" t="s">
-        <v>13</v>
-      </c>
-      <c r="V68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" t="s">
-        <v>12</v>
-      </c>
-      <c r="L69" t="s">
-        <v>12</v>
-      </c>
-      <c r="M69" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" t="s">
-        <v>12</v>
-      </c>
-      <c r="O69" t="s">
-        <v>12</v>
-      </c>
-      <c r="P69" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>13</v>
-      </c>
-      <c r="R69" t="s">
-        <v>13</v>
-      </c>
-      <c r="S69" t="s">
-        <v>31</v>
-      </c>
-      <c r="T69" t="s">
-        <v>13</v>
-      </c>
-      <c r="U69" t="s">
-        <v>13</v>
-      </c>
-      <c r="V69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L70" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" t="s">
-        <v>12</v>
-      </c>
-      <c r="O70" t="s">
-        <v>12</v>
-      </c>
-      <c r="P70" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>13</v>
-      </c>
-      <c r="R70" t="s">
-        <v>13</v>
-      </c>
-      <c r="S70" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" t="s">
-        <v>13</v>
-      </c>
-      <c r="U70" t="s">
-        <v>13</v>
-      </c>
-      <c r="V70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" t="s">
-        <v>12</v>
-      </c>
-      <c r="O71" t="s">
-        <v>12</v>
-      </c>
-      <c r="P71" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>13</v>
-      </c>
-      <c r="R71" t="s">
-        <v>13</v>
-      </c>
-      <c r="S71" t="s">
-        <v>31</v>
-      </c>
-      <c r="T71" t="s">
-        <v>13</v>
-      </c>
-      <c r="U71" t="s">
-        <v>13</v>
-      </c>
-      <c r="V71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" t="s">
-        <v>12</v>
-      </c>
-      <c r="O72" t="s">
-        <v>12</v>
-      </c>
-      <c r="P72" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>13</v>
-      </c>
-      <c r="R72" t="s">
-        <v>13</v>
-      </c>
-      <c r="S72" t="s">
-        <v>31</v>
-      </c>
-      <c r="T72" t="s">
-        <v>13</v>
-      </c>
-      <c r="U72" t="s">
-        <v>13</v>
-      </c>
-      <c r="V72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" t="s">
-        <v>13</v>
-      </c>
-      <c r="L73" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" t="s">
-        <v>12</v>
-      </c>
-      <c r="O73" t="s">
-        <v>12</v>
-      </c>
-      <c r="P73" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>13</v>
-      </c>
-      <c r="R73" t="s">
-        <v>13</v>
-      </c>
-      <c r="S73" t="s">
-        <v>31</v>
-      </c>
-      <c r="T73" t="s">
-        <v>13</v>
-      </c>
-      <c r="U73" t="s">
-        <v>13</v>
-      </c>
-      <c r="V73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" t="s">
-        <v>12</v>
-      </c>
-      <c r="K74" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" t="s">
-        <v>13</v>
-      </c>
-      <c r="M74" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O74" t="s">
-        <v>12</v>
-      </c>
-      <c r="P74" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>13</v>
-      </c>
-      <c r="R74" t="s">
-        <v>13</v>
-      </c>
-      <c r="S74" t="s">
-        <v>31</v>
-      </c>
-      <c r="T74" t="s">
-        <v>13</v>
-      </c>
-      <c r="U74" t="s">
-        <v>13</v>
-      </c>
-      <c r="V74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C75" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" t="s">
-        <v>12</v>
-      </c>
-      <c r="K75" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" t="s">
-        <v>12</v>
-      </c>
-      <c r="O75" t="s">
-        <v>12</v>
-      </c>
-      <c r="P75" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R75" t="s">
-        <v>12</v>
-      </c>
-      <c r="S75" t="s">
-        <v>31</v>
-      </c>
-      <c r="T75" t="s">
-        <v>13</v>
-      </c>
-      <c r="U75" t="s">
-        <v>13</v>
-      </c>
-      <c r="V75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" t="s">
-        <v>12</v>
-      </c>
-      <c r="P76" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>13</v>
-      </c>
-      <c r="R76" t="s">
-        <v>13</v>
-      </c>
-      <c r="S76" t="s">
-        <v>31</v>
-      </c>
-      <c r="T76" t="s">
-        <v>13</v>
-      </c>
-      <c r="U76" t="s">
-        <v>13</v>
-      </c>
-      <c r="V76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" t="s">
-        <v>12</v>
-      </c>
-      <c r="N77" t="s">
-        <v>12</v>
-      </c>
-      <c r="O77" t="s">
-        <v>12</v>
-      </c>
-      <c r="P77" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>13</v>
-      </c>
-      <c r="R77" t="s">
-        <v>13</v>
-      </c>
-      <c r="S77" t="s">
-        <v>31</v>
-      </c>
-      <c r="T77" t="s">
-        <v>13</v>
-      </c>
-      <c r="U77" t="s">
-        <v>13</v>
-      </c>
-      <c r="V77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s">
-        <v>13</v>
-      </c>
-      <c r="L78" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" t="s">
-        <v>12</v>
-      </c>
-      <c r="N78" t="s">
-        <v>12</v>
-      </c>
-      <c r="O78" t="s">
-        <v>12</v>
-      </c>
-      <c r="P78" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>13</v>
-      </c>
-      <c r="R78" t="s">
-        <v>13</v>
-      </c>
-      <c r="S78" t="s">
-        <v>31</v>
-      </c>
-      <c r="T78" t="s">
-        <v>13</v>
-      </c>
-      <c r="U78" t="s">
-        <v>13</v>
-      </c>
-      <c r="V78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L79" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" t="s">
-        <v>12</v>
-      </c>
-      <c r="N79" t="s">
-        <v>12</v>
-      </c>
-      <c r="O79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P79" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>13</v>
-      </c>
-      <c r="R79" t="s">
-        <v>13</v>
-      </c>
-      <c r="S79" t="s">
-        <v>31</v>
-      </c>
-      <c r="T79" t="s">
-        <v>13</v>
-      </c>
-      <c r="U79" t="s">
-        <v>13</v>
-      </c>
-      <c r="V79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" t="s">
-        <v>13</v>
-      </c>
-      <c r="K80" t="s">
-        <v>13</v>
-      </c>
-      <c r="L80" t="s">
-        <v>12</v>
-      </c>
-      <c r="M80" t="s">
-        <v>12</v>
-      </c>
-      <c r="N80" t="s">
-        <v>12</v>
-      </c>
-      <c r="O80" t="s">
-        <v>12</v>
-      </c>
-      <c r="P80" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>13</v>
-      </c>
-      <c r="R80" t="s">
-        <v>13</v>
-      </c>
-      <c r="S80" t="s">
-        <v>31</v>
-      </c>
-      <c r="T80" t="s">
-        <v>13</v>
-      </c>
-      <c r="U80" t="s">
-        <v>13</v>
-      </c>
-      <c r="V80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" t="s">
-        <v>13</v>
-      </c>
-      <c r="L81" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" t="s">
-        <v>13</v>
-      </c>
-      <c r="N81" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" t="s">
-        <v>12</v>
-      </c>
-      <c r="P81" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>13</v>
-      </c>
-      <c r="R81" t="s">
-        <v>13</v>
-      </c>
-      <c r="S81" t="s">
-        <v>31</v>
-      </c>
-      <c r="T81" t="s">
-        <v>13</v>
-      </c>
-      <c r="U81" t="s">
-        <v>13</v>
-      </c>
-      <c r="V81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" t="s">
-        <v>13</v>
-      </c>
-      <c r="L82" t="s">
-        <v>12</v>
-      </c>
-      <c r="M82" t="s">
-        <v>13</v>
-      </c>
-      <c r="N82" t="s">
-        <v>13</v>
-      </c>
-      <c r="O82" t="s">
-        <v>12</v>
-      </c>
-      <c r="P82" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>13</v>
-      </c>
-      <c r="R82" t="s">
-        <v>13</v>
-      </c>
-      <c r="S82" t="s">
-        <v>31</v>
-      </c>
-      <c r="T82" t="s">
-        <v>13</v>
-      </c>
-      <c r="U82" t="s">
-        <v>13</v>
-      </c>
-      <c r="V82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" t="s">
-        <v>12</v>
-      </c>
-      <c r="O83" t="s">
-        <v>12</v>
-      </c>
-      <c r="P83" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>13</v>
-      </c>
-      <c r="R83" t="s">
-        <v>13</v>
-      </c>
-      <c r="S83" t="s">
-        <v>31</v>
-      </c>
-      <c r="T83" t="s">
-        <v>13</v>
-      </c>
-      <c r="U83" t="s">
-        <v>13</v>
-      </c>
-      <c r="V83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" t="s">
-        <v>12</v>
-      </c>
-      <c r="K84" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" t="s">
-        <v>12</v>
-      </c>
-      <c r="N84" t="s">
-        <v>12</v>
-      </c>
-      <c r="O84" t="s">
-        <v>12</v>
-      </c>
-      <c r="P84" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>13</v>
-      </c>
-      <c r="R84" t="s">
-        <v>13</v>
-      </c>
-      <c r="S84" t="s">
-        <v>31</v>
-      </c>
-      <c r="T84" t="s">
-        <v>13</v>
-      </c>
-      <c r="U84" t="s">
-        <v>13</v>
-      </c>
-      <c r="V84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" t="s">
-        <v>12</v>
-      </c>
-      <c r="N85" t="s">
-        <v>12</v>
-      </c>
-      <c r="O85" t="s">
-        <v>12</v>
-      </c>
-      <c r="P85" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>13</v>
-      </c>
-      <c r="R85" t="s">
-        <v>13</v>
-      </c>
-      <c r="S85" t="s">
-        <v>31</v>
-      </c>
-      <c r="T85" t="s">
-        <v>13</v>
-      </c>
-      <c r="U85" t="s">
-        <v>13</v>
-      </c>
-      <c r="V85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" t="s">
-        <v>12</v>
-      </c>
-      <c r="K86" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M86" t="s">
-        <v>12</v>
-      </c>
-      <c r="N86" t="s">
-        <v>12</v>
-      </c>
-      <c r="O86" t="s">
-        <v>12</v>
-      </c>
-      <c r="P86" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>13</v>
-      </c>
-      <c r="R86" t="s">
-        <v>13</v>
-      </c>
-      <c r="S86" t="s">
-        <v>31</v>
-      </c>
-      <c r="T86" t="s">
-        <v>13</v>
-      </c>
-      <c r="U86" t="s">
-        <v>13</v>
-      </c>
-      <c r="V86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" t="s">
-        <v>12</v>
-      </c>
-      <c r="M87" t="s">
-        <v>12</v>
-      </c>
-      <c r="N87" t="s">
-        <v>12</v>
-      </c>
-      <c r="O87" t="s">
-        <v>12</v>
-      </c>
-      <c r="P87" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>13</v>
-      </c>
-      <c r="R87" t="s">
-        <v>13</v>
-      </c>
-      <c r="S87" t="s">
-        <v>31</v>
-      </c>
-      <c r="T87" t="s">
-        <v>13</v>
-      </c>
-      <c r="U87" t="s">
-        <v>13</v>
-      </c>
-      <c r="V87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" t="s">
-        <v>12</v>
-      </c>
-      <c r="K88" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" t="s">
-        <v>12</v>
-      </c>
-      <c r="M88" t="s">
-        <v>12</v>
-      </c>
-      <c r="N88" t="s">
-        <v>12</v>
-      </c>
-      <c r="O88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P88" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>13</v>
-      </c>
-      <c r="R88" t="s">
-        <v>13</v>
-      </c>
-      <c r="S88" t="s">
-        <v>31</v>
-      </c>
-      <c r="T88" t="s">
-        <v>13</v>
-      </c>
-      <c r="U88" t="s">
-        <v>13</v>
-      </c>
-      <c r="V88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" t="s">
-        <v>12</v>
-      </c>
-      <c r="M89" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" t="s">
-        <v>12</v>
-      </c>
-      <c r="O89" t="s">
-        <v>12</v>
-      </c>
-      <c r="P89" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>13</v>
-      </c>
-      <c r="R89" t="s">
-        <v>13</v>
-      </c>
-      <c r="S89" t="s">
-        <v>31</v>
-      </c>
-      <c r="T89" t="s">
-        <v>13</v>
-      </c>
-      <c r="U89" t="s">
-        <v>13</v>
-      </c>
-      <c r="V89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C90" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" t="s">
-        <v>12</v>
-      </c>
-      <c r="K90" t="s">
-        <v>13</v>
-      </c>
-      <c r="L90" t="s">
-        <v>12</v>
-      </c>
-      <c r="M90" t="s">
-        <v>12</v>
-      </c>
-      <c r="N90" t="s">
-        <v>12</v>
-      </c>
-      <c r="O90" t="s">
-        <v>12</v>
-      </c>
-      <c r="P90" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>13</v>
-      </c>
-      <c r="R90" t="s">
-        <v>13</v>
-      </c>
-      <c r="S90" t="s">
-        <v>31</v>
-      </c>
-      <c r="T90" t="s">
-        <v>13</v>
-      </c>
-      <c r="U90" t="s">
-        <v>13</v>
-      </c>
-      <c r="V90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K91" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" t="s">
-        <v>12</v>
-      </c>
-      <c r="M91" t="s">
-        <v>13</v>
-      </c>
-      <c r="N91" t="s">
-        <v>12</v>
-      </c>
-      <c r="O91" t="s">
-        <v>12</v>
-      </c>
-      <c r="P91" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>13</v>
-      </c>
-      <c r="R91" t="s">
-        <v>13</v>
-      </c>
-      <c r="S91" t="s">
-        <v>31</v>
-      </c>
-      <c r="T91" t="s">
-        <v>13</v>
-      </c>
-      <c r="U91" t="s">
-        <v>13</v>
-      </c>
-      <c r="V91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C92" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K92" t="s">
-        <v>12</v>
-      </c>
-      <c r="L92" t="s">
-        <v>12</v>
-      </c>
-      <c r="M92" t="s">
-        <v>12</v>
-      </c>
-      <c r="N92" t="s">
-        <v>13</v>
-      </c>
-      <c r="O92" t="s">
-        <v>12</v>
-      </c>
-      <c r="P92" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>13</v>
-      </c>
-      <c r="R92" t="s">
-        <v>13</v>
-      </c>
-      <c r="S92" t="s">
-        <v>31</v>
-      </c>
-      <c r="T92" t="s">
-        <v>13</v>
-      </c>
-      <c r="U92" t="s">
-        <v>13</v>
-      </c>
-      <c r="V92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C93" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" t="s">
-        <v>36</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" t="s">
-        <v>12</v>
-      </c>
-      <c r="J93" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" t="s">
-        <v>12</v>
-      </c>
-      <c r="L93" t="s">
-        <v>12</v>
-      </c>
-      <c r="M93" t="s">
-        <v>12</v>
-      </c>
-      <c r="N93" t="s">
-        <v>12</v>
-      </c>
-      <c r="O93" t="s">
-        <v>12</v>
-      </c>
-      <c r="P93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>12</v>
-      </c>
-      <c r="R93" t="s">
-        <v>12</v>
-      </c>
-      <c r="S93" t="s">
-        <v>31</v>
-      </c>
-      <c r="T93" t="s">
-        <v>13</v>
-      </c>
-      <c r="U93" t="s">
-        <v>13</v>
-      </c>
-      <c r="V93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" t="s">
-        <v>12</v>
-      </c>
-      <c r="K94" t="s">
-        <v>12</v>
-      </c>
-      <c r="L94" t="s">
-        <v>12</v>
-      </c>
-      <c r="M94" t="s">
-        <v>12</v>
-      </c>
-      <c r="N94" t="s">
-        <v>12</v>
-      </c>
-      <c r="O94" t="s">
-        <v>12</v>
-      </c>
-      <c r="P94" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>13</v>
-      </c>
-      <c r="R94" t="s">
-        <v>13</v>
-      </c>
-      <c r="S94" t="s">
-        <v>31</v>
-      </c>
-      <c r="T94" t="s">
-        <v>13</v>
-      </c>
-      <c r="U94" t="s">
-        <v>13</v>
-      </c>
-      <c r="V94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" t="s">
-        <v>12</v>
-      </c>
-      <c r="J95" t="s">
-        <v>12</v>
-      </c>
-      <c r="K95" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" t="s">
-        <v>12</v>
-      </c>
-      <c r="M95" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" t="s">
-        <v>12</v>
-      </c>
-      <c r="O95" t="s">
-        <v>12</v>
-      </c>
-      <c r="P95" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>13</v>
-      </c>
-      <c r="R95" t="s">
-        <v>13</v>
-      </c>
-      <c r="S95" t="s">
-        <v>31</v>
-      </c>
-      <c r="T95" t="s">
-        <v>13</v>
-      </c>
-      <c r="U95" t="s">
-        <v>13</v>
-      </c>
-      <c r="V95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" t="s">
-        <v>13</v>
-      </c>
-      <c r="K96" t="s">
-        <v>13</v>
-      </c>
-      <c r="L96" t="s">
-        <v>12</v>
-      </c>
-      <c r="M96" t="s">
-        <v>12</v>
-      </c>
-      <c r="N96" t="s">
-        <v>12</v>
-      </c>
-      <c r="O96" t="s">
-        <v>12</v>
-      </c>
-      <c r="P96" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>13</v>
-      </c>
-      <c r="R96" t="s">
-        <v>13</v>
-      </c>
-      <c r="S96" t="s">
-        <v>31</v>
-      </c>
-      <c r="T96" t="s">
-        <v>13</v>
-      </c>
-      <c r="U96" t="s">
-        <v>13</v>
-      </c>
-      <c r="V96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.45">
-      <c r="C97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D97" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" t="s">
-        <v>13</v>
-      </c>
-      <c r="L97" t="s">
-        <v>12</v>
-      </c>
-      <c r="M97" t="s">
-        <v>12</v>
-      </c>
-      <c r="N97" t="s">
-        <v>12</v>
-      </c>
-      <c r="O97" t="s">
-        <v>12</v>
-      </c>
-      <c r="P97" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>13</v>
-      </c>
-      <c r="R97" t="s">
-        <v>13</v>
-      </c>
-      <c r="S97" t="s">
-        <v>31</v>
-      </c>
-      <c r="T97" t="s">
-        <v>13</v>
-      </c>
-      <c r="U97" t="s">
-        <v>13</v>
-      </c>
-      <c r="V97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.45">
-      <c r="C98" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" t="s">
-        <v>13</v>
-      </c>
-      <c r="L98" t="s">
-        <v>12</v>
-      </c>
-      <c r="M98" t="s">
-        <v>12</v>
-      </c>
-      <c r="N98" t="s">
-        <v>12</v>
-      </c>
-      <c r="O98" t="s">
-        <v>12</v>
-      </c>
-      <c r="P98" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>13</v>
-      </c>
-      <c r="R98" t="s">
-        <v>13</v>
-      </c>
-      <c r="S98" t="s">
-        <v>31</v>
-      </c>
-      <c r="T98" t="s">
-        <v>13</v>
-      </c>
-      <c r="U98" t="s">
-        <v>13</v>
-      </c>
-      <c r="V98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.45">
-      <c r="C99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" t="s">
-        <v>13</v>
-      </c>
-      <c r="L99" t="s">
-        <v>12</v>
-      </c>
-      <c r="M99" t="s">
-        <v>13</v>
-      </c>
-      <c r="N99" t="s">
-        <v>12</v>
-      </c>
-      <c r="O99" t="s">
-        <v>12</v>
-      </c>
-      <c r="P99" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>13</v>
-      </c>
-      <c r="R99" t="s">
-        <v>13</v>
-      </c>
-      <c r="S99" t="s">
-        <v>31</v>
-      </c>
-      <c r="T99" t="s">
-        <v>13</v>
-      </c>
-      <c r="U99" t="s">
-        <v>13</v>
-      </c>
-      <c r="V99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.45">
-      <c r="C100" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" t="s">
-        <v>13</v>
-      </c>
-      <c r="L100" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" t="s">
-        <v>13</v>
-      </c>
-      <c r="N100" t="s">
-        <v>13</v>
-      </c>
-      <c r="O100" t="s">
-        <v>12</v>
-      </c>
-      <c r="P100" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>13</v>
-      </c>
-      <c r="R100" t="s">
-        <v>13</v>
-      </c>
-      <c r="S100" t="s">
-        <v>31</v>
-      </c>
-      <c r="T100" t="s">
-        <v>13</v>
-      </c>
-      <c r="U100" t="s">
-        <v>13</v>
-      </c>
-      <c r="V100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" t="s">
-        <v>13</v>
-      </c>
-      <c r="L101" t="s">
-        <v>13</v>
-      </c>
-      <c r="M101" t="s">
-        <v>13</v>
-      </c>
-      <c r="N101" t="s">
-        <v>13</v>
-      </c>
-      <c r="O101" t="s">
-        <v>12</v>
-      </c>
-      <c r="P101" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>13</v>
-      </c>
-      <c r="R101" t="s">
-        <v>13</v>
-      </c>
-      <c r="S101" t="s">
-        <v>31</v>
-      </c>
-      <c r="T101" t="s">
-        <v>13</v>
-      </c>
-      <c r="U101" t="s">
-        <v>13</v>
-      </c>
-      <c r="V101" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7328,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:V30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7457,10 +3821,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -7522,7 +3886,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -7584,7 +3948,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -7646,7 +4010,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -7708,7 +4072,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -7770,7 +4134,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -7832,13 +4196,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -7897,10 +4261,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -7959,10 +4323,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -8021,10 +4385,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -8083,10 +4447,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -8145,10 +4509,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -8207,10 +4571,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -8272,7 +4636,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -8334,7 +4698,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
@@ -8396,7 +4760,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -8458,7 +4822,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -8520,7 +4884,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -8582,7 +4946,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -8644,10 +5008,10 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -8709,7 +5073,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -8771,7 +5135,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -8833,7 +5197,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -8895,7 +5259,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -8957,7 +5321,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>45</v>
@@ -9019,7 +5383,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
@@ -9081,7 +5445,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
@@ -9143,10 +5507,10 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -9208,7 +5572,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -9270,7 +5634,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -9332,7 +5696,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
@@ -9394,7 +5758,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -9456,7 +5820,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -9518,7 +5882,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
@@ -9580,7 +5944,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -9642,7 +6006,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -9704,7 +6068,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -9766,13 +6130,13 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -9831,10 +6195,10 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -9893,10 +6257,10 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -9955,10 +6319,10 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -10017,10 +6381,10 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -10079,10 +6443,10 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -10141,10 +6505,10 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -10203,10 +6567,10 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -10265,10 +6629,10 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -10327,10 +6691,10 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -10389,10 +6753,10 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
@@ -10454,7 +6818,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
@@ -10516,7 +6880,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
         <v>36</v>
@@ -10578,7 +6942,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
@@ -10640,7 +7004,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
         <v>36</v>
@@ -10702,7 +7066,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
         <v>36</v>
@@ -10764,7 +7128,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
         <v>36</v>
@@ -10826,7 +7190,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
         <v>36</v>
@@ -10888,7 +7252,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
         <v>36</v>
@@ -10950,7 +7314,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
         <v>36</v>
@@ -11012,7 +7376,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
         <v>36</v>
@@ -11074,10 +7438,10 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
@@ -11139,10 +7503,10 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -11204,10 +7568,10 @@
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -11269,10 +7633,10 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -11342,7 +7706,7 @@
   <dimension ref="B1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11368,45 +7732,45 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
@@ -11414,10 +7778,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
@@ -11425,10 +7789,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -11436,10 +7800,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
@@ -11447,10 +7811,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
@@ -11461,32 +7825,32 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
@@ -11494,35 +7858,35 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
@@ -11530,40 +7894,40 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
@@ -11578,10 +7942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V101"/>
+  <dimension ref="A2:V108"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13829,10 +10193,10 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -13894,7 +10258,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -13956,7 +10320,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -14018,7 +10382,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -14080,7 +10444,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -14142,7 +10506,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -14204,10 +10568,10 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -14269,7 +10633,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
         <v>41</v>
@@ -14331,7 +10695,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
@@ -14393,7 +10757,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
         <v>41</v>
@@ -14455,7 +10819,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
         <v>41</v>
@@ -14517,7 +10881,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -14579,7 +10943,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
@@ -14641,7 +11005,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
@@ -14703,7 +11067,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
@@ -14765,7 +11129,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
@@ -14827,7 +11191,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -15202,13 +11566,13 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -15267,10 +11631,10 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -15329,10 +11693,10 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -15391,10 +11755,10 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -15453,10 +11817,10 @@
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -15515,10 +11879,10 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -15542,10 +11906,10 @@
         <v>13</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N65" t="s">
         <v>12</v>
@@ -15576,44 +11940,41 @@
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="s">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O66" t="s">
         <v>12</v>
@@ -15641,20 +12002,23 @@
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -15704,7 +12068,7 @@
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
@@ -15725,10 +12089,10 @@
         <v>12</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" t="s">
         <v>12</v>
@@ -15766,7 +12130,7 @@
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
@@ -15781,7 +12145,7 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -15828,7 +12192,7 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
@@ -15846,7 +12210,7 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
         <v>13</v>
@@ -15890,7 +12254,7 @@
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
@@ -15917,7 +12281,7 @@
         <v>13</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M71" t="s">
         <v>12</v>
@@ -15951,38 +12315,35 @@
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M72" t="s">
         <v>12</v>
@@ -16016,20 +12377,23 @@
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -16079,7 +12443,7 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
@@ -16100,10 +12464,10 @@
         <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s">
         <v>12</v>
@@ -16141,7 +12505,7 @@
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
@@ -16156,7 +12520,7 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -16203,7 +12567,7 @@
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
@@ -16221,7 +12585,7 @@
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
         <v>13</v>
@@ -16265,7 +12629,7 @@
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
@@ -16292,7 +12656,7 @@
         <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M77" t="s">
         <v>12</v>
@@ -16326,38 +12690,35 @@
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M78" t="s">
         <v>12</v>
@@ -16391,20 +12752,23 @@
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -16454,7 +12818,7 @@
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -16475,10 +12839,10 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
         <v>12</v>
@@ -16516,7 +12880,7 @@
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
@@ -16531,7 +12895,7 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -16578,7 +12942,7 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
@@ -16596,7 +12960,7 @@
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
         <v>13</v>
@@ -16640,7 +13004,7 @@
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
@@ -16667,7 +13031,7 @@
         <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M83" t="s">
         <v>12</v>
@@ -16701,38 +13065,35 @@
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M84" t="s">
         <v>12</v>
@@ -16766,14 +13127,17 @@
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -16829,19 +13193,19 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
@@ -16891,16 +13255,16 @@
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -16912,10 +13276,10 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L87" t="s">
         <v>12</v>
@@ -16953,19 +13317,19 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
         <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -16974,10 +13338,10 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L88" t="s">
         <v>12</v>
@@ -17015,31 +13379,31 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" t="s">
         <v>12</v>
@@ -17077,34 +13441,34 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
         <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
         <v>13</v>
       </c>
       <c r="K90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90" t="s">
         <v>12</v>
@@ -17138,8 +13502,11 @@
       </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
       <c r="C91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
@@ -17163,7 +13530,7 @@
         <v>12</v>
       </c>
       <c r="K91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" t="s">
         <v>12</v>
@@ -17201,13 +13568,13 @@
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
         <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
@@ -17228,7 +13595,7 @@
         <v>12</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M92" t="s">
         <v>12</v>
@@ -17263,7 +13630,7 @@
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
         <v>41</v>
@@ -17272,7 +13639,7 @@
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -17302,13 +13669,13 @@
         <v>12</v>
       </c>
       <c r="P93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S93" t="s">
         <v>31</v>
@@ -17324,14 +13691,11 @@
       </c>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>128</v>
-      </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -17340,7 +13704,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
@@ -17390,22 +13754,22 @@
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -17452,31 +13816,31 @@
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" t="s">
         <v>12</v>
@@ -17512,24 +13876,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -17538,7 +13902,7 @@
         <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" t="s">
         <v>12</v>
@@ -17574,30 +13938,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K98" t="s">
         <v>13</v>
@@ -17636,39 +14000,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N99" t="s">
         <v>12</v>
@@ -17698,54 +14062,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C100" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" t="s">
         <v>12</v>
       </c>
       <c r="M100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O100" t="s">
         <v>12</v>
       </c>
       <c r="P100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S100" t="s">
         <v>31</v>
@@ -17760,42 +14124,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
       <c r="C101" t="s">
         <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O101" t="s">
         <v>12</v>
@@ -17803,8 +14170,8 @@
       <c r="P101" t="s">
         <v>13</v>
       </c>
-      <c r="Q101" t="s">
-        <v>13</v>
+      <c r="Q101" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="R101" t="s">
         <v>13</v>
@@ -17819,6 +14186,440 @@
         <v>13</v>
       </c>
       <c r="V101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" t="s">
+        <v>12</v>
+      </c>
+      <c r="O102" t="s">
+        <v>12</v>
+      </c>
+      <c r="P102" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R102" t="s">
+        <v>13</v>
+      </c>
+      <c r="S102" t="s">
+        <v>31</v>
+      </c>
+      <c r="T102" t="s">
+        <v>13</v>
+      </c>
+      <c r="U102" t="s">
+        <v>13</v>
+      </c>
+      <c r="V102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103" t="s">
+        <v>12</v>
+      </c>
+      <c r="M103" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" t="s">
+        <v>12</v>
+      </c>
+      <c r="O103" t="s">
+        <v>12</v>
+      </c>
+      <c r="P103" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R103" t="s">
+        <v>13</v>
+      </c>
+      <c r="S103" t="s">
+        <v>31</v>
+      </c>
+      <c r="T103" t="s">
+        <v>13</v>
+      </c>
+      <c r="U103" t="s">
+        <v>13</v>
+      </c>
+      <c r="V103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" t="s">
+        <v>12</v>
+      </c>
+      <c r="O104" t="s">
+        <v>12</v>
+      </c>
+      <c r="P104" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R104" t="s">
+        <v>13</v>
+      </c>
+      <c r="S104" t="s">
+        <v>31</v>
+      </c>
+      <c r="T104" t="s">
+        <v>13</v>
+      </c>
+      <c r="U104" t="s">
+        <v>13</v>
+      </c>
+      <c r="V104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" t="s">
+        <v>12</v>
+      </c>
+      <c r="O105" t="s">
+        <v>12</v>
+      </c>
+      <c r="P105" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R105" t="s">
+        <v>13</v>
+      </c>
+      <c r="S105" t="s">
+        <v>31</v>
+      </c>
+      <c r="T105" t="s">
+        <v>13</v>
+      </c>
+      <c r="U105" t="s">
+        <v>13</v>
+      </c>
+      <c r="V105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" t="s">
+        <v>12</v>
+      </c>
+      <c r="O106" t="s">
+        <v>12</v>
+      </c>
+      <c r="P106" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R106" t="s">
+        <v>13</v>
+      </c>
+      <c r="S106" t="s">
+        <v>31</v>
+      </c>
+      <c r="T106" t="s">
+        <v>13</v>
+      </c>
+      <c r="U106" t="s">
+        <v>13</v>
+      </c>
+      <c r="V106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" t="s">
+        <v>12</v>
+      </c>
+      <c r="M107" t="s">
+        <v>13</v>
+      </c>
+      <c r="N107" t="s">
+        <v>13</v>
+      </c>
+      <c r="O107" t="s">
+        <v>12</v>
+      </c>
+      <c r="P107" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R107" t="s">
+        <v>13</v>
+      </c>
+      <c r="S107" t="s">
+        <v>31</v>
+      </c>
+      <c r="T107" t="s">
+        <v>13</v>
+      </c>
+      <c r="U107" t="s">
+        <v>13</v>
+      </c>
+      <c r="V107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108" t="s">
+        <v>13</v>
+      </c>
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108" t="s">
+        <v>13</v>
+      </c>
+      <c r="O108" t="s">
+        <v>12</v>
+      </c>
+      <c r="P108" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R108" t="s">
+        <v>13</v>
+      </c>
+      <c r="S108" t="s">
+        <v>31</v>
+      </c>
+      <c r="T108" t="s">
+        <v>13</v>
+      </c>
+      <c r="U108" t="s">
+        <v>13</v>
+      </c>
+      <c r="V108" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17832,7 +14633,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B4" sqref="B4:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17843,10 +14644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D100"/>
+  <dimension ref="B1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17871,574 +14672,323 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D66" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D67" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D71" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D78" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D79" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" t="s">
-        <v>228</v>
-      </c>
-      <c r="D81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D87" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D91" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" t="s">
-        <v>229</v>
-      </c>
-      <c r="D92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D93" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D97" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D98" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D99" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
+      <c r="B57" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18592,13 +15142,13 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -18666,7 +15216,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18745,10 +15295,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:V9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B4" sqref="B4:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18876,13 +15426,13 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -18941,10 +15491,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -19003,10 +15553,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -19065,10 +15615,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -19127,10 +15677,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -19189,10 +15739,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -19246,443 +15796,6 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" t="s">
-        <v>13</v>
-      </c>
-      <c r="V14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" t="s">
         <v>12</v>
       </c>
     </row>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RECC_Config_list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9045" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9189" uniqueCount="365">
   <si>
     <t>Sheet_Name</t>
   </si>
@@ -766,6 +766,360 @@
   </si>
   <si>
     <t>[33]</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_41_25_reb_</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_50_27_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_52_2_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_53_37_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_55_13_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_56_49_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_58_27_pav_</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__22_59_59_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__23_1_31_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__23_3_2_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__23_4_33_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__23_6_4_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Poland_2020_6_20__23_7_35_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_9_6_reb_</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_18_26_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_20_3_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_21_41_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_23_20_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_25_0_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_26_40_pav_</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_28_13_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_29_45_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_31_17_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_32_50_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_34_22_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32JPN_2020_6_20__23_35_54_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_37_31_reb_</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_46_57_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_48_39_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_50_21_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_52_3_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_53_45_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_55_27_pav_</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_57_1_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_20__23_58_35_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_21__0_0_9_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_21__0_1_44_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_21__0_3_18_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32CHN_2020_6_21__0_4_52_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_6_26_reb_</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_15_51_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_17_33_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_19_15_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_20_57_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_22_38_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_24_20_reb_</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_26_2_reb__FYI</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_27_44_reb__FSD</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_29_26_reb__EoL</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_31_9_reb__MSU</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_32_52_reb__ULD</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_34_34_reb__RUS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_36_16_reb__LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_37_58_reb__MIU</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_39_41_reb__NoR</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_41_22_pav_</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_42_57_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_44_31_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_46_5_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_47_39_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_49_13_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_50_46_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_52_21_pav_</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_53_55_pav__FYI</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_55_29_pav__FSD</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_57_3_pav__EoL</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__0_58_36_pav__MSU</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_0_10_pav__ULD</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_1_44_pav__RUS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_3_17_pav__LTE</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_4_51_pav__CaS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_6_25_pav__RiS</t>
+  </si>
+  <si>
+    <t>R32IND_2020_6_21__1_7_59_pav__NoR</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_9_33_reb_</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_18_59_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_20_41_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_22_23_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_24_5_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_25_47_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_27_28_pav_</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_29_2_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_30_37_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_32_11_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_33_44_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_35_18_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other_2020_6_21__1_36_52_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_38_25_reb_</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_47_51_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_49_32_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_51_12_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_52_53_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_54_34_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_56_15_pav_</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_57_48_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__1_59_21_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__2_0_53_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__2_2_26_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__2_3_59_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other_2020_6_21__2_5_32_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_7_5_reb_</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_16_27_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_18_8_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_19_49_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_21_30_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_23_10_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_24_51_pav_</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_26_24_pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_27_57_pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_29_29_pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_31_2_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_32_36_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other_2020_6_21__2_34_9_pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>OECD_Other</t>
+  </si>
+  <si>
+    <t>ASIA_Other</t>
+  </si>
+  <si>
+    <t>SSA_Other</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -1125,11 +1479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:Y115"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28780,10 +29134,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D91"/>
+  <dimension ref="B1:D203"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29319,6 +29673,662 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D103" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>362</v>
+      </c>
+      <c r="C104" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D105" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D108" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D112" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>363</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D118" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D124" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D126" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D127" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D128" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D131" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D132" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D133" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D134" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D135" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D137" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D142" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D143" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D144" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D145" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B146" t="s">
+        <v>364</v>
+      </c>
+      <c r="C146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D147" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D150" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D151" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D152" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B153" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D154" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D155" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D156" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D160" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D161" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D165" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D166" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D167" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D168" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D169" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D171" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D173" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D174" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D175" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D176" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B177" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" t="s">
+        <v>43</v>
+      </c>
+      <c r="D177" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D178" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D179" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D180" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D181" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D182" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>360</v>
+      </c>
+      <c r="C183" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D184" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D185" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D186" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D188" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D189" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B190" t="s">
+        <v>361</v>
+      </c>
+      <c r="C190" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D191" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D193" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D194" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D195" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B196" t="s">
+        <v>361</v>
+      </c>
+      <c r="C196" t="s">
+        <v>100</v>
+      </c>
+      <c r="D196" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D197" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D198" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D199" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D200" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D201" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D202" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B203" t="s">
         <v>27</v>
       </c>
     </row>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16693" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16799" uniqueCount="702">
   <si>
     <t>Group</t>
   </si>
@@ -677,192 +677,6 @@
     <t>Global_all__2020_7_13__23_23_2__pav_reb_nrbg_app_ind__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
   <si>
-    <t>Germany_detail__2020_7_17__18_3_37__reb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_5_11__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_6_57__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_8_38__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_10_20__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_12_7__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_13_51__nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_15_37__nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_17_25__nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_19_14__nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_21_2__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_22_50__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_24_38__pav__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_26_16__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_27_54__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_29_32__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_31_11__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_32_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_34_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_36_11__pav_reb_nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_38_15__pav_reb_nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_40_19__pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_42_23__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_44_27__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_46_31__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_48_35__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_50_39__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_52_43__pav_reb_nrb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_54_47__pav_reb_nrb__RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_56_51__pav_reb_nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__18_58_54__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_0_58__reb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_2_45__reb__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_4_33__reb__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_6_20__reb__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_8_8__reb__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_9_55__reb__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_11_43__reb__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_13_31__reb__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_15_19__reb__MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_17_7__reb__NoR</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_18_55__nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_20_45__nrb__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_22_36__nrb__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_24_27__nrb__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_26_18__nrb__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_28_9__nrb__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_30_0__nrb__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_31_51__nrb__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_33_42__nrb__MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_35_32__nrb__NoR</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_37_24__pav__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_39_4__pav__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_40_43__pav__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_42_23__pav__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_44_3__pav__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_45_43__pav__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_47_23__pav__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_49_3__pav__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_50_42__pav__CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_52_22__pav__RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_17__19_54_2__pav__NoR</t>
-  </si>
-  <si>
     <t>Global__2020_7_17__22_41_0__reb__</t>
   </si>
   <si>
@@ -2133,6 +1947,192 @@
   </si>
   <si>
     <t>Global_North__2020_7_19__5_2_8__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_1_57__reb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_3_56__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_5_58__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_8_1__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_10_5__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_12_8__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_14_10__nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_16_16__nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_18_23__nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_20_28__nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_22_34__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_24_41__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_40_39__pav_reb_nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_43_27__pav_reb_nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_46_5__pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_48_40__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_51_16__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_53_57__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_56_31__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__10_59_6__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_1_43__pav_reb_nrb__FYI_FSD_EoL_MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_4_17__pav_reb_nrb__RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_6_52__pav_reb_nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_9_31__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_12_7__reb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_14_12__reb__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_16_20__reb__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_18_36__reb__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_20_49__reb__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_23_1__reb__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_25_16__reb__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_27_36__reb__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_29_49__reb__MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_31_53__reb__NoR</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_33_56__nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_36_3__nrb__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_38_8__nrb__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_40_14__nrb__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_42_19__nrb__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_44_27__nrb__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_46_47__nrb__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_49_7__nrb__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_51_29__nrb__MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_53_40__nrb__NoR</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_55_51__pav__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_57_53__pav__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__11_59_55__pav__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_1_57__pav__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_4_4__pav__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_6_5__pav__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_8_6__pav__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_10_10__pav__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_12_11__pav__CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_14_15__pav__RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_24__12_16_17__pav__NoR</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_14_35__pav__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_23_25__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_24_58__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_26_38__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_28_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_30_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_26__10_32_2__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2218,7 +2218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12713,7 +12712,7 @@
   <dimension ref="A2:AA46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12852,7 +12851,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>153</v>
@@ -12864,34 +12863,34 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
@@ -12931,164 +12930,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>148</v>
-      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
@@ -14330,10 +14172,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA5"/>
+  <dimension ref="B2:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14625,6 +14467,373 @@
         <v>147</v>
       </c>
       <c r="AA5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -47725,7 +47934,7 @@
   <dimension ref="B1:M426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47750,55 +47959,50 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>573</v>
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D3" s="10" t="s">
-        <v>574</v>
+      <c r="D3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D4" s="10" t="s">
-        <v>575</v>
+      <c r="D4" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D5" s="10" t="s">
-        <v>576</v>
+      <c r="D5" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D6" s="10" t="s">
-        <v>577</v>
+      <c r="D6" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D7" s="10" t="s">
-        <v>578</v>
+      <c r="D7" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>579</v>
+      <c r="D8" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D9" s="10" t="s">
-        <v>580</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -47808,9 +48012,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D10" s="10" t="s">
-        <v>581</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -47820,9 +48022,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D11" s="10" t="s">
-        <v>582</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -47832,9 +48032,7 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D12" s="10" t="s">
-        <v>583</v>
-      </c>
+      <c r="D12" s="10"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -47844,9 +48042,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D13" s="10" t="s">
-        <v>584</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -47856,9 +48052,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D14" s="10" t="s">
-        <v>585</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -47868,9 +48062,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -47880,6 +48072,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D16" s="10"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -47888,7 +48081,8 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D17" s="10"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -47897,7 +48091,8 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D18" s="10"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -47906,7 +48101,8 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D19" s="10"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -47915,7 +48111,8 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D20" s="10"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -47924,7 +48121,8 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D21" s="10"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -47933,7 +48131,8 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -47944,7 +48143,8 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D23" s="10"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -47955,7 +48155,8 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D24" s="10"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -47966,7 +48167,8 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -47977,7 +48179,8 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D26" s="10"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -47988,7 +48191,8 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D27" s="10"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -47999,7 +48203,8 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -48010,9 +48215,8 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D29" s="10"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -48023,10 +48227,8 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D30" s="10"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -48037,7 +48239,8 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -48048,7 +48251,8 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -48060,6 +48264,7 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D33" s="10"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -48071,6 +48276,7 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -48082,6 +48288,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D35" s="10"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -48093,52 +48300,64 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D36" s="10"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C37" s="11"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C38" s="11"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="8"/>
@@ -48411,8 +48630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350:D362"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48444,37 +48663,37 @@
         <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D3" s="10" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D4" s="10" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D5" s="10" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D6" s="10" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D7" s="10" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -48486,43 +48705,43 @@
         <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D9" s="10" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D10" s="10" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" s="10" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" s="10" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" s="10" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D14" s="10" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -48534,43 +48753,43 @@
         <v>68</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D16" s="10" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D17" s="10" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D18" s="10" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D19" s="10" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D20" s="10" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D21" s="10" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -48582,67 +48801,67 @@
         <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D23" s="10" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D24" s="10" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D25" s="10" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D26" s="10" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D27" s="10" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D28" s="10" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D29" s="10" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D30" s="10" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D31" s="10" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D32" s="10" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -48654,37 +48873,37 @@
         <v>42</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D34" s="10" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D35" s="10" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D36" s="10" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D37" s="10" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D38" s="10" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -48696,61 +48915,61 @@
         <v>72</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D40" s="10" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D41" s="10" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D42" s="10" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D43" s="10" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D44" s="10" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D45" s="10" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D46" s="10" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D47" s="10" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D48" s="10" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -48762,49 +48981,49 @@
         <v>70</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D50" s="10" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D51" s="10" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D52" s="10" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D53" s="10" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D54" s="10" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D55" s="10" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D56" s="10" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -48816,7 +49035,7 @@
         <v>212</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>690</v>
+        <v>628</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -48828,7 +49047,7 @@
         <v>212</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>691</v>
+        <v>629</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -48840,7 +49059,7 @@
         <v>212</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>692</v>
+        <v>630</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -48852,7 +49071,7 @@
         <v>212</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -48864,37 +49083,37 @@
         <v>42</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D62" s="10" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D63" s="10" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D64" s="10" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D65" s="10" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D66" s="10" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -48906,61 +49125,61 @@
         <v>72</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D68" s="10" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D69" s="10" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D70" s="10" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D71" s="10" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D72" s="10" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D73" s="10" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D74" s="10" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D75" s="10" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D76" s="10" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -48972,43 +49191,43 @@
         <v>68</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D78" s="10" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D79" s="10" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D80" s="10" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D81" s="10" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D82" s="10" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D83" s="10" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -49020,67 +49239,67 @@
         <v>71</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D85" s="10" t="s">
-        <v>412</v>
+        <v>350</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D86" s="10" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D87" s="10" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D88" s="10" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D89" s="10" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D90" s="10" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D91" s="10" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D92" s="10" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D93" s="10" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D94" s="10" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -49092,37 +49311,37 @@
         <v>42</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D96" s="10" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D97" s="10" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D98" s="10" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D99" s="10" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D100" s="10" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="H100" s="2"/>
     </row>
@@ -49134,43 +49353,43 @@
         <v>68</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D102" s="10" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D103" s="10" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D104" s="10" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D105" s="10" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D106" s="10" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D107" s="10" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="H107" s="2"/>
     </row>
@@ -49182,37 +49401,37 @@
         <v>42</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D109" s="10" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D110" s="10" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D111" s="10" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D112" s="10" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D113" s="10" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="H113" s="2"/>
     </row>
@@ -49224,43 +49443,43 @@
         <v>68</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D115" s="10" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D116" s="10" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D117" s="10" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D118" s="10" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D119" s="10" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D120" s="10" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="H120" s="2"/>
     </row>
@@ -49272,37 +49491,37 @@
         <v>42</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D122" s="10" t="s">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D123" s="10" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D124" s="10" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D125" s="10" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D126" s="10" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -49314,43 +49533,43 @@
         <v>68</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D128" s="10" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D129" s="10" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D130" s="10" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D131" s="10" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D132" s="10" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D133" s="10" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -49362,37 +49581,37 @@
         <v>42</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D135" s="10" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D136" s="10" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D137" s="10" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D138" s="10" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D139" s="10" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="H139" s="2"/>
     </row>
@@ -49404,61 +49623,61 @@
         <v>72</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D141" s="10" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D142" s="10" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D143" s="10" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D144" s="10" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D145" s="10" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D146" s="10" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D147" s="10" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D148" s="10" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D149" s="10" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="H149" s="2"/>
     </row>
@@ -49470,43 +49689,43 @@
         <v>68</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D151" s="10" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D152" s="10" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D153" s="10" t="s">
-        <v>467</v>
+        <v>405</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D154" s="10" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D155" s="10" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D156" s="10" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="H156" s="2"/>
     </row>
@@ -49518,67 +49737,67 @@
         <v>71</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D158" s="10" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="H158" s="2"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D159" s="10" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D160" s="10" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D161" s="10" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D162" s="10" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D163" s="10" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D164" s="10" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D165" s="10" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D166" s="10" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D167" s="10" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="H167" s="2"/>
     </row>
@@ -49590,37 +49809,37 @@
         <v>42</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D169" s="10" t="s">
-        <v>613</v>
+        <v>551</v>
       </c>
       <c r="H169" s="2"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D170" s="10" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D171" s="10" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D172" s="10" t="s">
-        <v>616</v>
+        <v>554</v>
       </c>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D173" s="10" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="H173" s="2"/>
     </row>
@@ -49632,43 +49851,43 @@
         <v>68</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>618</v>
+        <v>556</v>
       </c>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D175" s="10" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="H175" s="2"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D176" s="10" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="H176" s="2"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D177" s="10" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D178" s="10" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D179" s="10" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D180" s="10" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="H180" s="2"/>
     </row>
@@ -49680,37 +49899,37 @@
         <v>42</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D182" s="10" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="H182" s="2"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D183" s="10" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="H183" s="2"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D184" s="10" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="H184" s="2"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D185" s="10" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D186" s="10" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="H186" s="2"/>
     </row>
@@ -49722,43 +49941,43 @@
         <v>68</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D188" s="10" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D189" s="10" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D190" s="10" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D191" s="10" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D192" s="10" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D193" s="10" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="H193" s="2"/>
     </row>
@@ -49770,37 +49989,37 @@
         <v>42</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D195" s="10" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="H195" s="2"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D196" s="10" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D197" s="10" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D198" s="10" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D199" s="10" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="H199" s="2"/>
     </row>
@@ -49812,43 +50031,43 @@
         <v>68</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="H200" s="2"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D201" s="10" t="s">
-        <v>645</v>
+        <v>583</v>
       </c>
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D202" s="10" t="s">
-        <v>646</v>
+        <v>584</v>
       </c>
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D203" s="10" t="s">
-        <v>647</v>
+        <v>585</v>
       </c>
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D204" s="10" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="H204" s="2"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D205" s="10" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="H205" s="2"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D206" s="10" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="H206" s="2"/>
     </row>
@@ -49860,37 +50079,37 @@
         <v>42</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="H207" s="2"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D208" s="10" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="H208" s="2"/>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D209" s="10" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D210" s="10" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="H210" s="2"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D211" s="10" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="H211" s="2"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D212" s="10" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="H212" s="2"/>
     </row>
@@ -49902,43 +50121,43 @@
         <v>68</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D214" s="10" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D215" s="10" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D216" s="10" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D217" s="10" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="H217" s="2"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D218" s="10" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D219" s="10" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
       <c r="H219" s="2"/>
     </row>
@@ -49950,37 +50169,37 @@
         <v>42</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="H220" s="2"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D221" s="10" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="H221" s="2"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D222" s="10" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="H222" s="2"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D223" s="10" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="H223" s="2"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D224" s="10" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="H224" s="2"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D225" s="10" t="s">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="H225" s="2"/>
     </row>
@@ -49992,43 +50211,43 @@
         <v>68</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="H226" s="2"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D227" s="10" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="H227" s="2"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D228" s="10" t="s">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D229" s="10" t="s">
-        <v>673</v>
+        <v>611</v>
       </c>
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D230" s="10" t="s">
-        <v>674</v>
+        <v>612</v>
       </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D231" s="10" t="s">
-        <v>675</v>
+        <v>613</v>
       </c>
       <c r="H231" s="2"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D232" s="10" t="s">
-        <v>676</v>
+        <v>614</v>
       </c>
       <c r="H232" s="2"/>
     </row>
@@ -50040,37 +50259,37 @@
         <v>42</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>677</v>
+        <v>615</v>
       </c>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D234" s="10" t="s">
-        <v>678</v>
+        <v>616</v>
       </c>
       <c r="H234" s="2"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D235" s="10" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D236" s="10" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D237" s="10" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D238" s="10" t="s">
-        <v>682</v>
+        <v>620</v>
       </c>
       <c r="H238" s="2"/>
     </row>
@@ -50082,43 +50301,43 @@
         <v>68</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
       <c r="H239" s="2"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D240" s="10" t="s">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="H240" s="2"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D241" s="10" t="s">
-        <v>685</v>
+        <v>623</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D242" s="10" t="s">
-        <v>686</v>
+        <v>624</v>
       </c>
       <c r="H242" s="2"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D243" s="10" t="s">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="H243" s="2"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D244" s="10" t="s">
-        <v>688</v>
+        <v>626</v>
       </c>
       <c r="H244" s="2"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D245" s="10" t="s">
-        <v>689</v>
+        <v>627</v>
       </c>
       <c r="H245" s="2"/>
     </row>
@@ -50130,37 +50349,37 @@
         <v>42</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="H246" s="2"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D247" s="10" t="s">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="H247" s="2"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D248" s="10" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="H248" s="2"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D249" s="10" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="H249" s="2"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D250" s="10" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="H250" s="2"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D251" s="10" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="H251" s="2"/>
     </row>
@@ -50172,43 +50391,43 @@
         <v>68</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="H252" s="2"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D253" s="10" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="H253" s="2"/>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D254" s="10" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="H254" s="2"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D255" s="10" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="H255" s="2"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D256" s="10" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="H256" s="2"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D257" s="10" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="H257" s="2"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D258" s="10" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="H258" s="2"/>
     </row>
@@ -50220,37 +50439,37 @@
         <v>42</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D260" s="10" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="H260" s="2"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D261" s="10" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="H261" s="2"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D262" s="10" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D263" s="10" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D264" s="10" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="H264" s="2"/>
     </row>
@@ -50262,43 +50481,43 @@
         <v>68</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="H265" s="2"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D266" s="10" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="H266" s="2"/>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D267" s="10" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="H267" s="2"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D268" s="10" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D269" s="10" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="H269" s="2"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D270" s="10" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="H270" s="2"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D271" s="10" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="H271" s="2"/>
     </row>
@@ -50310,37 +50529,37 @@
         <v>42</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="H272" s="2"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D273" s="10" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="H273" s="2"/>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D274" s="10" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="H274" s="2"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D275" s="10" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="H275" s="2"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D276" s="10" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="H276" s="2"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D277" s="10" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="H277" s="2"/>
     </row>
@@ -50352,43 +50571,43 @@
         <v>68</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D279" s="10" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="H279" s="2"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D280" s="10" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="H280" s="2"/>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D281" s="10" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="H281" s="2"/>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D282" s="10" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="H282" s="2"/>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D283" s="10" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="H283" s="2"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D284" s="10" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="H284" s="2"/>
     </row>
@@ -50400,37 +50619,37 @@
         <v>42</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="H285" s="2"/>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D286" s="10" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="H286" s="2"/>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D287" s="10" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="H287" s="2"/>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D288" s="10" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="H288" s="2"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D289" s="10" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="H289" s="2"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D290" s="10" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="H290" s="2"/>
     </row>
@@ -50442,43 +50661,43 @@
         <v>68</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="H291" s="2"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D292" s="10" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="H292" s="2"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D293" s="10" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="H293" s="2"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D294" s="10" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="H294" s="2"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D295" s="10" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="H295" s="2"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D296" s="10" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="H296" s="2"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D297" s="10" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="H297" s="2"/>
     </row>
@@ -50490,33 +50709,33 @@
         <v>42</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="H298" s="2"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D299" s="10" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D300" s="10" t="s">
-        <v>601</v>
+        <v>539</v>
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D301" s="10" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D302" s="10" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D303" s="10" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
@@ -50527,37 +50746,37 @@
         <v>68</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D305" s="10" t="s">
-        <v>606</v>
+        <v>544</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D306" s="10" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D307" s="10" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D308" s="10" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D309" s="10" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D310" s="10" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.45">
@@ -50568,32 +50787,32 @@
         <v>42</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D312" s="10" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D313" s="10" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D314" s="10" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D315" s="10" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D316" s="10" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.45">
@@ -50604,37 +50823,37 @@
         <v>68</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D318" s="10" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D319" s="10" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D320" s="10" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D321" s="10" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D322" s="10" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D323" s="10" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.45">
@@ -50645,32 +50864,32 @@
         <v>42</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D325" s="10" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D326" s="10" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D327" s="10" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D328" s="10" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D329" s="10" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.45">
@@ -50681,37 +50900,37 @@
         <v>68</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D331" s="10" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D332" s="10" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D333" s="10" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D334" s="10" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D335" s="10" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D336" s="10" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.45">
@@ -50722,32 +50941,32 @@
         <v>42</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D338" s="10" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D339" s="10" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D340" s="10" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D341" s="10" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D342" s="10" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.45">
@@ -50758,37 +50977,37 @@
         <v>68</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D344" s="10" t="s">
-        <v>567</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D345" s="10" t="s">
-        <v>568</v>
+        <v>506</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D346" s="10" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D347" s="10" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D348" s="10" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D349" s="10" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.45">
@@ -50799,32 +51018,32 @@
         <v>42</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>573</v>
+        <v>511</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D351" s="10" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D352" s="10" t="s">
-        <v>575</v>
+        <v>513</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D353" s="10" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D354" s="10" t="s">
-        <v>577</v>
+        <v>515</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D355" s="10" t="s">
-        <v>578</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
@@ -50835,37 +51054,37 @@
         <v>68</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>579</v>
+        <v>517</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D357" s="10" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D358" s="10" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D359" s="10" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D360" s="10" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D361" s="10" t="s">
-        <v>584</v>
+        <v>522</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D362" s="10" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
@@ -50876,32 +51095,32 @@
         <v>42</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D364" s="10" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D365" s="10" t="s">
-        <v>588</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D366" s="10" t="s">
-        <v>589</v>
+        <v>527</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D367" s="10" t="s">
-        <v>590</v>
+        <v>528</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D368" s="10" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.45">
@@ -50912,45 +51131,45 @@
         <v>68</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D370" s="10" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D371" s="10" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
       <c r="D372" s="10" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
       <c r="D373" s="10" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.45">
@@ -50961,33 +51180,33 @@
         <v>42</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D377" s="10" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D378" s="10" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D379" s="10" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D380" s="10" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B381" s="8"/>
       <c r="D381" s="10" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.45">
@@ -50998,49 +51217,49 @@
         <v>68</v>
       </c>
       <c r="D382" s="10" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
       <c r="D383" s="10" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
       <c r="D384" s="10" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
       <c r="D385" s="10" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
       <c r="D386" s="10" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
       <c r="D387" s="10" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
       <c r="D388" s="10" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.45">
@@ -51052,7 +51271,7 @@
         <v>42</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
@@ -51062,7 +51281,7 @@
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
       <c r="D390" s="10" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
@@ -51072,7 +51291,7 @@
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
       <c r="D391" s="10" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -51082,7 +51301,7 @@
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
@@ -51092,7 +51311,7 @@
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
@@ -51102,7 +51321,7 @@
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -51116,7 +51335,7 @@
         <v>68</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -51126,7 +51345,7 @@
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
@@ -51136,7 +51355,7 @@
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
       <c r="D397" s="10" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
@@ -51146,7 +51365,7 @@
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -51156,7 +51375,7 @@
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -51166,7 +51385,7 @@
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
@@ -51176,7 +51395,7 @@
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
@@ -51190,7 +51409,7 @@
         <v>70</v>
       </c>
       <c r="D402" s="10" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -51200,7 +51419,7 @@
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
@@ -51210,7 +51429,7 @@
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
       <c r="D404" s="10" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
@@ -51220,7 +51439,7 @@
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
       <c r="D405" s="10" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
@@ -51230,7 +51449,7 @@
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
       <c r="D406" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -51240,7 +51459,7 @@
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
       <c r="D407" s="10" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
@@ -51250,7 +51469,7 @@
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
       <c r="D408" s="10" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
@@ -51260,7 +51479,7 @@
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
       <c r="D409" s="10" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
@@ -51274,7 +51493,7 @@
         <v>212</v>
       </c>
       <c r="D410" s="10" t="s">
-        <v>694</v>
+        <v>632</v>
       </c>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
@@ -51288,7 +51507,7 @@
         <v>212</v>
       </c>
       <c r="D411" s="10" t="s">
-        <v>695</v>
+        <v>633</v>
       </c>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
@@ -51302,7 +51521,7 @@
         <v>212</v>
       </c>
       <c r="D412" s="10" t="s">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
@@ -51316,7 +51535,7 @@
         <v>212</v>
       </c>
       <c r="D413" s="10" t="s">
-        <v>697</v>
+        <v>635</v>
       </c>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
@@ -51330,7 +51549,7 @@
         <v>70</v>
       </c>
       <c r="D414" s="10" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
@@ -51340,7 +51559,7 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="10" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
@@ -51350,7 +51569,7 @@
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
       <c r="D416" s="10" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
@@ -51360,7 +51579,7 @@
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
       <c r="D417" s="10" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
@@ -51370,7 +51589,7 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="10" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
@@ -51380,7 +51599,7 @@
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -51390,7 +51609,7 @@
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
@@ -51400,7 +51619,7 @@
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
@@ -51414,7 +51633,7 @@
         <v>212</v>
       </c>
       <c r="D422" s="10" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
@@ -51428,7 +51647,7 @@
         <v>212</v>
       </c>
       <c r="D423" s="10" t="s">
-        <v>699</v>
+        <v>637</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
@@ -51442,7 +51661,7 @@
         <v>212</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>700</v>
+        <v>638</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
@@ -51456,7 +51675,7 @@
         <v>212</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
@@ -51604,10 +51823,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA8"/>
+  <dimension ref="A2:AA10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51749,6 +51968,9 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -51756,37 +51978,37 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
@@ -51826,9 +52048,6 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" t="s">
         <v>142</v>
       </c>
@@ -51836,7 +52055,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -51848,7 +52067,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -51906,9 +52125,6 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -51916,16 +52132,16 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -51986,9 +52202,6 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -51996,28 +52209,28 @@
         <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
@@ -52044,13 +52257,13 @@
         <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" t="s">
         <v>143</v>
@@ -52066,9 +52279,6 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" t="s">
         <v>142</v>
       </c>
@@ -52076,7 +52286,7 @@
         <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -52091,7 +52301,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -52142,6 +52352,160 @@
         <v>149</v>
       </c>
       <c r="AA8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -52154,8 +52518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57114,7 +57478,7 @@
   <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57143,32 +57507,32 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>217</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>218</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>219</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>220</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>221</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
@@ -57179,32 +57543,32 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>223</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>224</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>225</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>226</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>227</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
@@ -57215,37 +57579,37 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>229</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>230</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>231</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>232</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>233</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>234</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
@@ -57256,42 +57620,42 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>236</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>237</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>238</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>239</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>240</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>241</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>242</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
@@ -57302,7 +57666,7 @@
         <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
@@ -57313,7 +57677,7 @@
         <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
@@ -57324,7 +57688,7 @@
         <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
@@ -57335,7 +57699,7 @@
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
@@ -57346,52 +57710,52 @@
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>248</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>249</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>250</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>251</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>252</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>253</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>254</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>255</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>256</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
@@ -57402,52 +57766,52 @@
         <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>258</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>259</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>260</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>261</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>262</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>263</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>264</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>265</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>266</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
@@ -57458,57 +57822,57 @@
         <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>268</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>269</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>270</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
-        <v>271</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>272</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>273</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
-        <v>274</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
-        <v>275</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D62" t="s">
-        <v>276</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>277</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.45">

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="pav_reb_Config_list" sheetId="1" r:id="rId1"/>
@@ -12711,8 +12711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
         <v>153</v>
@@ -12863,34 +12863,34 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
@@ -12928,9 +12928,6 @@
       <c r="AA4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="E5" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
@@ -14174,8 +14171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47933,7 +47930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -51826,7 +51823,7 @@
   <dimension ref="A2:AA10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52518,8 +52515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:AA22"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018"/>
   </bookViews>
   <sheets>
     <sheet name="pav_reb_Config_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15628" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15677" uniqueCount="716">
   <si>
     <t>Group</t>
   </si>
@@ -629,171 +629,6 @@
     <t>Global_all__2020_7_13__23_23_2__pav_reb_nrbg_app_ind__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
   <si>
-    <t>Global__2020_7_17__22_41_0__reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__22_48_1__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__22_55_18__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_2_32__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_12_13__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_22_30__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_32_21__reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_43_39__reb__FYI</t>
-  </si>
-  <si>
-    <t>Global__2020_7_17__23_54_59__reb__FSD</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_4_52__reb__EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_14_50__reb__MSU</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_24_52__reb__ULD</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_34_50__reb__RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_47_41__reb__LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__0_57_14__reb__MIU</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_7_36__reb__NoR</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_16_58__pav__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_21_20__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_25_43__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_30_7__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_34_54__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_40_5__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_44_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_49_44__pav__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_54_34__pav__FYI</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__1_59_33__pav__FSD</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_4_36__pav__EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_9_42__pav__MSU</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_14_46__pav__ULD</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_19_57__pav__RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_25_11__pav__LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_30_28__pav__CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_35_57__pav__RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_41_28__pav__NoR</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__2_46_58__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__3_6_2__pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__3_22_48__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__3_35_19__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__3_49_51__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__4_0_40__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__4_11_18__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_7_18__4_21_19__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_32_16__reb__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_43_6__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_45_57__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_48_48__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_51_38__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_54_28__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_57_19__pav__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__4_59_29__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__5_1_40__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__5_3_51__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__5_6_1__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__5_8_12__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__5_10_22__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
     <t>Global_North__2020_7_18__5_12_33__reb__</t>
   </si>
   <si>
@@ -833,30 +668,6 @@
     <t>Global_North__2020_7_18__6_17_14__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
   <si>
-    <t>Global_South__2020_7_18__6_20_53__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_24_1__pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_27_9__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_30_17__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_33_24__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_36_36__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_39_54__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_18__6_43_12__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
     <t>Global_North__2020_7_18__6_46_32__pav_reb__</t>
   </si>
   <si>
@@ -1865,30 +1676,6 @@
     <t>R5.2REF_Other__2020_7_19__3_42_34__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
   </si>
   <si>
-    <t>Global__2020_7_19__3_44_3__pav_reb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>Global__2020_7_19__3_55_19__pav_reb__RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_7_19__4_9_22__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_7_19__4_20_23__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_19__4_31_31__pav_reb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_19__4_34_34__pav_reb__RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_19__4_37_35__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_7_19__4_40_35__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
     <t>Global_North__2020_7_19__4_43_37__pav_reb__FYI_FSD_EoL_MSU</t>
   </si>
   <si>
@@ -1901,27 +1688,6 @@
     <t>Global_North__2020_7_19__5_2_8__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
   </si>
   <si>
-    <t>Germany_detail__2020_7_26__10_14_35__pav__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_23_25__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_24_58__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_26_38__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_28_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_30_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_26__10_32_2__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
     <t>Germany_allsect_No_EE</t>
   </si>
   <si>
@@ -1940,162 +1706,6 @@
     <t>Germany_allsect_No_EE_supplydemand_ME</t>
   </si>
   <si>
-    <t>Germany_detail__2020_7_28__14_48_45__pav__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_50_59__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_52_55__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_54_40__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_56_25__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_58_7__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__14_59_49__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_1_33__pav_reb_nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_3_45__pav_reb_nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_5_54__pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_8_5__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_10_12__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_12_23__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_14_33__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_16_57__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_19_6__pav_reb_nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_21_14__pav_reb_nrb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_23_21__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_25_29__pav_reb_nrb__FYI_FSD_EoL_MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_27_39__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_29_50__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_32_6__reb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_34_2__reb__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_36_0__reb__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_38_25__reb__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_40_37__reb__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_42_25__reb__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_44_14__reb__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_46_2__reb__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_47_50__reb__MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_49_38__reb__NoR</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_51_26__nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_53_16__nrb__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_55_7__nrb__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_56_58__nrb__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__15_58_48__nrb__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_0_38__nrb__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_2_29__nrb__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_4_21__nrb__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_6_28__nrb__MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_8_24__nrb__NoR</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_10_21__pav__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_12_7__pav__FYI</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_13_54__pav__FSD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_15_43__pav__EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_17_27__pav__MSU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_19_11__pav__ULD</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_20_57__pav__RUS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_22_45__pav__LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_24_32__pav__CaS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_26_20__pav__RiS</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__16_28_5__pav__NoR</t>
-  </si>
-  <si>
     <t>Global_allsect_No_EE</t>
   </si>
   <si>
@@ -2150,40 +1760,421 @@
     <t>GlobalS_allsect_No_EE_full_ME</t>
   </si>
   <si>
-    <t>Germany_detail__2020_7_28__20_20_54__reb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__20_22_30__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__20_24_23__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__20_26_16__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__20_28_12__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__20_30_0__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_41_19__nrb__</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_42_57__nrb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_44_38__nrb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_46_21__nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_48_7__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany_detail__2020_7_28__22_49_55__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+    <t>Global__2020_7_28__23_52_45__reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_10_47__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_19_3__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_27_5__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_34_15__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_42_29__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_50_23__reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__0_57_16__reb__FYI</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_4_14__reb__FSD</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_11_16__reb__EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_18_13__reb__MSU</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_25_22__reb__ULD</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_32_27__reb__RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_40_12__reb__LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_47_34__reb__MIU</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__1_55_16__reb__NoR</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_2_53__pav__</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_7_7__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_11_22__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_15_36__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_19_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_24_6__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_28_21__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_32_36__pav__</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_36_53__pav__FYI</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_41_7__pav__FSD</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_45_20__pav__EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_49_34__pav__MSU</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_53_48__pav__ULD</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__2_58_2__pav__RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_2_16__pav__LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_6_30__pav__CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_10_43__pav__RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_14_57__pav__NoR</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_19_11__pav_reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_31_51__pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_41_56__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__3_51_47__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_1_44__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_11_47__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_21_4__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_30_50__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_43_9__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__4_52_50__pav_reb__FYI_FSD_EoL_MSU</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__5_2_51__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__5_12_53__pav_reb__FYI_FSD_EoL_MSU_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__5_22_47__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_7_29__5_32_43__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__5_43_22__reb__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__5_53_57__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__5_56_40__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__5_59_23__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_2_7__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_4_51__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_7_34__pav__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_9_40__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_11_46__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_13_53__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_15_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_18_4__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_20_10__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_22_15__pav_reb__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_25_16__pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_28_16__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_31_16__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_34_17__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_37_18__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_40_18__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_43_18__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_46_19__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_49_18__pav_reb__FYI_FSD_EoL_MSU</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_52_20__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_55_20__pav_reb__FYI_FSD_EoL_MSU_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__6_58_20__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_7_29__7_1_20__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_2_19__reb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_3_58__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_5_49__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_7_53__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_10_12__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_12_10__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_14_14__nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_16_20__nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_18_17__nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_20_26__nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_22_21__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_24_27__nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_26_18__pav__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_28_6__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_29_46__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_31_24__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_33_7__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_34_53__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_36_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_38_9__pav_reb_nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_40_14__pav_reb_nrb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_42_25__pav_reb_nrb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_44_29__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_46_34__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_48_38__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_50_44__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_52_50__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_54_57__pav_reb_nrb__NoEE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_57_2__pav_reb_nrb__FYI_FSD_EoL_MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__8_59_7__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_1_12__pav_reb_nrb__FYI_FSD_EoL_MSU_NoEE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_3_17__pav_reb_nrb__FYI_FSD_EoL_MSU_RUS_LTE_NoEE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_5_23__pav_reb_nrb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_7_28__reb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_9_21__reb__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_11_9__reb__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_12_57__reb__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_14_45__reb__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_16_33__reb__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_18_22__reb__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_20_10__reb__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_21_58__reb__MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_23_46__reb__NoR</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_25_34__nrb__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_27_24__nrb__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_29_14__nrb__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_31_4__nrb__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_32_55__nrb__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_34_48__nrb__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_36_40__nrb__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_38_32__nrb__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_40_23__nrb__MIU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_42_16__nrb__NoR</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_44_7__pav__</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_45_46__pav__FYI</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_47_26__pav__FSD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_49_6__pav__EoL</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_50_46__pav__MSU</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_52_25__pav__ULD</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_54_5__pav__RUS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_55_45__pav__LTE</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_57_24__pav__CaS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__9_59_8__pav__RiS</t>
+  </si>
+  <si>
+    <t>Germany_detail__2020_7_29__10_0_56__pav__NoR</t>
   </si>
 </sst>
 </file>
@@ -2583,11 +2574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5980,7 +5971,7 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -6060,7 +6051,7 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>690</v>
+        <v>560</v>
       </c>
       <c r="C47" t="s">
         <v>69</v>
@@ -6140,7 +6131,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>691</v>
+        <v>561</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -6220,7 +6211,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>692</v>
+        <v>562</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -6300,7 +6291,7 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>693</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
@@ -6380,7 +6371,7 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>694</v>
+        <v>564</v>
       </c>
       <c r="C51" t="s">
         <v>69</v>
@@ -8086,7 +8077,7 @@
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>701</v>
+        <v>571</v>
       </c>
       <c r="C73" t="s">
         <v>190</v>
@@ -8166,7 +8157,7 @@
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>702</v>
+        <v>572</v>
       </c>
       <c r="C74" t="s">
         <v>190</v>
@@ -8246,7 +8237,7 @@
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>703</v>
+        <v>573</v>
       </c>
       <c r="C75" t="s">
         <v>190</v>
@@ -8326,7 +8317,7 @@
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>704</v>
+        <v>574</v>
       </c>
       <c r="C76" t="s">
         <v>190</v>
@@ -8406,7 +8397,7 @@
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>705</v>
+        <v>575</v>
       </c>
       <c r="C77" t="s">
         <v>190</v>
@@ -8486,7 +8477,7 @@
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="C78" t="s">
         <v>190</v>
@@ -10781,7 +10772,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA78" sqref="B4:AA78"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14174,7 +14165,7 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -14254,7 +14245,7 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>690</v>
+        <v>560</v>
       </c>
       <c r="C47" t="s">
         <v>69</v>
@@ -14334,7 +14325,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>691</v>
+        <v>561</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -14414,7 +14405,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>692</v>
+        <v>562</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -14494,7 +14485,7 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>693</v>
+        <v>563</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
@@ -14574,7 +14565,7 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>694</v>
+        <v>564</v>
       </c>
       <c r="C51" t="s">
         <v>69</v>
@@ -16280,7 +16271,7 @@
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>701</v>
+        <v>571</v>
       </c>
       <c r="C73" t="s">
         <v>190</v>
@@ -16360,7 +16351,7 @@
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>702</v>
+        <v>572</v>
       </c>
       <c r="C74" t="s">
         <v>190</v>
@@ -16440,7 +16431,7 @@
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>703</v>
+        <v>573</v>
       </c>
       <c r="C75" t="s">
         <v>190</v>
@@ -16520,7 +16511,7 @@
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>704</v>
+        <v>574</v>
       </c>
       <c r="C76" t="s">
         <v>190</v>
@@ -16600,7 +16591,7 @@
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>705</v>
+        <v>575</v>
       </c>
       <c r="C77" t="s">
         <v>190</v>
@@ -16680,7 +16671,7 @@
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="C78" t="s">
         <v>190</v>
@@ -17379,7 +17370,7 @@
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>695</v>
+        <v>565</v>
       </c>
       <c r="C87" t="s">
         <v>191</v>
@@ -17459,7 +17450,7 @@
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>696</v>
+        <v>566</v>
       </c>
       <c r="C88" t="s">
         <v>191</v>
@@ -17539,7 +17530,7 @@
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>697</v>
+        <v>567</v>
       </c>
       <c r="C89" t="s">
         <v>191</v>
@@ -17619,7 +17610,7 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>698</v>
+        <v>568</v>
       </c>
       <c r="C90" t="s">
         <v>191</v>
@@ -17699,7 +17690,7 @@
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>699</v>
+        <v>569</v>
       </c>
       <c r="C91" t="s">
         <v>191</v>
@@ -17779,7 +17770,7 @@
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>700</v>
+        <v>570</v>
       </c>
       <c r="C92" t="s">
         <v>191</v>
@@ -44273,8 +44264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44299,50 +44290,55 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>600</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -44352,7 +44348,9 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D10" s="10"/>
+      <c r="D10" t="s">
+        <v>601</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -44362,7 +44360,9 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D11" s="10"/>
+      <c r="D11" t="s">
+        <v>602</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -44372,7 +44372,9 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D12" s="10"/>
+      <c r="D12" t="s">
+        <v>603</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -44382,7 +44384,9 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D13" s="10"/>
+      <c r="D13" t="s">
+        <v>604</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -44392,7 +44396,9 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D14" s="10"/>
+      <c r="D14" t="s">
+        <v>605</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -44402,7 +44408,9 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D15" s="10"/>
+      <c r="D15" t="s">
+        <v>606</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -44412,7 +44420,9 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D16" s="10"/>
+      <c r="D16" t="s">
+        <v>607</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -44421,8 +44431,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D17" s="10"/>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>608</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -44431,8 +44443,10 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D18" s="10"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>609</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -44441,8 +44455,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D19" s="10"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>610</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -44451,8 +44467,16 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D20" s="10"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>577</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -44461,8 +44485,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D21" s="10"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -44471,8 +44497,10 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D22" s="10"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>579</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -44483,8 +44511,10 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D23" s="10"/>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>580</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -44495,8 +44525,10 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D24" s="10"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>581</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -44507,8 +44539,10 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D25" s="10"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>582</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -44519,8 +44553,16 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D26" s="10"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>583</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -44531,8 +44573,10 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D27" s="10"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>584</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -44543,8 +44587,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D28" s="10"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>585</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -44555,8 +44601,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D29" s="10"/>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>586</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -44567,8 +44615,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D30" s="10"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>587</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -44579,8 +44629,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D31" s="10"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>588</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -44591,8 +44643,10 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D32" s="10"/>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>589</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -44604,7 +44658,9 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D33" s="10"/>
+      <c r="D33" t="s">
+        <v>590</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -44616,7 +44672,9 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D34" s="10"/>
+      <c r="D34" t="s">
+        <v>591</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -44628,7 +44686,9 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D35" s="10"/>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -44640,89 +44700,353 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D36" s="10"/>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>611</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D37" s="10"/>
+      <c r="D37" t="s">
+        <v>612</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D38" s="10"/>
+      <c r="D38" t="s">
+        <v>613</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D39" s="10"/>
+      <c r="D39" t="s">
+        <v>614</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D40" s="10"/>
+      <c r="D40" t="s">
+        <v>615</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D41" s="10"/>
+      <c r="D41" t="s">
+        <v>616</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D42" s="10"/>
+      <c r="D42" t="s">
+        <v>617</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D43" s="10"/>
+      <c r="D43" t="s">
+        <v>618</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="8"/>
+      <c r="D55" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="D57" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="D58" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
+      <c r="D59" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
+      <c r="D60" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B372" s="8"/>
@@ -44968,10 +45292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H441"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A388" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45003,37 +45327,37 @@
         <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D3" s="10" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D4" s="10" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D5" s="10" t="s">
-        <v>446</v>
+        <v>383</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D6" s="10" t="s">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D7" s="10" t="s">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -45045,43 +45369,43 @@
         <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>449</v>
+        <v>386</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D9" s="10" t="s">
-        <v>450</v>
+        <v>387</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D10" s="10" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" s="10" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" s="10" t="s">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" s="10" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D14" s="10" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -45092,44 +45416,44 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>216</v>
+      <c r="D15" t="s">
+        <v>593</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D16" s="10" t="s">
-        <v>217</v>
+      <c r="D16" t="s">
+        <v>594</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="10" t="s">
-        <v>218</v>
+      <c r="D17" t="s">
+        <v>595</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D18" s="10" t="s">
-        <v>219</v>
+      <c r="D18" t="s">
+        <v>596</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D19" s="10" t="s">
-        <v>220</v>
+      <c r="D19" t="s">
+        <v>597</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D20" s="10" t="s">
-        <v>221</v>
+      <c r="D20" t="s">
+        <v>598</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D21" s="10" t="s">
-        <v>222</v>
+      <c r="D21" t="s">
+        <v>599</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -45140,68 +45464,68 @@
       <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>223</v>
+      <c r="D22" t="s">
+        <v>600</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D23" s="10" t="s">
-        <v>224</v>
+      <c r="D23" t="s">
+        <v>601</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D24" s="10" t="s">
-        <v>225</v>
+      <c r="D24" t="s">
+        <v>602</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D25" s="10" t="s">
-        <v>226</v>
+      <c r="D25" t="s">
+        <v>603</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D26" s="10" t="s">
-        <v>227</v>
+      <c r="D26" t="s">
+        <v>604</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D27" s="10" t="s">
-        <v>228</v>
+      <c r="D27" t="s">
+        <v>605</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D28" s="10" t="s">
-        <v>229</v>
+      <c r="D28" t="s">
+        <v>606</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D29" s="10" t="s">
-        <v>230</v>
+      <c r="D29" t="s">
+        <v>607</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D30" s="10" t="s">
-        <v>231</v>
+      <c r="D30" t="s">
+        <v>608</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D31" s="10" t="s">
-        <v>232</v>
+      <c r="D31" t="s">
+        <v>609</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D32" s="10" t="s">
-        <v>233</v>
+      <c r="D32" t="s">
+        <v>610</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -45212,38 +45536,38 @@
       <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>200</v>
+      <c r="D33" t="s">
+        <v>577</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D34" s="10" t="s">
-        <v>201</v>
+      <c r="D34" t="s">
+        <v>578</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D35" s="10" t="s">
-        <v>202</v>
+      <c r="D35" t="s">
+        <v>579</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D36" s="10" t="s">
-        <v>203</v>
+      <c r="D36" t="s">
+        <v>580</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D37" s="10" t="s">
-        <v>204</v>
+      <c r="D37" t="s">
+        <v>581</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D38" s="10" t="s">
-        <v>205</v>
+      <c r="D38" t="s">
+        <v>582</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -45254,62 +45578,62 @@
       <c r="C39" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>206</v>
+      <c r="D39" t="s">
+        <v>583</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D40" s="10" t="s">
-        <v>207</v>
+      <c r="D40" t="s">
+        <v>584</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D41" s="10" t="s">
-        <v>208</v>
+      <c r="D41" t="s">
+        <v>585</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D42" s="10" t="s">
-        <v>209</v>
+      <c r="D42" t="s">
+        <v>586</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D43" s="10" t="s">
-        <v>210</v>
+      <c r="D43" t="s">
+        <v>587</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D44" s="10" t="s">
-        <v>211</v>
+      <c r="D44" t="s">
+        <v>588</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D45" s="10" t="s">
-        <v>212</v>
+      <c r="D45" t="s">
+        <v>589</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D46" s="10" t="s">
-        <v>213</v>
+      <c r="D46" t="s">
+        <v>590</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D47" s="10" t="s">
-        <v>214</v>
+      <c r="D47" t="s">
+        <v>591</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D48" s="10" t="s">
-        <v>215</v>
+      <c r="D48" t="s">
+        <v>592</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -45320,50 +45644,50 @@
       <c r="C49" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>234</v>
+      <c r="D49" t="s">
+        <v>611</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D50" s="10" t="s">
-        <v>235</v>
+      <c r="D50" t="s">
+        <v>612</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D51" s="10" t="s">
-        <v>236</v>
+      <c r="D51" t="s">
+        <v>613</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D52" s="10" t="s">
-        <v>237</v>
+      <c r="D52" t="s">
+        <v>614</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D53" s="10" t="s">
-        <v>238</v>
+      <c r="D53" t="s">
+        <v>615</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D54" s="10" t="s">
-        <v>239</v>
+      <c r="D54" t="s">
+        <v>616</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D55" s="10" t="s">
-        <v>240</v>
+      <c r="D55" t="s">
+        <v>617</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D56" s="10" t="s">
-        <v>241</v>
+      <c r="D56" t="s">
+        <v>618</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -45374,8 +45698,8 @@
       <c r="C57" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>612</v>
+      <c r="D57" t="s">
+        <v>619</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -45386,8 +45710,8 @@
       <c r="C58" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>613</v>
+      <c r="D58" t="s">
+        <v>620</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -45398,8 +45722,8 @@
       <c r="C59" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>614</v>
+      <c r="D59" t="s">
+        <v>621</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -45410,336 +45734,342 @@
       <c r="C60" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>615</v>
+      <c r="D60" t="s">
+        <v>622</v>
       </c>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" t="s">
+        <v>623</v>
+      </c>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" t="s">
+        <v>624</v>
+      </c>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>80</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D62" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D63" s="10" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D64" s="10" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D65" s="10" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D66" s="10" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D68" s="10" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
       <c r="D69" s="10" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D70" s="10" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D71" s="10" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D72" s="10" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D73" s="10" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D74" s="10" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D75" s="10" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D76" s="10" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
       <c r="D77" s="10" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D78" s="10" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
       <c r="D79" s="10" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D80" s="10" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D81" s="10" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D82" s="10" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D83" s="10" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
       <c r="D84" s="10" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D85" s="10" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>67</v>
+      </c>
       <c r="D86" s="10" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D87" s="10" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D88" s="10" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D89" s="10" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D90" s="10" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D91" s="10" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D92" s="10" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D93" s="10" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D94" s="10" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
       <c r="D95" s="10" t="s">
-        <v>456</v>
+        <v>279</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D96" s="10" t="s">
-        <v>457</v>
+        <v>280</v>
       </c>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
       <c r="D97" s="10" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D98" s="10" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D99" s="10" t="s">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D100" s="10" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B101" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
       <c r="D101" s="10" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D102" s="10" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
       <c r="D103" s="10" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D104" s="10" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D105" s="10" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D106" s="10" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D107" s="10" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" t="s">
-        <v>42</v>
-      </c>
       <c r="D108" s="10" t="s">
         <v>404</v>
       </c>
@@ -45752,1886 +46082,1884 @@
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
       <c r="D110" s="10" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D111" s="10" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D112" s="10" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D113" s="10" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" t="s">
-        <v>64</v>
-      </c>
       <c r="D114" s="10" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D115" s="10" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
       <c r="D116" s="10" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D117" s="10" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D118" s="10" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D119" s="10" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D120" s="10" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" t="s">
-        <v>42</v>
-      </c>
       <c r="D121" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D122" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
       <c r="D123" s="10" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D124" s="10" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D125" s="10" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D126" s="10" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B127" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" t="s">
-        <v>64</v>
-      </c>
       <c r="D127" s="10" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D128" s="10" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" t="s">
+        <v>64</v>
+      </c>
       <c r="D129" s="10" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D130" s="10" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D131" s="10" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D132" s="10" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D133" s="10" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>42</v>
-      </c>
       <c r="D134" s="10" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D135" s="10" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" t="s">
+        <v>42</v>
+      </c>
       <c r="D136" s="10" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D137" s="10" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D138" s="10" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D139" s="10" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" t="s">
-        <v>68</v>
-      </c>
       <c r="D140" s="10" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D141" s="10" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
       <c r="D142" s="10" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D143" s="10" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D144" s="10" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D145" s="10" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D146" s="10" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D147" s="10" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D148" s="10" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D149" s="10" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B150" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" t="s">
-        <v>64</v>
-      </c>
       <c r="D150" s="10" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D151" s="10" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="H151" s="2"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>64</v>
+      </c>
       <c r="D152" s="10" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D153" s="10" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D154" s="10" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D155" s="10" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D156" s="10" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" t="s">
-        <v>67</v>
-      </c>
       <c r="D157" s="10" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D158" s="10" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="H158" s="2"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B159" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" t="s">
+        <v>67</v>
+      </c>
       <c r="D159" s="10" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D160" s="10" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D161" s="10" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D162" s="10" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D163" s="10" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D164" s="10" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D165" s="10" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D166" s="10" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D167" s="10" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="H167" s="2"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" t="s">
-        <v>42</v>
-      </c>
       <c r="D168" s="10" t="s">
-        <v>534</v>
+        <v>339</v>
       </c>
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D169" s="10" t="s">
-        <v>535</v>
+        <v>340</v>
       </c>
       <c r="H169" s="2"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>71</v>
+      </c>
+      <c r="C170" t="s">
+        <v>42</v>
+      </c>
       <c r="D170" s="10" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D171" s="10" t="s">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D172" s="10" t="s">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D173" s="10" t="s">
-        <v>539</v>
+        <v>474</v>
       </c>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
-        <v>71</v>
-      </c>
-      <c r="C174" t="s">
-        <v>64</v>
-      </c>
       <c r="D174" s="10" t="s">
-        <v>540</v>
+        <v>475</v>
       </c>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D175" s="10" t="s">
-        <v>541</v>
+        <v>476</v>
       </c>
       <c r="H175" s="2"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
+        <v>71</v>
+      </c>
+      <c r="C176" t="s">
+        <v>64</v>
+      </c>
       <c r="D176" s="10" t="s">
-        <v>542</v>
+        <v>477</v>
       </c>
       <c r="H176" s="2"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D177" s="10" t="s">
-        <v>543</v>
+        <v>478</v>
       </c>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D178" s="10" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D179" s="10" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D180" s="10" t="s">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="H180" s="2"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B181" t="s">
-        <v>72</v>
-      </c>
-      <c r="C181" t="s">
-        <v>42</v>
-      </c>
       <c r="D181" s="10" t="s">
-        <v>547</v>
+        <v>482</v>
       </c>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D182" s="10" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="H182" s="2"/>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" t="s">
+        <v>42</v>
+      </c>
       <c r="D183" s="10" t="s">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="H183" s="2"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D184" s="10" t="s">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="H184" s="2"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D185" s="10" t="s">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D186" s="10" t="s">
-        <v>552</v>
+        <v>487</v>
       </c>
       <c r="H186" s="2"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B187" t="s">
-        <v>72</v>
-      </c>
-      <c r="C187" t="s">
-        <v>64</v>
-      </c>
       <c r="D187" s="10" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D188" s="10" t="s">
-        <v>554</v>
+        <v>489</v>
       </c>
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B189" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" t="s">
+        <v>64</v>
+      </c>
       <c r="D189" s="10" t="s">
-        <v>555</v>
+        <v>490</v>
       </c>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D190" s="10" t="s">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D191" s="10" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D192" s="10" t="s">
-        <v>558</v>
+        <v>493</v>
       </c>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D193" s="10" t="s">
-        <v>559</v>
+        <v>494</v>
       </c>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B194" t="s">
-        <v>73</v>
-      </c>
-      <c r="C194" t="s">
-        <v>42</v>
-      </c>
       <c r="D194" s="10" t="s">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D195" s="10" t="s">
-        <v>561</v>
+        <v>496</v>
       </c>
       <c r="H195" s="2"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B196" t="s">
+        <v>73</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
       <c r="D196" s="10" t="s">
-        <v>562</v>
+        <v>497</v>
       </c>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D197" s="10" t="s">
-        <v>563</v>
+        <v>498</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D198" s="10" t="s">
-        <v>564</v>
+        <v>499</v>
       </c>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D199" s="10" t="s">
-        <v>565</v>
+        <v>500</v>
       </c>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B200" t="s">
-        <v>73</v>
-      </c>
-      <c r="C200" t="s">
-        <v>64</v>
-      </c>
       <c r="D200" s="10" t="s">
-        <v>566</v>
+        <v>501</v>
       </c>
       <c r="H200" s="2"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D201" s="10" t="s">
-        <v>567</v>
+        <v>502</v>
       </c>
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B202" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" t="s">
+        <v>64</v>
+      </c>
       <c r="D202" s="10" t="s">
-        <v>568</v>
+        <v>503</v>
       </c>
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D203" s="10" t="s">
-        <v>569</v>
+        <v>504</v>
       </c>
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D204" s="10" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="H204" s="2"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D205" s="10" t="s">
-        <v>571</v>
+        <v>506</v>
       </c>
       <c r="H205" s="2"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D206" s="10" t="s">
-        <v>572</v>
+        <v>507</v>
       </c>
       <c r="H206" s="2"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B207" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" t="s">
-        <v>42</v>
-      </c>
       <c r="D207" s="10" t="s">
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="H207" s="2"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D208" s="10" t="s">
-        <v>574</v>
+        <v>509</v>
       </c>
       <c r="H208" s="2"/>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>95</v>
+      </c>
+      <c r="C209" t="s">
+        <v>42</v>
+      </c>
       <c r="D209" s="10" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D210" s="10" t="s">
-        <v>576</v>
+        <v>511</v>
       </c>
       <c r="H210" s="2"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D211" s="10" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="H211" s="2"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D212" s="10" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
       <c r="H212" s="2"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B213" t="s">
-        <v>95</v>
-      </c>
-      <c r="C213" t="s">
-        <v>64</v>
-      </c>
       <c r="D213" s="10" t="s">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D214" s="10" t="s">
-        <v>580</v>
+        <v>515</v>
       </c>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B215" t="s">
+        <v>95</v>
+      </c>
+      <c r="C215" t="s">
+        <v>64</v>
+      </c>
       <c r="D215" s="10" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D216" s="10" t="s">
-        <v>582</v>
+        <v>517</v>
       </c>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D217" s="10" t="s">
-        <v>583</v>
+        <v>518</v>
       </c>
       <c r="H217" s="2"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D218" s="10" t="s">
-        <v>584</v>
+        <v>519</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D219" s="10" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B220" t="s">
-        <v>100</v>
-      </c>
-      <c r="C220" t="s">
-        <v>42</v>
-      </c>
       <c r="D220" s="10" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="H220" s="2"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D221" s="10" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
       <c r="H221" s="2"/>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B222" t="s">
+        <v>100</v>
+      </c>
+      <c r="C222" t="s">
+        <v>42</v>
+      </c>
       <c r="D222" s="10" t="s">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="H222" s="2"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D223" s="10" t="s">
-        <v>589</v>
+        <v>524</v>
       </c>
       <c r="H223" s="2"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D224" s="10" t="s">
-        <v>590</v>
+        <v>525</v>
       </c>
       <c r="H224" s="2"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D225" s="10" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="H225" s="2"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B226" t="s">
-        <v>100</v>
-      </c>
-      <c r="C226" t="s">
-        <v>64</v>
-      </c>
       <c r="D226" s="10" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="H226" s="2"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D227" s="10" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="H227" s="2"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B228" t="s">
+        <v>100</v>
+      </c>
+      <c r="C228" t="s">
+        <v>64</v>
+      </c>
       <c r="D228" s="10" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D229" s="10" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D230" s="10" t="s">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D231" s="10" t="s">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="H231" s="2"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D232" s="10" t="s">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="H232" s="2"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B233" t="s">
-        <v>102</v>
-      </c>
-      <c r="C233" t="s">
-        <v>42</v>
-      </c>
       <c r="D233" s="10" t="s">
-        <v>599</v>
+        <v>534</v>
       </c>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D234" s="10" t="s">
-        <v>600</v>
+        <v>535</v>
       </c>
       <c r="H234" s="2"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>102</v>
+      </c>
+      <c r="C235" t="s">
+        <v>42</v>
+      </c>
       <c r="D235" s="10" t="s">
-        <v>601</v>
+        <v>536</v>
       </c>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D236" s="10" t="s">
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D237" s="10" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D238" s="10" t="s">
-        <v>604</v>
+        <v>539</v>
       </c>
       <c r="H238" s="2"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
-        <v>102</v>
-      </c>
-      <c r="C239" t="s">
-        <v>64</v>
-      </c>
       <c r="D239" s="10" t="s">
-        <v>605</v>
+        <v>540</v>
       </c>
       <c r="H239" s="2"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D240" s="10" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="H240" s="2"/>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
+        <v>102</v>
+      </c>
+      <c r="C241" t="s">
+        <v>64</v>
+      </c>
       <c r="D241" s="10" t="s">
-        <v>607</v>
+        <v>542</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D242" s="10" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="H242" s="2"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D243" s="10" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="H243" s="2"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D244" s="10" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="H244" s="2"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D245" s="10" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="H245" s="2"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
-        <v>104</v>
-      </c>
-      <c r="C246" t="s">
-        <v>42</v>
-      </c>
       <c r="D246" s="10" t="s">
-        <v>344</v>
+        <v>547</v>
       </c>
       <c r="H246" s="2"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D247" s="10" t="s">
-        <v>345</v>
+        <v>548</v>
       </c>
       <c r="H247" s="2"/>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B248" t="s">
+        <v>104</v>
+      </c>
+      <c r="C248" t="s">
+        <v>42</v>
+      </c>
       <c r="D248" s="10" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="H248" s="2"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D249" s="10" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="H249" s="2"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D250" s="10" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="H250" s="2"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D251" s="10" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="H251" s="2"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
-        <v>104</v>
-      </c>
-      <c r="C252" t="s">
-        <v>64</v>
-      </c>
       <c r="D252" s="10" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="H252" s="2"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D253" s="10" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="H253" s="2"/>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
+        <v>104</v>
+      </c>
+      <c r="C254" t="s">
+        <v>64</v>
+      </c>
       <c r="D254" s="10" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="H254" s="2"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D255" s="10" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="H255" s="2"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D256" s="10" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="H256" s="2"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D257" s="10" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="H257" s="2"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D258" s="10" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="H258" s="2"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
-        <v>108</v>
-      </c>
-      <c r="C259" t="s">
-        <v>42</v>
-      </c>
       <c r="D259" s="10" t="s">
-        <v>469</v>
+        <v>292</v>
       </c>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D260" s="10" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="H260" s="2"/>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" t="s">
+        <v>42</v>
+      </c>
       <c r="D261" s="10" t="s">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="H261" s="2"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D262" s="10" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D263" s="10" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D264" s="10" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="H264" s="2"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B265" t="s">
-        <v>108</v>
-      </c>
-      <c r="C265" t="s">
-        <v>64</v>
-      </c>
       <c r="D265" s="10" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="H265" s="2"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D266" s="10" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="H266" s="2"/>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>108</v>
+      </c>
+      <c r="C267" t="s">
+        <v>64</v>
+      </c>
       <c r="D267" s="10" t="s">
-        <v>477</v>
+        <v>412</v>
       </c>
       <c r="H267" s="2"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D268" s="10" t="s">
-        <v>478</v>
+        <v>413</v>
       </c>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D269" s="10" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="H269" s="2"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D270" s="10" t="s">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="H270" s="2"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D271" s="10" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="H271" s="2"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B272" t="s">
-        <v>112</v>
-      </c>
-      <c r="C272" t="s">
-        <v>42</v>
-      </c>
       <c r="D272" s="10" t="s">
-        <v>284</v>
+        <v>417</v>
       </c>
       <c r="H272" s="2"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D273" s="10" t="s">
-        <v>285</v>
+        <v>418</v>
       </c>
       <c r="H273" s="2"/>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B274" t="s">
+        <v>112</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
+      </c>
       <c r="D274" s="10" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="H274" s="2"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D275" s="10" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="H275" s="2"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D276" s="10" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="H276" s="2"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D277" s="10" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="H277" s="2"/>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B278" t="s">
-        <v>112</v>
-      </c>
-      <c r="C278" t="s">
-        <v>64</v>
-      </c>
       <c r="D278" s="10" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D279" s="10" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="H279" s="2"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
+        <v>112</v>
+      </c>
+      <c r="C280" t="s">
+        <v>64</v>
+      </c>
       <c r="D280" s="10" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="H280" s="2"/>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D281" s="10" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="H281" s="2"/>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D282" s="10" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="H282" s="2"/>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D283" s="10" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="H283" s="2"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D284" s="10" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="H284" s="2"/>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B285" t="s">
-        <v>98</v>
-      </c>
-      <c r="C285" t="s">
-        <v>42</v>
-      </c>
       <c r="D285" s="10" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="H285" s="2"/>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D286" s="10" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="H286" s="2"/>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B287" t="s">
+        <v>98</v>
+      </c>
+      <c r="C287" t="s">
+        <v>42</v>
+      </c>
       <c r="D287" s="10" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="H287" s="2"/>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D288" s="10" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="H288" s="2"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D289" s="10" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="H289" s="2"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D290" s="10" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="H290" s="2"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B291" t="s">
-        <v>98</v>
-      </c>
-      <c r="C291" t="s">
-        <v>64</v>
-      </c>
       <c r="D291" s="10" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="H291" s="2"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D292" s="10" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="H292" s="2"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B293" t="s">
+        <v>98</v>
+      </c>
+      <c r="C293" t="s">
+        <v>64</v>
+      </c>
       <c r="D293" s="10" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="H293" s="2"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D294" s="10" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="H294" s="2"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D295" s="10" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="H295" s="2"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D296" s="10" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="H296" s="2"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D297" s="10" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="H297" s="2"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B298" t="s">
-        <v>114</v>
-      </c>
-      <c r="C298" t="s">
-        <v>42</v>
-      </c>
       <c r="D298" s="10" t="s">
-        <v>521</v>
+        <v>245</v>
       </c>
       <c r="H298" s="2"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D299" s="10" t="s">
-        <v>522</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="H299" s="2"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B300" t="s">
+        <v>114</v>
+      </c>
+      <c r="C300" t="s">
+        <v>42</v>
+      </c>
       <c r="D300" s="10" t="s">
-        <v>523</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="H300" s="2"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D301" s="10" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D302" s="10" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D303" s="10" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B304" t="s">
-        <v>114</v>
-      </c>
-      <c r="C304" t="s">
-        <v>64</v>
-      </c>
       <c r="D304" s="10" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D305" s="10" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
+        <v>114</v>
+      </c>
+      <c r="C306" t="s">
+        <v>64</v>
+      </c>
       <c r="D306" s="10" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D307" s="10" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D308" s="10" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D309" s="10" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D310" s="10" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B311" t="s">
-        <v>116</v>
-      </c>
-      <c r="C311" t="s">
-        <v>42</v>
-      </c>
       <c r="D311" s="10" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D312" s="10" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B313" t="s">
+        <v>116</v>
+      </c>
+      <c r="C313" t="s">
+        <v>42</v>
+      </c>
       <c r="D313" s="10" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D314" s="10" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D315" s="10" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D316" s="10" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B317" t="s">
-        <v>116</v>
-      </c>
-      <c r="C317" t="s">
-        <v>64</v>
-      </c>
       <c r="D317" s="10" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D318" s="10" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B319" t="s">
+        <v>116</v>
+      </c>
+      <c r="C319" t="s">
+        <v>64</v>
+      </c>
       <c r="D319" s="10" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D320" s="10" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D321" s="10" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D322" s="10" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D323" s="10" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B324" t="s">
-        <v>117</v>
-      </c>
-      <c r="C324" t="s">
-        <v>42</v>
-      </c>
       <c r="D324" s="10" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D325" s="10" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B326" t="s">
+        <v>117</v>
+      </c>
+      <c r="C326" t="s">
+        <v>42</v>
+      </c>
       <c r="D326" s="10" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D327" s="10" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D328" s="10" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D329" s="10" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B330" t="s">
-        <v>117</v>
-      </c>
-      <c r="C330" t="s">
-        <v>64</v>
-      </c>
       <c r="D330" s="10" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D331" s="10" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B332" t="s">
+        <v>117</v>
+      </c>
+      <c r="C332" t="s">
+        <v>64</v>
+      </c>
       <c r="D332" s="10" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D333" s="10" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D334" s="10" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D335" s="10" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D336" s="10" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B337" t="s">
-        <v>118</v>
-      </c>
-      <c r="C337" t="s">
-        <v>42</v>
-      </c>
       <c r="D337" s="10" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D338" s="10" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B339" t="s">
+        <v>118</v>
+      </c>
+      <c r="C339" t="s">
+        <v>42</v>
+      </c>
       <c r="D339" s="10" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D340" s="10" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D341" s="10" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D342" s="10" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B343" t="s">
-        <v>118</v>
-      </c>
-      <c r="C343" t="s">
-        <v>64</v>
-      </c>
       <c r="D343" s="10" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D344" s="10" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B345" t="s">
+        <v>118</v>
+      </c>
+      <c r="C345" t="s">
+        <v>64</v>
+      </c>
       <c r="D345" s="10" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D346" s="10" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D347" s="10" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D348" s="10" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D349" s="10" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B350" t="s">
-        <v>122</v>
-      </c>
-      <c r="C350" t="s">
-        <v>42</v>
-      </c>
       <c r="D350" s="10" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D351" s="10" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B352" t="s">
+        <v>122</v>
+      </c>
+      <c r="C352" t="s">
+        <v>42</v>
+      </c>
       <c r="D352" s="10" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D353" s="10" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D354" s="10" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D355" s="10" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B356" t="s">
-        <v>122</v>
-      </c>
-      <c r="C356" t="s">
-        <v>64</v>
-      </c>
       <c r="D356" s="10" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D357" s="10" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B358" t="s">
+        <v>122</v>
+      </c>
+      <c r="C358" t="s">
+        <v>64</v>
+      </c>
       <c r="D358" s="10" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D359" s="10" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D360" s="10" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D361" s="10" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D362" s="10" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B363" t="s">
-        <v>123</v>
-      </c>
-      <c r="C363" t="s">
-        <v>42</v>
-      </c>
       <c r="D363" s="10" t="s">
-        <v>508</v>
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D364" s="10" t="s">
-        <v>509</v>
+        <v>444</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B365" t="s">
+        <v>123</v>
+      </c>
+      <c r="C365" t="s">
+        <v>42</v>
+      </c>
       <c r="D365" s="10" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D366" s="10" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D367" s="10" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D368" s="10" t="s">
-        <v>513</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B369" t="s">
-        <v>123</v>
-      </c>
-      <c r="C369" t="s">
-        <v>64</v>
-      </c>
       <c r="D369" s="10" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D370" s="10" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B371" t="s">
+        <v>123</v>
+      </c>
+      <c r="C371" t="s">
+        <v>64</v>
+      </c>
       <c r="D371" s="10" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B372" s="8"/>
-      <c r="C372" s="8"/>
       <c r="D372" s="10" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B373" s="8"/>
-      <c r="C373" s="8"/>
       <c r="D373" s="10" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B376" t="s">
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B378" t="s">
         <v>190</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C378" t="s">
         <v>42</v>
       </c>
-      <c r="D376" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D377" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D378" s="10" t="s">
-        <v>244</v>
+      <c r="D378" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D379" s="10" t="s">
-        <v>245</v>
+      <c r="D379" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D380" s="10" t="s">
-        <v>246</v>
+      <c r="D380" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B381" s="8"/>
-      <c r="D381" s="10" t="s">
-        <v>247</v>
+      <c r="D381" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B382" t="s">
-        <v>190</v>
-      </c>
-      <c r="C382" t="s">
-        <v>64</v>
-      </c>
-      <c r="D382" s="10" t="s">
-        <v>248</v>
+      <c r="D382" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B383" s="8"/>
-      <c r="C383" s="8"/>
-      <c r="D383" s="10" t="s">
-        <v>249</v>
+      <c r="D383" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B384" s="8"/>
-      <c r="C384" s="8"/>
-      <c r="D384" s="10" t="s">
-        <v>250</v>
+      <c r="B384" t="s">
+        <v>190</v>
+      </c>
+      <c r="C384" t="s">
+        <v>64</v>
+      </c>
+      <c r="D384" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
-      <c r="D385" s="10" t="s">
-        <v>251</v>
+      <c r="D385" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
-      <c r="D386" s="10" t="s">
-        <v>252</v>
+      <c r="D386" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
-      <c r="D387" s="10" t="s">
-        <v>253</v>
+      <c r="D387" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
-      <c r="D388" s="10" t="s">
-        <v>254</v>
+      <c r="D388" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F389" s="8"/>
-      <c r="G389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="D389" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
-      <c r="D390" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F390" s="8"/>
-      <c r="G390" s="8"/>
+      <c r="D390" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" s="8"/>
-      <c r="B391" s="8"/>
-      <c r="C391" s="8"/>
+      <c r="B391" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D391" s="10" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -47641,7 +47969,7 @@
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
@@ -47651,7 +47979,7 @@
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
@@ -47661,21 +47989,17 @@
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" s="8"/>
-      <c r="B395" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B395" s="8"/>
+      <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -47685,17 +48009,21 @@
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" s="8"/>
-      <c r="B397" s="8"/>
-      <c r="C397" s="8"/>
+      <c r="B397" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D397" s="10" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
@@ -47705,7 +48033,7 @@
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -47715,7 +48043,7 @@
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -47725,7 +48053,7 @@
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
@@ -47735,21 +48063,17 @@
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" s="8"/>
-      <c r="B402" t="s">
-        <v>190</v>
-      </c>
-      <c r="C402" t="s">
-        <v>66</v>
-      </c>
+      <c r="B402" s="8"/>
+      <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -47759,17 +48083,21 @@
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="10" t="s">
-        <v>270</v>
+      <c r="B404" t="s">
+        <v>190</v>
+      </c>
+      <c r="C404" t="s">
+        <v>66</v>
+      </c>
+      <c r="D404" t="s">
+        <v>638</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
@@ -47778,8 +48106,8 @@
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
-      <c r="D405" s="10" t="s">
-        <v>271</v>
+      <c r="D405" t="s">
+        <v>639</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
@@ -47788,8 +48116,8 @@
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
-      <c r="D406" s="10" t="s">
-        <v>272</v>
+      <c r="D406" t="s">
+        <v>640</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -47798,8 +48126,8 @@
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
-      <c r="D407" s="10" t="s">
-        <v>273</v>
+      <c r="D407" t="s">
+        <v>641</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
@@ -47808,8 +48136,8 @@
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
-      <c r="D408" s="10" t="s">
-        <v>274</v>
+      <c r="D408" t="s">
+        <v>642</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
@@ -47818,36 +48146,28 @@
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
-      <c r="D409" s="10" t="s">
-        <v>275</v>
+      <c r="D409" t="s">
+        <v>643</v>
       </c>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" s="8"/>
-      <c r="B410" t="s">
-        <v>190</v>
-      </c>
-      <c r="C410" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D410" s="10" t="s">
-        <v>616</v>
+      <c r="B410" s="8"/>
+      <c r="C410" s="8"/>
+      <c r="D410" t="s">
+        <v>644</v>
       </c>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" s="8"/>
-      <c r="B411" t="s">
-        <v>190</v>
-      </c>
-      <c r="C411" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D411" s="10" t="s">
-        <v>617</v>
+      <c r="B411" s="8"/>
+      <c r="C411" s="8"/>
+      <c r="D411" t="s">
+        <v>645</v>
       </c>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
@@ -47860,8 +48180,8 @@
       <c r="C412" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D412" s="10" t="s">
-        <v>618</v>
+      <c r="D412" t="s">
+        <v>646</v>
       </c>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
@@ -47874,62 +48194,78 @@
       <c r="C413" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D413" s="10" t="s">
-        <v>619</v>
+      <c r="D413" t="s">
+        <v>647</v>
       </c>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" s="8"/>
-      <c r="B414" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C414" t="s">
-        <v>66</v>
-      </c>
-      <c r="D414" s="10" t="s">
-        <v>276</v>
+      <c r="B414" t="s">
+        <v>190</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D414" t="s">
+        <v>648</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="10" t="s">
-        <v>277</v>
+      <c r="B415" t="s">
+        <v>190</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D415" t="s">
+        <v>649</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="10" t="s">
-        <v>278</v>
+      <c r="B416" t="s">
+        <v>190</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D416" t="s">
+        <v>650</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="10" t="s">
-        <v>279</v>
+      <c r="B417" t="s">
+        <v>190</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D417" t="s">
+        <v>651</v>
       </c>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
+      <c r="B418" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C418" t="s">
+        <v>66</v>
+      </c>
       <c r="D418" s="10" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
@@ -47939,7 +48275,7 @@
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -47949,7 +48285,7 @@
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
@@ -47959,158 +48295,173 @@
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" s="8"/>
-      <c r="B422" t="s">
-        <v>191</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="B422" s="8"/>
+      <c r="C422" s="8"/>
       <c r="D422" s="10" t="s">
-        <v>620</v>
+        <v>217</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" s="8"/>
-      <c r="B423" t="s">
-        <v>191</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="B423" s="8"/>
+      <c r="C423" s="8"/>
       <c r="D423" s="10" t="s">
-        <v>621</v>
+        <v>218</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" s="8"/>
-      <c r="B424" t="s">
-        <v>191</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="B424" s="8"/>
+      <c r="C424" s="8"/>
       <c r="D424" s="10" t="s">
-        <v>622</v>
+        <v>219</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" s="8"/>
-      <c r="B425" t="s">
-        <v>191</v>
-      </c>
-      <c r="C425" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="B425" s="8"/>
+      <c r="C425" s="8"/>
       <c r="D425" s="10" t="s">
-        <v>623</v>
+        <v>220</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" s="8"/>
-      <c r="B426" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C426" s="8"/>
-      <c r="D426" s="8"/>
+      <c r="B426" t="s">
+        <v>191</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D426" s="10" t="s">
+        <v>549</v>
+      </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
-      <c r="D427" s="8"/>
+      <c r="B427" t="s">
+        <v>191</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D427" s="10" t="s">
+        <v>550</v>
+      </c>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="8"/>
+      <c r="B428" t="s">
+        <v>191</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D428" s="10" t="s">
+        <v>551</v>
+      </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
-      <c r="D429" s="8"/>
+      <c r="B429" t="s">
+        <v>191</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
+      <c r="B430" t="s">
+        <v>191</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D430" s="8"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" s="8"/>
+      <c r="B431" t="s">
+        <v>191</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D431" s="8"/>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" s="8"/>
+      <c r="B432" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C432" s="8"/>
+      <c r="D432" s="8"/>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" s="8"/>
+      <c r="C433" s="8"/>
+      <c r="D433" s="8"/>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" s="8"/>
+      <c r="B434" s="8"/>
+      <c r="C434" s="8"/>
+      <c r="D434" s="8"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" s="8"/>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
-      <c r="D435" s="8"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="8"/>
-      <c r="D436" s="8"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
-      <c r="C437" s="8"/>
-      <c r="D437" s="8"/>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="8"/>
-      <c r="D438" s="8"/>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
     </row>
@@ -48119,7 +48470,6 @@
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
     </row>
@@ -48128,7 +48478,6 @@
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
-      <c r="E440" s="8"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
     </row>
@@ -48137,9 +48486,43 @@
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A442" s="8"/>
+      <c r="B442" s="8"/>
+      <c r="C442" s="8"/>
+      <c r="D442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="8"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="8"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -48163,10 +48546,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA9"/>
+  <dimension ref="A2:AA6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48309,7 +48692,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>138</v>
@@ -48318,7 +48701,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -48388,6 +48771,9 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" t="s">
         <v>138</v>
       </c>
@@ -48398,13 +48784,13 @@
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -48465,6 +48851,9 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" t="s">
         <v>138</v>
       </c>
@@ -48472,16 +48861,16 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -48490,10 +48879,10 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
@@ -48538,237 +48927,6 @@
         <v>145</v>
       </c>
       <c r="AA6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" t="s">
-        <v>11</v>
-      </c>
-      <c r="W8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA9" t="s">
         <v>146</v>
       </c>
     </row>
@@ -48782,7 +48940,7 @@
   <dimension ref="A2:AA67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51017,7 +51175,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>631</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>138</v>
@@ -51097,7 +51255,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>632</v>
+        <v>554</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -51177,7 +51335,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>633</v>
+        <v>555</v>
       </c>
       <c r="C33" t="s">
         <v>138</v>
@@ -51257,7 +51415,7 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>634</v>
+        <v>556</v>
       </c>
       <c r="C34" t="s">
         <v>138</v>
@@ -51337,7 +51495,7 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -51417,7 +51575,7 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="C36" t="s">
         <v>138</v>
@@ -53900,8 +54058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -53929,33 +54087,33 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>707</v>
+      <c r="D2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D3" s="10" t="s">
-        <v>708</v>
+      <c r="D3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D4" s="10" t="s">
-        <v>709</v>
+      <c r="D4" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="10" t="s">
-        <v>710</v>
+      <c r="D5" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="10" t="s">
-        <v>711</v>
+      <c r="D6" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="10" t="s">
-        <v>712</v>
+      <c r="D7" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
@@ -53965,33 +54123,33 @@
       <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>713</v>
+      <c r="D8" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="10" t="s">
-        <v>714</v>
+      <c r="D9" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="10" t="s">
-        <v>715</v>
+      <c r="D10" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="10" t="s">
-        <v>716</v>
+      <c r="D11" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="10" t="s">
-        <v>717</v>
+      <c r="D12" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="10" t="s">
-        <v>718</v>
+      <c r="D13" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
@@ -54001,38 +54159,38 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>637</v>
+      <c r="D14" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="10" t="s">
-        <v>638</v>
+      <c r="D15" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="10" t="s">
-        <v>639</v>
+      <c r="D16" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="10" t="s">
-        <v>640</v>
+      <c r="D17" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="10" t="s">
-        <v>641</v>
+      <c r="D18" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="10" t="s">
-        <v>642</v>
+      <c r="D19" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="10" t="s">
-        <v>643</v>
+      <c r="D20" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
@@ -54042,43 +54200,43 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>644</v>
+      <c r="D21" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D22" s="10" t="s">
-        <v>645</v>
+      <c r="D22" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D23" s="10" t="s">
-        <v>646</v>
+      <c r="D23" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D24" s="10" t="s">
-        <v>647</v>
+      <c r="D24" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D25" s="10" t="s">
-        <v>648</v>
+      <c r="D25" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D26" s="10" t="s">
-        <v>649</v>
+      <c r="D26" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D27" s="10" t="s">
-        <v>650</v>
+      <c r="D27" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D28" s="10" t="s">
-        <v>651</v>
+      <c r="D28" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
@@ -54088,8 +54246,8 @@
       <c r="C29" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>652</v>
+      <c r="D29" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
@@ -54099,8 +54257,8 @@
       <c r="C30" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>653</v>
+      <c r="D30" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
@@ -54110,8 +54268,8 @@
       <c r="C31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>654</v>
+      <c r="D31" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
@@ -54121,8 +54279,8 @@
       <c r="C32" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>655</v>
+      <c r="D32" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
@@ -54132,8 +54290,8 @@
       <c r="C33" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>656</v>
+      <c r="D33" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
@@ -54143,8 +54301,8 @@
       <c r="C34" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>657</v>
+      <c r="D34" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
@@ -54154,53 +54312,53 @@
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>658</v>
+      <c r="D35" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D36" s="10" t="s">
-        <v>659</v>
+      <c r="D36" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D37" s="10" t="s">
-        <v>660</v>
+      <c r="D37" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D38" s="10" t="s">
-        <v>661</v>
+      <c r="D38" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D39" s="10" t="s">
-        <v>662</v>
+      <c r="D39" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D40" s="10" t="s">
-        <v>663</v>
+      <c r="D40" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D41" s="10" t="s">
-        <v>664</v>
+      <c r="D41" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D42" s="10" t="s">
-        <v>665</v>
+      <c r="D42" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D43" s="10" t="s">
-        <v>666</v>
+      <c r="D43" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D44" s="10" t="s">
-        <v>667</v>
+      <c r="D44" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
@@ -54210,53 +54368,53 @@
       <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>668</v>
+      <c r="D45" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D46" s="10" t="s">
-        <v>669</v>
+      <c r="D46" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D47" s="10" t="s">
-        <v>670</v>
+      <c r="D47" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D48" s="10" t="s">
-        <v>671</v>
+      <c r="D48" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D49" s="10" t="s">
-        <v>672</v>
+      <c r="D49" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D50" s="10" t="s">
-        <v>673</v>
+      <c r="D50" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D51" s="10" t="s">
-        <v>674</v>
+      <c r="D51" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D52" s="10" t="s">
-        <v>675</v>
+      <c r="D52" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D53" s="10" t="s">
-        <v>676</v>
+      <c r="D53" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D54" s="10" t="s">
-        <v>677</v>
+      <c r="D54" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
@@ -54266,58 +54424,58 @@
       <c r="C55" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>678</v>
+      <c r="D55" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D56" s="10" t="s">
-        <v>679</v>
+      <c r="D56" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D57" s="10" t="s">
-        <v>680</v>
+      <c r="D57" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D58" s="10" t="s">
-        <v>681</v>
+      <c r="D58" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D59" s="10" t="s">
-        <v>682</v>
+      <c r="D59" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D60" s="10" t="s">
-        <v>683</v>
+      <c r="D60" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D61" s="10" t="s">
-        <v>684</v>
+      <c r="D61" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D62" s="10" t="s">
-        <v>685</v>
+      <c r="D62" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D63" s="10" t="s">
-        <v>686</v>
+      <c r="D63" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D64" s="10" t="s">
-        <v>687</v>
+      <c r="D64" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D65" s="10" t="s">
-        <v>688</v>
+      <c r="D65" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pav_reb_Config_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14747" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14961" uniqueCount="724">
   <si>
     <t>Group</t>
   </si>
@@ -911,1294 +911,1294 @@
     <t>GlobalN_allsect_demandsideME</t>
   </si>
   <si>
-    <t>EU28__2020_8_8__23_1_52__reb__</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_14_27__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_18_24__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_22_21__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_26_19__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_30_16__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_34_16__pav__</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_37_1__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_39_46__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_42_31__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_45_16__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_48_2__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>EU28__2020_8_8__23_50_48__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>France__2020_8_8__23_53_33__reb__</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_2_55__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_4_34__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_6_14__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_7_53__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_9_33__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_11_13__pav__</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_12_45__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_14_16__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_15_48__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_17_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_18_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>France__2020_8_9__0_20_23__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_21_54__reb__</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_31_14__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_32_53__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_34_32__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_36_12__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_37_52__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_39_31__pav__</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_41_3__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_42_34__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_44_6__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_45_37__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_47_9__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Italy__2020_8_9__0_48_40__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__0_50_12__reb__</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__0_59_40__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_1_19__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_2_59__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_4_40__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_6_19__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_7_58__pav__</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_9_30__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_11_2__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_12_33__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_14_5__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_15_36__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Germany__2020_8_9__1_17_8__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_18_39__reb__</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_28_2__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_29_41__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_31_21__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_33_0__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_34_40__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_36_20__pav__</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_37_52__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_39_24__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_40_55__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_42_26__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_43_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Poland__2020_8_9__1_45_29__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__1_47_1__reb__</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__1_56_24__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__1_58_3__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__1_59_42__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_1_22__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_3_1__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_4_40__pav__</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_6_12__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_7_44__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_9_15__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_10_47__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_12_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Spain__2020_8_9__2_13_50__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_15_22__reb__</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_24_43__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_26_22__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_28_1__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_29_40__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_31_20__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_32_59__pav__</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_34_30__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_36_2__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_37_35__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_39_6__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_40_38__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>UK__2020_8_9__2_42_9__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_43_41__reb__</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_52_59__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_54_38__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_56_17__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_57_56__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__2_59_35__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_1_14__pav__</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_2_45__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_4_17__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_5_48__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_7_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_8_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Oth_R32EU15__2020_8_9__3_10_22__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_11_54__reb__</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_21_10__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_22_49__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_24_28__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_26_6__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_27_45__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_29_24__pav__</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_30_55__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_32_30__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_34_1__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_35_34__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_37_5__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Oth_R32EU12-H__2020_8_9__3_38_36__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_40_7__reb__</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_49_26__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_51_5__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_52_44__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_54_23__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_56_2__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_57_41__pav__</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__3_59_14__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__4_0_45__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__4_2_17__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__4_3_49__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__4_5_20__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32EU12-M__2020_8_9__4_6_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_8_22__reb__</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_17_44__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_19_23__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_21_2__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_22_41__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_24_21__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_26_5__reb__</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_27_45__reb__FYI</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_29_24__reb__FSD</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_31_3__reb__EoL</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_32_42__reb__MSU</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_34_21__reb__ULD</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_36_1__reb__RUS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_37_41__reb__LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_39_20__reb__MIU</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_40_59__reb__NoR</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_42_38__pav__</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_44_10__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_45_41__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_47_12__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_48_44__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_50_16__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_51_47__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_53_18__pav__</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_54_50__pav__FYI</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_56_21__pav__FSD</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_57_52__pav__EoL</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__4_59_23__pav__MSU</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_0_54__pav__ULD</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_2_26__pav__RUS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_3_57__pav__LTE</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_5_29__pav__CaS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_7_0__pav__RiS</t>
-  </si>
-  <si>
-    <t>R32USA__2020_8_9__5_8_31__pav__NoR</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_10_3__reb__</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_19_24__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_21_3__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_22_43__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_24_22__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_26_1__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_27_40__pav__</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_29_12__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_30_43__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_32_15__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_33_48__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_35_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32CAN__2020_8_9__5_36_54__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_15_20__reb__</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_26_47__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_30_0__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_33_23__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_36_46__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_40_6__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_43_27__pav__</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_45_53__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_48_19__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_50_46__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_53_12__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_55_37__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>G7__2020_8_9__7_58_3__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_0_29__reb__</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_9_51__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_11_29__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_13_8__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_14_47__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_16_26__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_18_5__pav__</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_19_37__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_21_9__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_22_40__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_24_11__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_25_43__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32CHN__2020_8_9__8_27_14__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_28_46__reb__</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_38_8__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_39_47__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_41_26__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_43_5__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_44_44__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_46_23__reb__</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_48_2__reb__FYI</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_49_40__reb__FSD</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_51_19__reb__EoL</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_52_58__reb__MSU</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_54_37__reb__ULD</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_56_16__reb__RUS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_57_55__reb__LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__8_59_34__reb__MIU</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_1_13__reb__NoR</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_2_52__pav__</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_4_24__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_5_55__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_7_27__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_8_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_10_29__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_12_1__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_13_32__pav__</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_15_3__pav__FYI</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_16_35__pav__FSD</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_18_5__pav__EoL</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_19_37__pav__MSU</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_21_8__pav__ULD</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_22_39__pav__RUS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_24_10__pav__LTE</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_25_42__pav__CaS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_27_13__pav__RiS</t>
-  </si>
-  <si>
-    <t>R32IND__2020_8_9__9_28_44__pav__NoR</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_30_15__reb__</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_39_39__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_41_17__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_42_56__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_44_35__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_46_14__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_47_53__pav__</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_49_30__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_51_1__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_52_32__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_54_4__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_55_35__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R32JPN__2020_8_9__9_57_7__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__9_58_38__reb__</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_7_59__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_9_38__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_11_17__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_12_57__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_14_36__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_16_14__pav__</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_17_45__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_19_17__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_20_48__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_22_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_23_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2OECD_Other__2020_8_9__10_25_22__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_26_53__reb__</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_36_13__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_37_52__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_39_30__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_41_9__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_42_48__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_44_27__pav__</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_45_58__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_47_29__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_49_1__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_50_32__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_52_3__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2ASIA_Other__2020_8_9__10_53_35__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__10_55_6__reb__</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_4_25__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_6_4__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_7_43__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_9_22__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_11_1__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_12_40__pav__</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_14_12__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_15_43__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_17_14__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_18_45__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_20_16__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2SSA_Other__2020_8_9__11_21_47__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_23_18__reb__</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_32_39__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_34_18__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_35_56__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_37_35__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_39_15__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_40_54__pav__</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_42_25__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_43_56__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_45_28__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_46_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_48_30__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2MNF_Other__2020_8_9__11_50_4__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__11_51_35__reb__</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_0_57__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_2_36__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_4_15__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_5_54__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_7_33__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_9_11__pav__</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_10_42__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_12_13__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_13_45__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_15_16__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_16_47__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2LAM_Other__2020_8_9__12_18_18__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_19_50__reb__</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_30_19__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_31_58__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_33_36__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_35_15__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_36_55__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_38_33__pav__</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_40_4__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_41_35__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_43_6__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_44_38__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_46_9__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>R5.2REF_Other__2020_8_9__12_47_40__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_2_13__reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_20_25__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_29_41__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_40_33__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_50_4__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__22_59_41__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_8_57__reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_18_27__reb__FYI</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_27_34__reb__FSD</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_37_47__reb__EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_47_30__reb__MSU</t>
-  </si>
-  <si>
-    <t>Global__2020_8_9__23_56_52__reb__ULD</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_6_6__reb__RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_15_44__reb__LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_25_1__reb__MIU</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_34_22__reb__NoR</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_44_31__pav__</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_48_55__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_53_19__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__0_57_43__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_2_7__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_7_15__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_12_13__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_17_12__pav__</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_22_13__pav__FYI</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_27_17__pav__FSD</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_32_22__pav__EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_37_45__pav__MSU</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_43_5__pav__ULD</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_48_25__pav__RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_53_48__pav__LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__1_59_11__pav__CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_4_41__pav__RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_10_13__pav__NoR</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_16_7__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_27_4__pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_37_48__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_49_1__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__2_59_50__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__3_9_40__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__3_20_5__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__3_30_30__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__3_41_37__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__3_51_53__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__4_1_47__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__4_11_37__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__4_21_56__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_10__4_31_46__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__4_42_43__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__4_58_36__pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_5_0__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_11_23__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_17_45__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_24_11__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_30_35__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_37_1__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_43_25__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_49_46__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__5_56_8__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_2_30__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_8_55__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_15_19__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_21_43__reb__</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_35_37__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_41_11__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_46_56__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_52_47__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__6_58_36__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_4_23__pav__</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_8_13__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_12_3__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_15_53__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_19_50__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_23_43__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_10__7_27_34__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_31_29__reb__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_42_29__reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_45_28__reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_48_20__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_51_23__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_54_32__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_57_31__pav__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__7_59_45__pav__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_2_3__pav__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_4_53__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_7_14__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_9_35__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_11_51__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_14_8__pav_reb__</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_17_26__pav_reb__FYI_FSD_EoL</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_20_39__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_24_19__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_27_43__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_31_28__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_34_58__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_38_30__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_41_56__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_45_16__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_48_30__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_51_44__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_54_59__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_10__8_58_15__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+    <t>Global_South__2020_8_19__22_32_5__reb__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_44_8__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_47_4__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_50_13__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_53_28__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_56_41__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__22_59_33__pav__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_1_44__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_3_51__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_6_4__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_8_12__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_10_22__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_12_32__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_14_40__pav_reb__</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_17_43__pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_20_52__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_23_56__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_26_59__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_30_4__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_38_16__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_41_20__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_44_22__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_47_53__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_50_56__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_54_2__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_19__23_57_7__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_8_20__0_0_12__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_3_15__reb__</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_15_45__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_24_2__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_27_56__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_31_51__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_35_45__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_39_38__pav__</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_42_21__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_50_1__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_54_58__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__0_58_35__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__1_1_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>EU28__2020_8_20__1_4_2__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_6_46__reb__</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_18_40__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_22_0__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_25_21__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_28_42__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_32_2__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_42_45__pav__</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_45_11__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_47_35__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_50_1__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_53_7__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_55_32__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>G7__2020_8_20__1_57_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_0_25__reb__</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_9_41__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_11_21__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_13_0__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_14_41__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_16_20__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_17_58__reb__</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_19_38__reb__FYI</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_21_16__reb__FSD</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_22_54__reb__EoL</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_24_32__reb__MSU</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_26_10__reb__ULD</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_27_48__reb__RUS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_29_28__reb__LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_31_7__reb__MIU</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_32_47__reb__NoR</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_34_26__pav__</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_35_57__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_37_28__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_38_58__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_40_28__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_41_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_43_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_45_2__pav__</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_46_33__pav__FYI</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_48_4__pav__FSD</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_49_35__pav__EoL</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_51_6__pav__MSU</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_52_36__pav__ULD</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_54_6__pav__RUS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_55_37__pav__LTE</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_57_7__pav__CaS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__2_58_39__pav__RiS</t>
+  </si>
+  <si>
+    <t>R32USA__2020_8_20__3_0_10__pav__NoR</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_1_41__reb__</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_10_56__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_12_34__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_14_13__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_15_51__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_17_39__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_19_34__pav__</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_21_21__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_23_6__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_24_51__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_26_35__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_28_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32CAN__2020_8_20__3_30_4__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_31_48__reb__</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_41_57__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_43_36__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_45_15__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_46_53__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_48_31__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_50_8__pav__</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_51_39__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_53_9__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_54_39__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_56_10__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_57_39__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32CHN__2020_8_20__3_59_9__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_0_39__reb__</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_9_56__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_11_33__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_13_12__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_14_49__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_16_27__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_18_6__reb__</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_19_45__reb__FYI</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_21_23__reb__FSD</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_23_0__reb__EoL</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_24_38__reb__MSU</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_26_16__reb__ULD</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_27_53__reb__RUS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_29_31__reb__LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_31_9__reb__MIU</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_32_49__reb__NoR</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_34_27__pav__</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_35_58__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_37_28__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_39_0__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_40_30__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_42_0__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_43_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_45_1__pav__</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_46_32__pav__FYI</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_48_3__pav__FSD</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_49_33__pav__EoL</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_51_4__pav__MSU</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_52_34__pav__ULD</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_54_5__pav__RUS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_55_36__pav__LTE</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_57_6__pav__CaS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__4_58_37__pav__RiS</t>
+  </si>
+  <si>
+    <t>R32IND__2020_8_20__5_0_7__pav__NoR</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_28_19__reb__</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_38_5__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_39_55__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_41_59__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_44_2__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_45_46__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_47_48__pav__</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_49_50__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_51_45__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_53_55__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_55_33__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_57_5__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32JPN__2020_8_20__8_58_42__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_0_22__reb__</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_10_21__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_12_8__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_13_51__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_15_34__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_17_16__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_19_3__pav__</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_20_38__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_22_17__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_23_55__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_25_32__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_27_6__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>France__2020_8_20__9_28_45__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_30_20__reb__</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_40_5__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_41_52__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_43_34__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_45_24__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_47_11__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_48_56__pav__</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_50_33__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_52_12__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_53_47__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_55_21__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_57_0__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Italy__2020_8_20__9_58_46__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_0_27__reb__</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_10_23__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_12_6__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_13_51__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_15_39__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_17_26__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_19_11__pav__</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_20_48__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_22_30__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_24_11__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_25_52__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_27_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Germany__2020_8_20__10_29_9__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_30_48__reb__</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_41_2__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_42_49__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_44_36__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_46_25__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_48_12__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_49_58__pav__</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_51_36__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_53_11__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_54_49__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_56_28__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_58_0__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Poland__2020_8_20__10_59_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_1_13__reb__</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_11_28__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_13_14__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_15_13__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_17_14__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_19_20__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_21_26__pav__</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_23_20__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_24_57__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_26_31__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_28_6__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_29_40__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Spain__2020_8_20__11_31_13__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_32_48__reb__</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_42_34__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_44_16__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_45_57__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_47_41__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_49_23__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_51_4__pav__</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_52_38__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_54_12__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_55_46__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_57_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__11_58_52__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>UK__2020_8_20__12_0_25__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_1_59__reb__</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_11_30__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_13_17__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_15_7__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_17_9__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_19_10__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_21_4__pav__</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_23_16__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_25_8__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_27_26__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_29_8__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_30_50__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Oth_R32EU15__2020_8_20__12_32_30__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_34_8__reb__</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_44_15__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_46_0__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_47_46__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_49_32__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_51_15__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_53_1__pav__</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_54_37__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_56_22__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__12_58_23__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__13_0_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__13_2_23__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Oth_R32EU12-H__2020_8_20__13_3_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_5_39__reb__</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_17_45__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_19_47__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_21_37__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_23_31__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_25_21__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_27_10__pav__</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_28_50__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_30_31__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_32_7__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_33_44__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_35_29__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R32EU12-M__2020_8_20__13_37_17__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_38_55__reb__</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_50_49__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_53_18__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_55_43__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_57_45__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__13_59_45__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_1_42__pav__</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_3_23__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_5_7__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_6_45__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_8_18__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_9_54__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2OECD_Other__2020_8_20__14_11_28__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_13_9__reb__</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_25_18__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_27_18__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_29_1__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_30_43__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_32_24__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_34_6__pav__</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_35_39__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_37_14__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_39_5__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_40_48__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_42_29__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2ASIA_Other__2020_8_20__14_44_18__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__14_46_16__reb__</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__14_57_3__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__14_58_48__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_0_33__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_2_26__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_4_18__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_6_5__pav__</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_7_43__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_9_23__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_11_11__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_12_47__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_14_24__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2SSA_Other__2020_8_20__15_15_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_17_36__reb__</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_30_2__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_31_59__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_33_49__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_35_37__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_37_49__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_40_2__pav__</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_42_3__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_43_59__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_45_46__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_47_31__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_49_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2MNF_Other__2020_8_20__15_51_3__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__15_52_42__reb__</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_2_32__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_4_10__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_5_49__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_7_28__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_9_6__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_10_45__pav__</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_12_16__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_13_47__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_15_19__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_16_50__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_18_21__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2LAM_Other__2020_8_20__16_19_52__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_21_24__reb__</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_30_51__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_32_30__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_34_9__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_35_49__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_37_30__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_39_15__pav__</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_41_32__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_43_24__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_45_8__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_46_52__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_48_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>R5.2REF_Other__2020_8_20__16_50_58__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__17_22_16__pav_reb__</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__17_38_14__pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__17_44_51__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__17_51_22__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__17_57_57__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_4_30__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_11_3__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_17_37__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_24_11__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_30_42__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_37_14__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_43_47__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_50_19__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__18_56_52__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_3_28__reb__</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_9_10__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_14_52__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_20_38__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_26_21__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_32_6__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_37_49__pav__</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_41_38__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_45_25__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_49_13__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_52_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__19_56_46__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_8_20__20_0_32__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_20__23_51_58__reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__0_9_16__reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__0_18_45__reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__0_27_54__reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__0_39_14__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__0_52_8__reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_1_20__reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_10_43__reb__FYI</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_20_13__reb__FSD</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_29_44__reb__EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_40_11__reb__MSU</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_49_38__reb__ULD</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__1_59_11__reb__RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_9_44__reb__LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_19_34__reb__MIU</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_28_57__reb__NoR</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_40_34__pav__</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_44_54__pav__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_49_15__pav__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_53_37__pav__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__2_57_59__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_2_19__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_6_40__pav__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_11_2__pav__</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_15_23__pav__FYI</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_19_46__pav__FSD</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_24_7__pav__EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_28_30__pav__MSU</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_32_53__pav__ULD</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_37_14__pav__RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_41_36__pav__LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_45_58__pav__CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_50_20__pav__RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_54_40__pav__NoR</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__3_59_4__pav_reb__</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__4_12_31__pav_reb__FYI_FSD_EoL</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__4_23_0__pav_reb__FYI_FSD_EoL_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__4_34_58__pav_reb__FYI_FSD_EoL_MSU_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__4_46_2__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__4_56_34__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__5_7_26__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__5_18_37__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__5_28_21__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__5_38_57__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__5_49_30__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__6_0_0__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__6_10_32__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_8_21__6_21_18__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -2602,13 +2602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB42"/>
+  <dimension ref="A2:AB51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2755,25 +2755,25 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -2862,10 +2862,10 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -2936,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -2998,10 +2998,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -3108,7 +3108,7 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
         <v>10</v>
@@ -3157,41 +3157,38 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
         <v>10</v>
@@ -3240,23 +3237,26 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -3321,22 +3321,22 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -3345,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
         <v>10</v>
@@ -3401,34 +3401,34 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
@@ -3481,34 +3481,34 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13" t="s">
         <v>10</v>
@@ -3561,40 +3561,40 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="s">
         <v>10</v>
@@ -3641,43 +3641,43 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" t="s">
         <v>10</v>
@@ -3720,14 +3720,11 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
@@ -3748,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
         <v>10</v>
@@ -3804,22 +3801,22 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -3831,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -3884,22 +3881,22 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3908,13 +3905,13 @@
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N18" t="s">
         <v>10</v>
@@ -3964,34 +3961,34 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
@@ -4006,13 +4003,13 @@
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T19" t="s">
         <v>29</v>
@@ -4043,35 +4040,38 @@
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
@@ -4124,13 +4124,13 @@
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -4142,19 +4142,19 @@
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
         <v>10</v>
@@ -4203,26 +4203,23 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -4231,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
@@ -4287,10 +4284,10 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -4305,16 +4302,16 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
         <v>10</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
@@ -4367,10 +4364,10 @@
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
@@ -4385,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
@@ -4447,10 +4444,10 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -4468,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
@@ -4480,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" t="s">
         <v>10</v>
@@ -4527,10 +4524,10 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -4560,10 +4557,10 @@
         <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P26" t="s">
         <v>10</v>
@@ -4606,41 +4603,44 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M27" t="s">
         <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="s">
         <v>10</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
@@ -4699,31 +4699,31 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P28" t="s">
         <v>10</v>
@@ -4766,23 +4766,20 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>188</v>
-      </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
@@ -4850,19 +4847,19 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -4930,34 +4927,34 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J31" t="s">
         <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M31" t="s">
         <v>10</v>
@@ -5010,34 +5007,34 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M32" t="s">
         <v>10</v>
@@ -5090,34 +5087,34 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K33" t="s">
         <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M33" t="s">
         <v>10</v>
@@ -5170,31 +5167,31 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
         <v>11</v>
@@ -5203,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O34" t="s">
         <v>10</v>
@@ -5250,34 +5247,34 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M35" t="s">
         <v>10</v>
@@ -5286,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="O35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P35" t="s">
         <v>10</v>
@@ -5330,40 +5327,40 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" t="s">
         <v>11</v>
@@ -5409,17 +5406,14 @@
       </c>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>199</v>
-      </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -5455,25 +5449,25 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T37" t="s">
         <v>29</v>
       </c>
       <c r="U37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="s">
         <v>70</v>
@@ -5493,34 +5487,34 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
         <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" t="s">
         <v>10</v>
@@ -5550,13 +5544,13 @@
         <v>29</v>
       </c>
       <c r="U38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" t="s">
         <v>70</v>
@@ -5575,47 +5569,44 @@
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>287</v>
-      </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
         <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P39" t="s">
         <v>10</v>
@@ -5633,13 +5624,13 @@
         <v>29</v>
       </c>
       <c r="U39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X39" t="s">
         <v>70</v>
@@ -5658,14 +5649,11 @@
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>200</v>
-      </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>59</v>
@@ -5680,10 +5668,10 @@
         <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40" t="s">
         <v>11</v>
@@ -5692,13 +5680,13 @@
         <v>11</v>
       </c>
       <c r="M40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
         <v>10</v>
@@ -5716,13 +5704,13 @@
         <v>29</v>
       </c>
       <c r="U40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X40" t="s">
         <v>70</v>
@@ -5741,14 +5729,11 @@
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>288</v>
-      </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
@@ -5772,7 +5757,7 @@
         <v>11</v>
       </c>
       <c r="L41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M41" t="s">
         <v>10</v>
@@ -5824,47 +5809,44 @@
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>289</v>
-      </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L42" t="s">
         <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P42" t="s">
         <v>10</v>
@@ -5903,6 +5885,744 @@
         <v>138</v>
       </c>
       <c r="AB42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" t="s">
+        <v>11</v>
+      </c>
+      <c r="S43" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" t="s">
+        <v>11</v>
+      </c>
+      <c r="W43" t="s">
+        <v>10</v>
+      </c>
+      <c r="X43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" t="s">
+        <v>11</v>
+      </c>
+      <c r="P44" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" t="s">
+        <v>11</v>
+      </c>
+      <c r="V44" t="s">
+        <v>11</v>
+      </c>
+      <c r="W44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" t="s">
+        <v>11</v>
+      </c>
+      <c r="S45" t="s">
+        <v>11</v>
+      </c>
+      <c r="T45" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" t="s">
+        <v>11</v>
+      </c>
+      <c r="V45" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" t="s">
+        <v>10</v>
+      </c>
+      <c r="X45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" t="s">
+        <v>11</v>
+      </c>
+      <c r="S46" t="s">
+        <v>11</v>
+      </c>
+      <c r="T46" t="s">
+        <v>29</v>
+      </c>
+      <c r="U46" t="s">
+        <v>10</v>
+      </c>
+      <c r="V46" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R48" t="s">
+        <v>11</v>
+      </c>
+      <c r="S48" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" t="s">
+        <v>29</v>
+      </c>
+      <c r="U48" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" t="s">
+        <v>11</v>
+      </c>
+      <c r="O49" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R49" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49" t="s">
+        <v>11</v>
+      </c>
+      <c r="T49" t="s">
+        <v>29</v>
+      </c>
+      <c r="U49" t="s">
+        <v>10</v>
+      </c>
+      <c r="V49" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49" t="s">
+        <v>11</v>
+      </c>
+      <c r="X49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>11</v>
+      </c>
+      <c r="R50" t="s">
+        <v>11</v>
+      </c>
+      <c r="S50" t="s">
+        <v>11</v>
+      </c>
+      <c r="T50" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" t="s">
+        <v>11</v>
+      </c>
+      <c r="V50" t="s">
+        <v>11</v>
+      </c>
+      <c r="W50" t="s">
+        <v>10</v>
+      </c>
+      <c r="X50" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>11</v>
+      </c>
+      <c r="R51" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" t="s">
+        <v>11</v>
+      </c>
+      <c r="T51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V51" t="s">
+        <v>11</v>
+      </c>
+      <c r="W51" t="s">
+        <v>10</v>
+      </c>
+      <c r="X51" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB51">
         <v>50</v>
       </c>
     </row>
@@ -8338,10 +9058,10 @@
   <dimension ref="A2:AB433"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43126,8 +43846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43152,48 +43872,54 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>656</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>657</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>658</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>659</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>660</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>661</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>663</v>
+        <v>341</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -43204,14 +43930,8 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>342</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -43222,14 +43942,8 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="D11" t="s">
-        <v>665</v>
+        <v>343</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -43240,14 +43954,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="D12" t="s">
-        <v>666</v>
+        <v>344</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -43258,14 +43966,8 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="D13" t="s">
-        <v>667</v>
+        <v>345</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -43276,14 +43978,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="D14" t="s">
-        <v>668</v>
+        <v>346</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -43294,15 +43990,11 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" t="s">
-        <v>669</v>
-      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -43312,9 +44004,8 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="10"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -43325,6 +44016,8 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="10"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -43335,6 +44028,8 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="10"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -43345,6 +44040,8 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="10"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -43355,6 +44052,8 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="10"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -43365,6 +44064,8 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="10"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -43375,6 +44076,8 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -43471,6 +44174,7 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D29" s="10"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -43482,6 +44186,7 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D30" s="10"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -43493,6 +44198,7 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -43504,6 +44210,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -43514,7 +44221,8 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D33" s="10"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -43525,7 +44233,8 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -43536,7 +44245,8 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D35" s="10"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -43547,110 +44257,243 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D36" s="10"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D38" s="10"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D39" s="10"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D40" s="10"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D42" s="10"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D43" s="10"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C76" s="8"/>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D109" s="10"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B372" s="8"/>
@@ -43898,14 +44741,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E396" sqref="E396"/>
+    <sheetView topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.86328125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="84.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
@@ -43931,37 +44774,37 @@
         <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>333</v>
+        <v>480</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D3" s="10" t="s">
-        <v>334</v>
+        <v>481</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D4" s="10" t="s">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D5" s="10" t="s">
-        <v>336</v>
+        <v>483</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D6" s="10" t="s">
-        <v>337</v>
+        <v>484</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D7" s="10" t="s">
-        <v>338</v>
+        <v>485</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -43973,43 +44816,43 @@
         <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>339</v>
+        <v>486</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D9" s="10" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D10" s="10" t="s">
-        <v>341</v>
+        <v>488</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" s="10" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" s="10" t="s">
-        <v>343</v>
+        <v>490</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" s="10" t="s">
-        <v>344</v>
+        <v>491</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D14" s="10" t="s">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -44021,43 +44864,43 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>640</v>
+        <v>694</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -44069,67 +44912,67 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>645</v>
+        <v>699</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>650</v>
+        <v>704</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>651</v>
+        <v>705</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>652</v>
+        <v>706</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>653</v>
+        <v>707</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>654</v>
+        <v>708</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -44141,37 +44984,37 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>623</v>
+        <v>677</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>626</v>
+        <v>680</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>627</v>
+        <v>681</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -44183,61 +45026,61 @@
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>628</v>
+        <v>682</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>635</v>
+        <v>689</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>636</v>
+        <v>690</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>637</v>
+        <v>691</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -44249,49 +45092,49 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>656</v>
+        <v>710</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>657</v>
+        <v>711</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>658</v>
+        <v>712</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>662</v>
+        <v>716</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>663</v>
+        <v>717</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -44303,7 +45146,7 @@
         <v>281</v>
       </c>
       <c r="D57" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -44315,7 +45158,7 @@
         <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -44327,7 +45170,7 @@
         <v>281</v>
       </c>
       <c r="D59" t="s">
-        <v>666</v>
+        <v>720</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -44339,7 +45182,7 @@
         <v>281</v>
       </c>
       <c r="D60" t="s">
-        <v>667</v>
+        <v>721</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -44351,7 +45194,7 @@
         <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -44363,7 +45206,7 @@
         <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>669</v>
+        <v>723</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -44374,38 +45217,38 @@
       <c r="C63" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>424</v>
+      <c r="D63" t="s">
+        <v>347</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D64" s="10" t="s">
-        <v>425</v>
+      <c r="D64" t="s">
+        <v>348</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D65" s="10" t="s">
-        <v>426</v>
+      <c r="D65" t="s">
+        <v>349</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D66" s="10" t="s">
-        <v>427</v>
+      <c r="D66" t="s">
+        <v>350</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D67" s="10" t="s">
-        <v>428</v>
+      <c r="D67" t="s">
+        <v>351</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D68" s="10" t="s">
-        <v>429</v>
+      <c r="D68" t="s">
+        <v>352</v>
       </c>
       <c r="H68" s="2"/>
     </row>
@@ -44416,62 +45259,62 @@
       <c r="C69" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>430</v>
+      <c r="D69" t="s">
+        <v>353</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D70" s="10" t="s">
-        <v>431</v>
+      <c r="D70" t="s">
+        <v>354</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D71" s="10" t="s">
-        <v>432</v>
+      <c r="D71" t="s">
+        <v>355</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D72" s="10" t="s">
-        <v>433</v>
+      <c r="D72" t="s">
+        <v>356</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D73" s="10" t="s">
-        <v>434</v>
+      <c r="D73" t="s">
+        <v>357</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D74" s="10" t="s">
-        <v>435</v>
+      <c r="D74" t="s">
+        <v>358</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D75" s="10" t="s">
-        <v>436</v>
+      <c r="D75" t="s">
+        <v>359</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D76" s="10" t="s">
-        <v>437</v>
+      <c r="D76" t="s">
+        <v>360</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D77" s="10" t="s">
-        <v>438</v>
+      <c r="D77" t="s">
+        <v>361</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D78" s="10" t="s">
-        <v>439</v>
+      <c r="D78" t="s">
+        <v>362</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -44482,44 +45325,44 @@
       <c r="C79" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>440</v>
+      <c r="D79" t="s">
+        <v>363</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D80" s="10" t="s">
-        <v>441</v>
+      <c r="D80" t="s">
+        <v>364</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D81" s="10" t="s">
-        <v>442</v>
+      <c r="D81" t="s">
+        <v>365</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D82" s="10" t="s">
-        <v>443</v>
+      <c r="D82" t="s">
+        <v>366</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D83" s="10" t="s">
-        <v>444</v>
+      <c r="D83" t="s">
+        <v>367</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D84" s="10" t="s">
-        <v>445</v>
+      <c r="D84" t="s">
+        <v>368</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D85" s="10" t="s">
-        <v>446</v>
+      <c r="D85" t="s">
+        <v>369</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -44530,68 +45373,68 @@
       <c r="C86" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>447</v>
+      <c r="D86" t="s">
+        <v>370</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D87" s="10" t="s">
-        <v>448</v>
+      <c r="D87" t="s">
+        <v>371</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D88" s="10" t="s">
-        <v>449</v>
+      <c r="D88" t="s">
+        <v>372</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D89" s="10" t="s">
-        <v>450</v>
+      <c r="D89" t="s">
+        <v>373</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D90" s="10" t="s">
-        <v>451</v>
+      <c r="D90" t="s">
+        <v>374</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D91" s="10" t="s">
-        <v>452</v>
+      <c r="D91" t="s">
+        <v>375</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D92" s="10" t="s">
-        <v>453</v>
+      <c r="D92" t="s">
+        <v>376</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D93" s="10" t="s">
-        <v>454</v>
+      <c r="D93" t="s">
+        <v>377</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D94" s="10" t="s">
-        <v>455</v>
+      <c r="D94" t="s">
+        <v>378</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D95" s="10" t="s">
-        <v>456</v>
+      <c r="D95" t="s">
+        <v>379</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D96" s="10" t="s">
-        <v>457</v>
+      <c r="D96" t="s">
+        <v>380</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -44603,37 +45446,37 @@
         <v>42</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>346</v>
+        <v>493</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D98" s="10" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D99" s="10" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D100" s="10" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D101" s="10" t="s">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D102" s="10" t="s">
-        <v>351</v>
+        <v>498</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -44645,43 +45488,43 @@
         <v>58</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>352</v>
+        <v>499</v>
       </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D104" s="10" t="s">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D105" s="10" t="s">
-        <v>354</v>
+        <v>501</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D106" s="10" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D107" s="10" t="s">
-        <v>356</v>
+        <v>503</v>
       </c>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D108" s="10" t="s">
-        <v>357</v>
+        <v>504</v>
       </c>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D109" s="10" t="s">
-        <v>358</v>
+        <v>505</v>
       </c>
       <c r="H109" s="2"/>
     </row>
@@ -44693,37 +45536,37 @@
         <v>42</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D111" s="10" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D112" s="10" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D113" s="10" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D114" s="10" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D115" s="10" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="H115" s="2"/>
     </row>
@@ -44735,43 +45578,43 @@
         <v>58</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D117" s="10" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D118" s="10" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D119" s="10" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D120" s="10" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D121" s="10" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D122" s="10" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -44782,38 +45625,38 @@
       <c r="C123" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>484</v>
+      <c r="D123" t="s">
+        <v>394</v>
       </c>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D124" s="10" t="s">
-        <v>485</v>
+      <c r="D124" t="s">
+        <v>395</v>
       </c>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D125" s="10" t="s">
-        <v>486</v>
+      <c r="D125" t="s">
+        <v>396</v>
       </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D126" s="10" t="s">
-        <v>487</v>
+      <c r="D126" t="s">
+        <v>397</v>
       </c>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D127" s="10" t="s">
-        <v>488</v>
+      <c r="D127" t="s">
+        <v>398</v>
       </c>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D128" s="10" t="s">
-        <v>489</v>
+      <c r="D128" t="s">
+        <v>399</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -44824,44 +45667,44 @@
       <c r="C129" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="10" t="s">
-        <v>490</v>
+      <c r="D129" t="s">
+        <v>400</v>
       </c>
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D130" s="10" t="s">
-        <v>491</v>
+      <c r="D130" t="s">
+        <v>401</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D131" s="10" t="s">
-        <v>492</v>
+      <c r="D131" t="s">
+        <v>402</v>
       </c>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D132" s="10" t="s">
-        <v>493</v>
+      <c r="D132" t="s">
+        <v>403</v>
       </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D133" s="10" t="s">
-        <v>494</v>
+      <c r="D133" t="s">
+        <v>404</v>
       </c>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D134" s="10" t="s">
-        <v>495</v>
+      <c r="D134" t="s">
+        <v>405</v>
       </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D135" s="10" t="s">
-        <v>496</v>
+      <c r="D135" t="s">
+        <v>406</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -44872,38 +45715,38 @@
       <c r="C136" t="s">
         <v>42</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>497</v>
+      <c r="D136" t="s">
+        <v>407</v>
       </c>
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D137" s="10" t="s">
-        <v>498</v>
+      <c r="D137" t="s">
+        <v>408</v>
       </c>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D138" s="10" t="s">
-        <v>499</v>
+      <c r="D138" t="s">
+        <v>409</v>
       </c>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D139" s="10" t="s">
-        <v>500</v>
+      <c r="D139" t="s">
+        <v>410</v>
       </c>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D140" s="10" t="s">
-        <v>501</v>
+      <c r="D140" t="s">
+        <v>411</v>
       </c>
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D141" s="10" t="s">
-        <v>502</v>
+      <c r="D141" t="s">
+        <v>412</v>
       </c>
       <c r="H141" s="2"/>
     </row>
@@ -44914,62 +45757,62 @@
       <c r="C142" t="s">
         <v>62</v>
       </c>
-      <c r="D142" s="10" t="s">
-        <v>503</v>
+      <c r="D142" t="s">
+        <v>413</v>
       </c>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D143" s="10" t="s">
-        <v>504</v>
+      <c r="D143" t="s">
+        <v>414</v>
       </c>
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D144" s="10" t="s">
-        <v>505</v>
+      <c r="D144" t="s">
+        <v>415</v>
       </c>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D145" s="10" t="s">
-        <v>506</v>
+      <c r="D145" t="s">
+        <v>416</v>
       </c>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D146" s="10" t="s">
-        <v>507</v>
+      <c r="D146" t="s">
+        <v>417</v>
       </c>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D147" s="10" t="s">
-        <v>508</v>
+      <c r="D147" t="s">
+        <v>418</v>
       </c>
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D148" s="10" t="s">
-        <v>509</v>
+      <c r="D148" t="s">
+        <v>419</v>
       </c>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D149" s="10" t="s">
-        <v>510</v>
+      <c r="D149" t="s">
+        <v>420</v>
       </c>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D150" s="10" t="s">
-        <v>511</v>
+      <c r="D150" t="s">
+        <v>421</v>
       </c>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D151" s="10" t="s">
-        <v>512</v>
+      <c r="D151" t="s">
+        <v>422</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -44980,44 +45823,44 @@
       <c r="C152" t="s">
         <v>58</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>513</v>
+      <c r="D152" t="s">
+        <v>423</v>
       </c>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D153" s="10" t="s">
-        <v>514</v>
+      <c r="D153" t="s">
+        <v>424</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D154" s="10" t="s">
-        <v>515</v>
+      <c r="D154" t="s">
+        <v>425</v>
       </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D155" s="10" t="s">
-        <v>516</v>
+      <c r="D155" t="s">
+        <v>426</v>
       </c>
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D156" s="10" t="s">
-        <v>517</v>
+      <c r="D156" t="s">
+        <v>427</v>
       </c>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D157" s="10" t="s">
-        <v>518</v>
+      <c r="D157" t="s">
+        <v>428</v>
       </c>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D158" s="10" t="s">
-        <v>519</v>
+      <c r="D158" t="s">
+        <v>429</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -45028,68 +45871,68 @@
       <c r="C159" t="s">
         <v>61</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>520</v>
+      <c r="D159" t="s">
+        <v>430</v>
       </c>
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D160" s="10" t="s">
-        <v>521</v>
+      <c r="D160" t="s">
+        <v>431</v>
       </c>
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D161" s="10" t="s">
-        <v>522</v>
+      <c r="D161" t="s">
+        <v>432</v>
       </c>
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D162" s="10" t="s">
-        <v>523</v>
+      <c r="D162" t="s">
+        <v>433</v>
       </c>
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D163" s="10" t="s">
-        <v>524</v>
+      <c r="D163" t="s">
+        <v>434</v>
       </c>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D164" s="10" t="s">
-        <v>525</v>
+      <c r="D164" t="s">
+        <v>435</v>
       </c>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D165" s="10" t="s">
-        <v>526</v>
+      <c r="D165" t="s">
+        <v>436</v>
       </c>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D166" s="10" t="s">
-        <v>527</v>
+      <c r="D166" t="s">
+        <v>437</v>
       </c>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D167" s="10" t="s">
-        <v>528</v>
+      <c r="D167" t="s">
+        <v>438</v>
       </c>
       <c r="H167" s="2"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D168" s="10" t="s">
-        <v>529</v>
+      <c r="D168" t="s">
+        <v>439</v>
       </c>
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D169" s="10" t="s">
-        <v>530</v>
+      <c r="D169" t="s">
+        <v>440</v>
       </c>
       <c r="H169" s="2"/>
     </row>
@@ -45101,37 +45944,37 @@
         <v>42</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D171" s="10" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D172" s="10" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D173" s="10" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D174" s="10" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D175" s="10" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="H175" s="2"/>
     </row>
@@ -45143,43 +45986,43 @@
         <v>58</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="H176" s="2"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D177" s="10" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D178" s="10" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D179" s="10" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D180" s="10" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="H180" s="2"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D181" s="10" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D182" s="10" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="H182" s="2"/>
     </row>
@@ -45191,37 +46034,37 @@
         <v>42</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="H183" s="2"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D184" s="10" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="H184" s="2"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D185" s="10" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D186" s="10" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="H186" s="2"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D187" s="10" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D188" s="10" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="H188" s="2"/>
     </row>
@@ -45233,43 +46076,43 @@
         <v>58</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D190" s="10" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D191" s="10" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D192" s="10" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D193" s="10" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D194" s="10" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D195" s="10" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="H195" s="2"/>
     </row>
@@ -45281,37 +46124,37 @@
         <v>42</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D197" s="10" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D198" s="10" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D199" s="10" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D200" s="10" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="H200" s="2"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D201" s="10" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="H201" s="2"/>
     </row>
@@ -45323,43 +46166,43 @@
         <v>58</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D203" s="10" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D204" s="10" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="H204" s="2"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D205" s="10" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="H205" s="2"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D206" s="10" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="H206" s="2"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D207" s="10" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="H207" s="2"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D208" s="10" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="H208" s="2"/>
     </row>
@@ -45371,37 +46214,37 @@
         <v>42</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D210" s="10" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="H210" s="2"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D211" s="10" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="H211" s="2"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D212" s="10" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="H212" s="2"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D213" s="10" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D214" s="10" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="H214" s="2"/>
     </row>
@@ -45413,43 +46256,43 @@
         <v>58</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D216" s="10" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D217" s="10" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="H217" s="2"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D218" s="10" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D219" s="10" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D220" s="10" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="H220" s="2"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D221" s="10" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="H221" s="2"/>
     </row>
@@ -45461,37 +46304,37 @@
         <v>42</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="H222" s="2"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D223" s="10" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="H223" s="2"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D224" s="10" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="H224" s="2"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D225" s="10" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="H225" s="2"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D226" s="10" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="H226" s="2"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D227" s="10" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="H227" s="2"/>
     </row>
@@ -45503,43 +46346,43 @@
         <v>58</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D229" s="10" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D230" s="10" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D231" s="10" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="H231" s="2"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D232" s="10" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="H232" s="2"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D233" s="10" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D234" s="10" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="H234" s="2"/>
     </row>
@@ -45551,37 +46394,37 @@
         <v>42</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D236" s="10" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D237" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D238" s="10" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H238" s="2"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D239" s="10" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="H239" s="2"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D240" s="10" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="H240" s="2"/>
     </row>
@@ -45593,43 +46436,43 @@
         <v>58</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D242" s="10" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="H242" s="2"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D243" s="10" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="H243" s="2"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D244" s="10" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="H244" s="2"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D245" s="10" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="H245" s="2"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D246" s="10" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="H246" s="2"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D247" s="10" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="H247" s="2"/>
     </row>
@@ -45640,38 +46483,38 @@
       <c r="C248" t="s">
         <v>42</v>
       </c>
-      <c r="D248" s="10" t="s">
-        <v>458</v>
+      <c r="D248" t="s">
+        <v>381</v>
       </c>
       <c r="H248" s="2"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D249" s="10" t="s">
-        <v>459</v>
+      <c r="D249" t="s">
+        <v>382</v>
       </c>
       <c r="H249" s="2"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D250" s="10" t="s">
-        <v>460</v>
+      <c r="D250" t="s">
+        <v>383</v>
       </c>
       <c r="H250" s="2"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D251" s="10" t="s">
-        <v>461</v>
+      <c r="D251" t="s">
+        <v>384</v>
       </c>
       <c r="H251" s="2"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D252" s="10" t="s">
-        <v>462</v>
+      <c r="D252" t="s">
+        <v>385</v>
       </c>
       <c r="H252" s="2"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D253" s="10" t="s">
-        <v>463</v>
+      <c r="D253" t="s">
+        <v>386</v>
       </c>
       <c r="H253" s="2"/>
     </row>
@@ -45682,44 +46525,44 @@
       <c r="C254" t="s">
         <v>58</v>
       </c>
-      <c r="D254" s="10" t="s">
-        <v>464</v>
+      <c r="D254" t="s">
+        <v>387</v>
       </c>
       <c r="H254" s="2"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D255" s="10" t="s">
-        <v>465</v>
+      <c r="D255" t="s">
+        <v>388</v>
       </c>
       <c r="H255" s="2"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D256" s="10" t="s">
-        <v>466</v>
+      <c r="D256" t="s">
+        <v>389</v>
       </c>
       <c r="H256" s="2"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D257" s="10" t="s">
-        <v>467</v>
+      <c r="D257" t="s">
+        <v>390</v>
       </c>
       <c r="H257" s="2"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D258" s="10" t="s">
-        <v>468</v>
+      <c r="D258" t="s">
+        <v>391</v>
       </c>
       <c r="H258" s="2"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D259" s="10" t="s">
-        <v>469</v>
+      <c r="D259" t="s">
+        <v>392</v>
       </c>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D260" s="10" t="s">
-        <v>470</v>
+      <c r="D260" t="s">
+        <v>393</v>
       </c>
       <c r="H260" s="2"/>
     </row>
@@ -45731,37 +46574,37 @@
         <v>42</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>359</v>
+        <v>506</v>
       </c>
       <c r="H261" s="2"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D262" s="10" t="s">
-        <v>360</v>
+        <v>507</v>
       </c>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D263" s="10" t="s">
-        <v>361</v>
+        <v>508</v>
       </c>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D264" s="10" t="s">
-        <v>362</v>
+        <v>509</v>
       </c>
       <c r="H264" s="2"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D265" s="10" t="s">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="H265" s="2"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D266" s="10" t="s">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="H266" s="2"/>
     </row>
@@ -45773,43 +46616,43 @@
         <v>58</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="H267" s="2"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D268" s="10" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D269" s="10" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="H269" s="2"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D270" s="10" t="s">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="H270" s="2"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D271" s="10" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="H271" s="2"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D272" s="10" t="s">
-        <v>370</v>
+        <v>517</v>
       </c>
       <c r="H272" s="2"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D273" s="10" t="s">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="H273" s="2"/>
     </row>
@@ -45820,38 +46663,38 @@
       <c r="C274" t="s">
         <v>42</v>
       </c>
-      <c r="D274" s="10" t="s">
-        <v>294</v>
+      <c r="D274" t="s">
+        <v>321</v>
       </c>
       <c r="H274" s="2"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D275" s="10" t="s">
-        <v>295</v>
+      <c r="D275" t="s">
+        <v>322</v>
       </c>
       <c r="H275" s="2"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D276" s="10" t="s">
-        <v>296</v>
+      <c r="D276" t="s">
+        <v>323</v>
       </c>
       <c r="H276" s="2"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D277" s="10" t="s">
-        <v>297</v>
+      <c r="D277" t="s">
+        <v>324</v>
       </c>
       <c r="H277" s="2"/>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D278" s="10" t="s">
-        <v>298</v>
+      <c r="D278" t="s">
+        <v>325</v>
       </c>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D279" s="10" t="s">
-        <v>299</v>
+      <c r="D279" t="s">
+        <v>326</v>
       </c>
       <c r="H279" s="2"/>
     </row>
@@ -45862,44 +46705,44 @@
       <c r="C280" t="s">
         <v>58</v>
       </c>
-      <c r="D280" s="10" t="s">
-        <v>300</v>
+      <c r="D280" t="s">
+        <v>327</v>
       </c>
       <c r="H280" s="2"/>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D281" s="10" t="s">
-        <v>301</v>
+      <c r="D281" t="s">
+        <v>328</v>
       </c>
       <c r="H281" s="2"/>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D282" s="10" t="s">
-        <v>302</v>
+      <c r="D282" t="s">
+        <v>329</v>
       </c>
       <c r="H282" s="2"/>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D283" s="10" t="s">
-        <v>303</v>
+      <c r="D283" t="s">
+        <v>330</v>
       </c>
       <c r="H283" s="2"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D284" s="10" t="s">
-        <v>304</v>
+      <c r="D284" t="s">
+        <v>331</v>
       </c>
       <c r="H284" s="2"/>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D285" s="10" t="s">
-        <v>305</v>
+      <c r="D285" t="s">
+        <v>332</v>
       </c>
       <c r="H285" s="2"/>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D286" s="10" t="s">
-        <v>306</v>
+      <c r="D286" t="s">
+        <v>333</v>
       </c>
       <c r="H286" s="2"/>
     </row>
@@ -45910,38 +46753,38 @@
       <c r="C287" t="s">
         <v>42</v>
       </c>
-      <c r="D287" s="10" t="s">
-        <v>471</v>
+      <c r="D287" t="s">
+        <v>334</v>
       </c>
       <c r="H287" s="2"/>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D288" s="10" t="s">
-        <v>472</v>
+      <c r="D288" t="s">
+        <v>335</v>
       </c>
       <c r="H288" s="2"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D289" s="10" t="s">
-        <v>473</v>
+      <c r="D289" t="s">
+        <v>336</v>
       </c>
       <c r="H289" s="2"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D290" s="10" t="s">
-        <v>474</v>
+      <c r="D290" t="s">
+        <v>337</v>
       </c>
       <c r="H290" s="2"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D291" s="10" t="s">
-        <v>475</v>
+      <c r="D291" t="s">
+        <v>338</v>
       </c>
       <c r="H291" s="2"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D292" s="10" t="s">
-        <v>476</v>
+      <c r="D292" t="s">
+        <v>339</v>
       </c>
       <c r="H292" s="2"/>
     </row>
@@ -45952,44 +46795,44 @@
       <c r="C293" t="s">
         <v>58</v>
       </c>
-      <c r="D293" s="10" t="s">
-        <v>477</v>
+      <c r="D293" t="s">
+        <v>340</v>
       </c>
       <c r="H293" s="2"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D294" s="10" t="s">
-        <v>478</v>
+      <c r="D294" t="s">
+        <v>341</v>
       </c>
       <c r="H294" s="2"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D295" s="10" t="s">
-        <v>479</v>
+      <c r="D295" t="s">
+        <v>342</v>
       </c>
       <c r="H295" s="2"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D296" s="10" t="s">
-        <v>480</v>
+      <c r="D296" t="s">
+        <v>343</v>
       </c>
       <c r="H296" s="2"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D297" s="10" t="s">
-        <v>481</v>
+      <c r="D297" t="s">
+        <v>344</v>
       </c>
       <c r="H297" s="2"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D298" s="10" t="s">
-        <v>482</v>
+      <c r="D298" t="s">
+        <v>345</v>
       </c>
       <c r="H298" s="2"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D299" s="10" t="s">
-        <v>483</v>
+      <c r="D299" t="s">
+        <v>346</v>
       </c>
       <c r="H299" s="2"/>
     </row>
@@ -46001,33 +46844,33 @@
         <v>42</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="H300" s="2"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D301" s="10" t="s">
-        <v>412</v>
+        <v>559</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D302" s="10" t="s">
-        <v>413</v>
+        <v>560</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D303" s="10" t="s">
-        <v>414</v>
+        <v>561</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D304" s="10" t="s">
-        <v>415</v>
+        <v>562</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D305" s="10" t="s">
-        <v>416</v>
+        <v>563</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.45">
@@ -46038,37 +46881,37 @@
         <v>58</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>417</v>
+        <v>564</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D307" s="10" t="s">
-        <v>418</v>
+        <v>565</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D308" s="10" t="s">
-        <v>419</v>
+        <v>566</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D309" s="10" t="s">
-        <v>420</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D310" s="10" t="s">
-        <v>421</v>
+        <v>568</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D311" s="10" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D312" s="10" t="s">
-        <v>423</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.45">
@@ -46079,32 +46922,32 @@
         <v>42</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>307</v>
+        <v>454</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D314" s="10" t="s">
-        <v>308</v>
+        <v>455</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D315" s="10" t="s">
-        <v>309</v>
+        <v>456</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D316" s="10" t="s">
-        <v>310</v>
+        <v>457</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D317" s="10" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D318" s="10" t="s">
-        <v>312</v>
+        <v>459</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.45">
@@ -46115,37 +46958,37 @@
         <v>58</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>313</v>
+        <v>460</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D320" s="10" t="s">
-        <v>314</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D321" s="10" t="s">
-        <v>315</v>
+        <v>462</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D322" s="10" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D323" s="10" t="s">
-        <v>317</v>
+        <v>464</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D324" s="10" t="s">
-        <v>318</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D325" s="10" t="s">
-        <v>319</v>
+        <v>466</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.45">
@@ -46156,32 +46999,32 @@
         <v>42</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>320</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D327" s="10" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D328" s="10" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D329" s="10" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D330" s="10" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D331" s="10" t="s">
-        <v>325</v>
+        <v>472</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.45">
@@ -46192,37 +47035,37 @@
         <v>58</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>326</v>
+        <v>473</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D333" s="10" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D334" s="10" t="s">
-        <v>328</v>
+        <v>475</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D335" s="10" t="s">
-        <v>329</v>
+        <v>476</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D336" s="10" t="s">
-        <v>330</v>
+        <v>477</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D337" s="10" t="s">
-        <v>331</v>
+        <v>478</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D338" s="10" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.45">
@@ -46233,32 +47076,32 @@
         <v>42</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>372</v>
+        <v>519</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D340" s="10" t="s">
-        <v>373</v>
+        <v>520</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D341" s="10" t="s">
-        <v>374</v>
+        <v>521</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D342" s="10" t="s">
-        <v>375</v>
+        <v>522</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D343" s="10" t="s">
-        <v>376</v>
+        <v>523</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D344" s="10" t="s">
-        <v>377</v>
+        <v>524</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.45">
@@ -46269,37 +47112,37 @@
         <v>58</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>378</v>
+        <v>525</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D346" s="10" t="s">
-        <v>379</v>
+        <v>526</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D347" s="10" t="s">
-        <v>380</v>
+        <v>527</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D348" s="10" t="s">
-        <v>381</v>
+        <v>528</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D349" s="10" t="s">
-        <v>382</v>
+        <v>529</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D350" s="10" t="s">
-        <v>383</v>
+        <v>530</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D351" s="10" t="s">
-        <v>384</v>
+        <v>531</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.45">
@@ -46310,32 +47153,32 @@
         <v>42</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D353" s="10" t="s">
-        <v>386</v>
+        <v>533</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D354" s="10" t="s">
-        <v>387</v>
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D355" s="10" t="s">
-        <v>388</v>
+        <v>535</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D356" s="10" t="s">
-        <v>389</v>
+        <v>536</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D357" s="10" t="s">
-        <v>390</v>
+        <v>537</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
@@ -46346,37 +47189,37 @@
         <v>58</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>391</v>
+        <v>538</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D359" s="10" t="s">
-        <v>392</v>
+        <v>539</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D360" s="10" t="s">
-        <v>393</v>
+        <v>540</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D361" s="10" t="s">
-        <v>394</v>
+        <v>541</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D362" s="10" t="s">
-        <v>395</v>
+        <v>542</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D363" s="10" t="s">
-        <v>396</v>
+        <v>543</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D364" s="10" t="s">
-        <v>397</v>
+        <v>544</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
@@ -46387,32 +47230,32 @@
         <v>42</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D366" s="10" t="s">
-        <v>399</v>
+        <v>546</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D367" s="10" t="s">
-        <v>400</v>
+        <v>547</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D368" s="10" t="s">
-        <v>401</v>
+        <v>548</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D369" s="10" t="s">
-        <v>402</v>
+        <v>549</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D370" s="10" t="s">
-        <v>403</v>
+        <v>550</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.45">
@@ -46423,45 +47266,45 @@
         <v>58</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>404</v>
+        <v>551</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D372" s="10" t="s">
-        <v>405</v>
+        <v>552</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D373" s="10" t="s">
-        <v>406</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>408</v>
+        <v>555</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="10" t="s">
-        <v>409</v>
+        <v>556</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="10" t="s">
-        <v>410</v>
+        <v>557</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.45">
@@ -46471,34 +47314,34 @@
       <c r="C378" t="s">
         <v>42</v>
       </c>
-      <c r="D378" s="10" t="s">
-        <v>697</v>
+      <c r="D378" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D379" s="10" t="s">
-        <v>698</v>
+      <c r="D379" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D380" s="10" t="s">
-        <v>699</v>
+      <c r="D380" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D381" s="10" t="s">
-        <v>700</v>
+      <c r="D381" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D382" s="10" t="s">
-        <v>701</v>
+      <c r="D382" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B383" s="8"/>
-      <c r="D383" s="10" t="s">
-        <v>702</v>
+      <c r="D383" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.45">
@@ -46508,50 +47351,50 @@
       <c r="C384" t="s">
         <v>58</v>
       </c>
-      <c r="D384" s="10" t="s">
-        <v>703</v>
+      <c r="D384" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
-      <c r="D385" s="10" t="s">
-        <v>704</v>
+      <c r="D385" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
-      <c r="D386" s="10" t="s">
-        <v>705</v>
+      <c r="D386" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
-      <c r="D387" s="10" t="s">
-        <v>706</v>
+      <c r="D387" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
-      <c r="D388" s="10" t="s">
-        <v>707</v>
+      <c r="D388" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
-      <c r="D389" s="10" t="s">
-        <v>708</v>
+      <c r="D389" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
-      <c r="D390" s="10" t="s">
-        <v>709</v>
+      <c r="D390" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.45">
@@ -46562,8 +47405,8 @@
       <c r="C391" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D391" t="s">
-        <v>684</v>
+      <c r="D391" s="10" t="s">
+        <v>663</v>
       </c>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -46573,7 +47416,7 @@
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
@@ -46583,7 +47426,7 @@
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
@@ -46593,7 +47436,7 @@
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -46603,7 +47446,7 @@
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -46613,7 +47456,7 @@
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
@@ -46627,7 +47470,7 @@
         <v>58</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
@@ -46637,7 +47480,7 @@
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -46647,7 +47490,7 @@
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -46657,7 +47500,7 @@
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
@@ -46667,7 +47510,7 @@
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
@@ -46677,7 +47520,7 @@
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -46687,7 +47530,7 @@
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
@@ -46700,8 +47543,8 @@
       <c r="C404" t="s">
         <v>60</v>
       </c>
-      <c r="D404" s="10" t="s">
-        <v>710</v>
+      <c r="D404" t="s">
+        <v>307</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
@@ -46710,8 +47553,8 @@
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
-      <c r="D405" s="10" t="s">
-        <v>711</v>
+      <c r="D405" t="s">
+        <v>308</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
@@ -46720,8 +47563,8 @@
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
-      <c r="D406" s="10" t="s">
-        <v>712</v>
+      <c r="D406" t="s">
+        <v>309</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -46730,8 +47573,8 @@
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
-      <c r="D407" s="10" t="s">
-        <v>713</v>
+      <c r="D407" t="s">
+        <v>310</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
@@ -46740,8 +47583,8 @@
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
-      <c r="D408" s="10" t="s">
-        <v>714</v>
+      <c r="D408" t="s">
+        <v>311</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
@@ -46750,8 +47593,8 @@
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
-      <c r="D409" s="10" t="s">
-        <v>715</v>
+      <c r="D409" t="s">
+        <v>312</v>
       </c>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
@@ -46760,8 +47603,8 @@
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
-      <c r="D410" s="10" t="s">
-        <v>716</v>
+      <c r="D410" t="s">
+        <v>313</v>
       </c>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
@@ -46770,8 +47613,8 @@
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
-      <c r="D411" s="10" t="s">
-        <v>717</v>
+      <c r="D411" t="s">
+        <v>314</v>
       </c>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
@@ -46784,8 +47627,8 @@
       <c r="C412" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D412" s="10" t="s">
-        <v>718</v>
+      <c r="D412" t="s">
+        <v>315</v>
       </c>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
@@ -46798,8 +47641,8 @@
       <c r="C413" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D413" s="10" t="s">
-        <v>719</v>
+      <c r="D413" t="s">
+        <v>316</v>
       </c>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
@@ -46812,8 +47655,8 @@
       <c r="C414" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D414" s="10" t="s">
-        <v>720</v>
+      <c r="D414" t="s">
+        <v>317</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
@@ -46826,8 +47669,8 @@
       <c r="C415" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D415" s="10" t="s">
-        <v>721</v>
+      <c r="D415" t="s">
+        <v>318</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
@@ -46840,8 +47683,8 @@
       <c r="C416" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D416" s="10" t="s">
-        <v>722</v>
+      <c r="D416" t="s">
+        <v>319</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
@@ -46854,8 +47697,8 @@
       <c r="C417" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D417" s="10" t="s">
-        <v>723</v>
+      <c r="D417" t="s">
+        <v>320</v>
       </c>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
@@ -46868,8 +47711,8 @@
       <c r="C418" t="s">
         <v>60</v>
       </c>
-      <c r="D418" t="s">
-        <v>670</v>
+      <c r="D418" s="10" t="s">
+        <v>649</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
@@ -46878,8 +47721,8 @@
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
-      <c r="D419" t="s">
-        <v>671</v>
+      <c r="D419" s="10" t="s">
+        <v>650</v>
       </c>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -46888,8 +47731,8 @@
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
-      <c r="D420" t="s">
-        <v>672</v>
+      <c r="D420" s="10" t="s">
+        <v>651</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
@@ -46898,8 +47741,8 @@
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
-      <c r="D421" t="s">
-        <v>673</v>
+      <c r="D421" s="10" t="s">
+        <v>652</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
@@ -46908,8 +47751,8 @@
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
-      <c r="D422" t="s">
-        <v>674</v>
+      <c r="D422" s="10" t="s">
+        <v>653</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
@@ -46918,8 +47761,8 @@
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
-      <c r="D423" t="s">
-        <v>675</v>
+      <c r="D423" s="10" t="s">
+        <v>654</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
@@ -46928,8 +47771,8 @@
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
-      <c r="D424" t="s">
-        <v>676</v>
+      <c r="D424" s="10" t="s">
+        <v>655</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
@@ -46938,8 +47781,8 @@
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
-      <c r="D425" t="s">
-        <v>677</v>
+      <c r="D425" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
@@ -46952,8 +47795,8 @@
       <c r="C426" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D426" t="s">
-        <v>678</v>
+      <c r="D426" s="10" t="s">
+        <v>657</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
@@ -46966,8 +47809,8 @@
       <c r="C427" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D427" t="s">
-        <v>679</v>
+      <c r="D427" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
@@ -46980,8 +47823,8 @@
       <c r="C428" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D428" t="s">
-        <v>680</v>
+      <c r="D428" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
@@ -46994,8 +47837,8 @@
       <c r="C429" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D429" t="s">
-        <v>681</v>
+      <c r="D429" s="10" t="s">
+        <v>660</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
@@ -47008,8 +47851,8 @@
       <c r="C430" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D430" t="s">
-        <v>682</v>
+      <c r="D430" s="10" t="s">
+        <v>661</v>
       </c>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
@@ -47022,8 +47865,8 @@
       <c r="C431" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D431" t="s">
-        <v>683</v>
+      <c r="D431" s="10" t="s">
+        <v>662</v>
       </c>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
@@ -47110,7 +47953,6 @@
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
     </row>
@@ -47119,7 +47961,6 @@
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
     </row>
@@ -47128,7 +47969,6 @@
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
     </row>
@@ -47156,8 +47996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -22,12 +22,12 @@
     <sheet name="TestRun" sheetId="3" r:id="rId13"/>
     <sheet name="Evaluate_TestRun" sheetId="7" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14961" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14971" uniqueCount="724">
   <si>
     <t>Group</t>
   </si>
@@ -43847,7 +43847,7 @@
   <dimension ref="B1:M426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43872,54 +43872,54 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>335</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>336</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>337</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>338</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>339</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>676</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -43931,7 +43931,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>342</v>
+        <v>677</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -43943,7 +43943,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>343</v>
+        <v>678</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -43955,7 +43955,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>344</v>
+        <v>679</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -43967,7 +43967,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>345</v>
+        <v>680</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -43979,7 +43979,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>346</v>
+        <v>681</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -43991,10 +43991,14 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>710</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -44006,7 +44010,9 @@
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>711</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -44018,7 +44024,9 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>712</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -44030,7 +44038,9 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>713</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -44042,7 +44052,9 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>714</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -44054,7 +44066,9 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>715</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -44066,7 +44080,9 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>716</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -44078,7 +44094,9 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>717</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -44090,7 +44108,9 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="8"/>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -44741,8 +44761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14971" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14285" uniqueCount="724">
   <si>
     <t>Group</t>
   </si>
@@ -974,24 +974,6 @@
     <t>Global_South__2020_8_19__23_41_20__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
   <si>
-    <t>Global_South__2020_8_19__23_44_22__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_19__23_47_53__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_19__23_50_56__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_19__23_54_2__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_19__23_57_7__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global_South__2020_8_20__0_0_12__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
     <t>EU28__2020_8_20__0_3_15__reb__</t>
   </si>
   <si>
@@ -2000,24 +1982,6 @@
     <t>Global_North__2020_8_20__18_17_37__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
   <si>
-    <t>Global_North__2020_8_20__18_24_11__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_20__18_30_42__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_20__18_37_14__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_20__18_43_47__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_20__18_50_19__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global_North__2020_8_20__18_56_52__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
-  </si>
-  <si>
     <t>Global_North__2020_8_20__19_3_28__reb__</t>
   </si>
   <si>
@@ -2183,22 +2147,58 @@
     <t>Global__2020_8_21__5_18_37__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS</t>
   </si>
   <si>
-    <t>Global__2020_8_21__5_28_21__pav_reb__NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_21__5_38_57__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_21__5_49_30__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_21__6_0_0__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
-  </si>
-  <si>
-    <t>Global__2020_8_21__6_10_32__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
-  </si>
-  <si>
-    <t>Global__2020_8_21__6_21_18__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+    <t>Global__2020_9_20__20_35_31__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_9_20__20_43_52__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_9_20__20_52_2__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_9_20__21_3_25__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global__2020_9_20__21_14_19__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global__2020_9_20__21_24_3__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_36_33__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_39_43__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_43_0__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_46_13__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_49_29__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global_South__2020_9_20__21_52_40__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__21_56_3__pav_reb__NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__22_2_50__pav_reb__FYI_FSD_EoL_MSU_RUS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__22_9_34__pav_reb__ULD_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__22_16_30__pav_reb__FYI_FSD_EoL_MSU_ULD_RUS_LTE_MIU_CaS_RiS_NoEE</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__22_23_42__pav_reb__FYI_FSD_EoL_MSU_RUS</t>
+  </si>
+  <si>
+    <t>Global_North__2020_9_20__22_30_53__pav_reb__ULD_LTE_MIU_CaS_RiS</t>
   </si>
 </sst>
 </file>
@@ -2602,13 +2602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB51"/>
+  <dimension ref="A2:AB21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -2764,7 +2764,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -2812,13 +2812,13 @@
         <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X4" t="s">
         <v>70</v>
@@ -2837,6 +2837,9 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -2856,13 +2859,13 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
@@ -2892,13 +2895,13 @@
         <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5" t="s">
         <v>70</v>
@@ -2917,6 +2920,9 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
@@ -2924,37 +2930,37 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6" t="s">
         <v>10</v>
@@ -2972,13 +2978,13 @@
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="s">
         <v>70</v>
@@ -2997,6 +3003,9 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
@@ -3004,7 +3013,7 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3019,7 +3028,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -3028,13 +3037,13 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7" t="s">
         <v>10</v>
@@ -3052,13 +3061,13 @@
         <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="s">
         <v>70</v>
@@ -3077,6 +3086,9 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
@@ -3084,7 +3096,7 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -3099,13 +3111,13 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
@@ -3157,6 +3169,9 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
@@ -3164,25 +3179,25 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -3191,10 +3206,10 @@
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
@@ -3238,16 +3253,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3295,13 +3310,13 @@
         <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X10" t="s">
         <v>70</v>
@@ -3320,32 +3335,35 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -3375,13 +3393,13 @@
         <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="s">
         <v>70</v>
@@ -3400,20 +3418,23 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -3422,22 +3443,22 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12" t="s">
         <v>10</v>
@@ -3455,13 +3476,13 @@
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12" t="s">
         <v>70</v>
@@ -3480,44 +3501,47 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" t="s">
         <v>10</v>
@@ -3535,13 +3559,13 @@
         <v>29</v>
       </c>
       <c r="U13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X13" t="s">
         <v>70</v>
@@ -3560,23 +3584,26 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -3585,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
         <v>10</v>
@@ -3640,14 +3667,17 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -3668,16 +3698,16 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P15" t="s">
         <v>10</v>
@@ -3720,14 +3750,17 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -3745,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>10</v>
@@ -3775,13 +3808,13 @@
         <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" t="s">
         <v>70</v>
@@ -3800,35 +3833,38 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>290</v>
+      </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
         <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -3855,13 +3891,13 @@
         <v>29</v>
       </c>
       <c r="U17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X17" t="s">
         <v>70</v>
@@ -3880,14 +3916,17 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>291</v>
+      </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -3902,22 +3941,22 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
       </c>
       <c r="N18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P18" t="s">
         <v>10</v>
@@ -3935,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="U18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X18" t="s">
         <v>70</v>
@@ -3960,68 +3999,71 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P19" t="s">
         <v>10</v>
       </c>
       <c r="Q19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T19" t="s">
         <v>29</v>
       </c>
       <c r="U19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X19" t="s">
         <v>70</v>
@@ -4041,34 +4083,34 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
@@ -4123,44 +4165,47 @@
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>293</v>
+      </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" t="s">
         <v>10</v>
@@ -4199,2430 +4244,6 @@
         <v>138</v>
       </c>
       <c r="AB21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" t="s">
-        <v>29</v>
-      </c>
-      <c r="U22" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" t="s">
-        <v>11</v>
-      </c>
-      <c r="W22" t="s">
-        <v>10</v>
-      </c>
-      <c r="X22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" t="s">
-        <v>11</v>
-      </c>
-      <c r="W23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" t="s">
-        <v>11</v>
-      </c>
-      <c r="V24" t="s">
-        <v>11</v>
-      </c>
-      <c r="W24" t="s">
-        <v>10</v>
-      </c>
-      <c r="X24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25" t="s">
-        <v>11</v>
-      </c>
-      <c r="S25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T25" t="s">
-        <v>29</v>
-      </c>
-      <c r="U25" t="s">
-        <v>11</v>
-      </c>
-      <c r="V25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W25" t="s">
-        <v>10</v>
-      </c>
-      <c r="X25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" t="s">
-        <v>11</v>
-      </c>
-      <c r="W26" t="s">
-        <v>10</v>
-      </c>
-      <c r="X26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27" t="s">
-        <v>29</v>
-      </c>
-      <c r="U27" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" t="s">
-        <v>11</v>
-      </c>
-      <c r="W27" t="s">
-        <v>10</v>
-      </c>
-      <c r="X27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" t="s">
-        <v>29</v>
-      </c>
-      <c r="U28" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" t="s">
-        <v>11</v>
-      </c>
-      <c r="W28" t="s">
-        <v>10</v>
-      </c>
-      <c r="X28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T29" t="s">
-        <v>29</v>
-      </c>
-      <c r="U29" t="s">
-        <v>11</v>
-      </c>
-      <c r="V29" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30" t="s">
-        <v>11</v>
-      </c>
-      <c r="S30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" t="s">
-        <v>11</v>
-      </c>
-      <c r="V30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W30" t="s">
-        <v>10</v>
-      </c>
-      <c r="X30" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O31" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" t="s">
-        <v>11</v>
-      </c>
-      <c r="V31" t="s">
-        <v>11</v>
-      </c>
-      <c r="W31" t="s">
-        <v>10</v>
-      </c>
-      <c r="X31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T32" t="s">
-        <v>29</v>
-      </c>
-      <c r="U32" t="s">
-        <v>11</v>
-      </c>
-      <c r="V32" t="s">
-        <v>11</v>
-      </c>
-      <c r="W32" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>11</v>
-      </c>
-      <c r="R33" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" t="s">
-        <v>11</v>
-      </c>
-      <c r="V33" t="s">
-        <v>11</v>
-      </c>
-      <c r="W33" t="s">
-        <v>10</v>
-      </c>
-      <c r="X33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>11</v>
-      </c>
-      <c r="R34" t="s">
-        <v>11</v>
-      </c>
-      <c r="S34" t="s">
-        <v>11</v>
-      </c>
-      <c r="T34" t="s">
-        <v>29</v>
-      </c>
-      <c r="U34" t="s">
-        <v>11</v>
-      </c>
-      <c r="V34" t="s">
-        <v>11</v>
-      </c>
-      <c r="W34" t="s">
-        <v>10</v>
-      </c>
-      <c r="X34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" t="s">
-        <v>10</v>
-      </c>
-      <c r="P35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>11</v>
-      </c>
-      <c r="R35" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" t="s">
-        <v>11</v>
-      </c>
-      <c r="T35" t="s">
-        <v>29</v>
-      </c>
-      <c r="U35" t="s">
-        <v>11</v>
-      </c>
-      <c r="V35" t="s">
-        <v>11</v>
-      </c>
-      <c r="W35" t="s">
-        <v>10</v>
-      </c>
-      <c r="X35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>11</v>
-      </c>
-      <c r="R36" t="s">
-        <v>11</v>
-      </c>
-      <c r="S36" t="s">
-        <v>11</v>
-      </c>
-      <c r="T36" t="s">
-        <v>29</v>
-      </c>
-      <c r="U36" t="s">
-        <v>11</v>
-      </c>
-      <c r="V36" t="s">
-        <v>11</v>
-      </c>
-      <c r="W36" t="s">
-        <v>10</v>
-      </c>
-      <c r="X36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" t="s">
-        <v>10</v>
-      </c>
-      <c r="O37" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>10</v>
-      </c>
-      <c r="R37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S37" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" t="s">
-        <v>29</v>
-      </c>
-      <c r="U37" t="s">
-        <v>11</v>
-      </c>
-      <c r="V37" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37" t="s">
-        <v>10</v>
-      </c>
-      <c r="X37" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" t="s">
-        <v>10</v>
-      </c>
-      <c r="O38" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R38" t="s">
-        <v>11</v>
-      </c>
-      <c r="S38" t="s">
-        <v>11</v>
-      </c>
-      <c r="T38" t="s">
-        <v>29</v>
-      </c>
-      <c r="U38" t="s">
-        <v>11</v>
-      </c>
-      <c r="V38" t="s">
-        <v>11</v>
-      </c>
-      <c r="W38" t="s">
-        <v>10</v>
-      </c>
-      <c r="X38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>11</v>
-      </c>
-      <c r="R39" t="s">
-        <v>11</v>
-      </c>
-      <c r="S39" t="s">
-        <v>11</v>
-      </c>
-      <c r="T39" t="s">
-        <v>29</v>
-      </c>
-      <c r="U39" t="s">
-        <v>11</v>
-      </c>
-      <c r="V39" t="s">
-        <v>11</v>
-      </c>
-      <c r="W39" t="s">
-        <v>10</v>
-      </c>
-      <c r="X39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>11</v>
-      </c>
-      <c r="R40" t="s">
-        <v>11</v>
-      </c>
-      <c r="S40" t="s">
-        <v>11</v>
-      </c>
-      <c r="T40" t="s">
-        <v>29</v>
-      </c>
-      <c r="U40" t="s">
-        <v>11</v>
-      </c>
-      <c r="V40" t="s">
-        <v>11</v>
-      </c>
-      <c r="W40" t="s">
-        <v>10</v>
-      </c>
-      <c r="X40" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O41" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>11</v>
-      </c>
-      <c r="R41" t="s">
-        <v>11</v>
-      </c>
-      <c r="S41" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" t="s">
-        <v>29</v>
-      </c>
-      <c r="U41" t="s">
-        <v>11</v>
-      </c>
-      <c r="V41" t="s">
-        <v>11</v>
-      </c>
-      <c r="W41" t="s">
-        <v>10</v>
-      </c>
-      <c r="X41" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" t="s">
-        <v>10</v>
-      </c>
-      <c r="O42" t="s">
-        <v>10</v>
-      </c>
-      <c r="P42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>11</v>
-      </c>
-      <c r="R42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S42" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" t="s">
-        <v>29</v>
-      </c>
-      <c r="U42" t="s">
-        <v>11</v>
-      </c>
-      <c r="V42" t="s">
-        <v>11</v>
-      </c>
-      <c r="W42" t="s">
-        <v>10</v>
-      </c>
-      <c r="X42" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" t="s">
-        <v>10</v>
-      </c>
-      <c r="P43" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>11</v>
-      </c>
-      <c r="R43" t="s">
-        <v>11</v>
-      </c>
-      <c r="S43" t="s">
-        <v>11</v>
-      </c>
-      <c r="T43" t="s">
-        <v>29</v>
-      </c>
-      <c r="U43" t="s">
-        <v>11</v>
-      </c>
-      <c r="V43" t="s">
-        <v>11</v>
-      </c>
-      <c r="W43" t="s">
-        <v>10</v>
-      </c>
-      <c r="X43" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" t="s">
-        <v>11</v>
-      </c>
-      <c r="P44" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44" t="s">
-        <v>11</v>
-      </c>
-      <c r="S44" t="s">
-        <v>11</v>
-      </c>
-      <c r="T44" t="s">
-        <v>29</v>
-      </c>
-      <c r="U44" t="s">
-        <v>11</v>
-      </c>
-      <c r="V44" t="s">
-        <v>11</v>
-      </c>
-      <c r="W44" t="s">
-        <v>10</v>
-      </c>
-      <c r="X44" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45" t="s">
-        <v>11</v>
-      </c>
-      <c r="P45" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>11</v>
-      </c>
-      <c r="R45" t="s">
-        <v>11</v>
-      </c>
-      <c r="S45" t="s">
-        <v>11</v>
-      </c>
-      <c r="T45" t="s">
-        <v>29</v>
-      </c>
-      <c r="U45" t="s">
-        <v>11</v>
-      </c>
-      <c r="V45" t="s">
-        <v>11</v>
-      </c>
-      <c r="W45" t="s">
-        <v>10</v>
-      </c>
-      <c r="X45" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" t="s">
-        <v>10</v>
-      </c>
-      <c r="P46" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>11</v>
-      </c>
-      <c r="R46" t="s">
-        <v>11</v>
-      </c>
-      <c r="S46" t="s">
-        <v>11</v>
-      </c>
-      <c r="T46" t="s">
-        <v>29</v>
-      </c>
-      <c r="U46" t="s">
-        <v>10</v>
-      </c>
-      <c r="V46" t="s">
-        <v>10</v>
-      </c>
-      <c r="W46" t="s">
-        <v>11</v>
-      </c>
-      <c r="X46" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>11</v>
-      </c>
-      <c r="R47" t="s">
-        <v>11</v>
-      </c>
-      <c r="S47" t="s">
-        <v>11</v>
-      </c>
-      <c r="T47" t="s">
-        <v>29</v>
-      </c>
-      <c r="U47" t="s">
-        <v>10</v>
-      </c>
-      <c r="V47" t="s">
-        <v>10</v>
-      </c>
-      <c r="W47" t="s">
-        <v>11</v>
-      </c>
-      <c r="X47" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>283</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" t="s">
-        <v>11</v>
-      </c>
-      <c r="O48" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" t="s">
-        <v>11</v>
-      </c>
-      <c r="S48" t="s">
-        <v>11</v>
-      </c>
-      <c r="T48" t="s">
-        <v>29</v>
-      </c>
-      <c r="U48" t="s">
-        <v>10</v>
-      </c>
-      <c r="V48" t="s">
-        <v>10</v>
-      </c>
-      <c r="W48" t="s">
-        <v>11</v>
-      </c>
-      <c r="X48" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" t="s">
-        <v>11</v>
-      </c>
-      <c r="O49" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>11</v>
-      </c>
-      <c r="R49" t="s">
-        <v>11</v>
-      </c>
-      <c r="S49" t="s">
-        <v>11</v>
-      </c>
-      <c r="T49" t="s">
-        <v>29</v>
-      </c>
-      <c r="U49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W49" t="s">
-        <v>11</v>
-      </c>
-      <c r="X49" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" t="s">
-        <v>10</v>
-      </c>
-      <c r="O50" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>11</v>
-      </c>
-      <c r="R50" t="s">
-        <v>11</v>
-      </c>
-      <c r="S50" t="s">
-        <v>11</v>
-      </c>
-      <c r="T50" t="s">
-        <v>29</v>
-      </c>
-      <c r="U50" t="s">
-        <v>11</v>
-      </c>
-      <c r="V50" t="s">
-        <v>11</v>
-      </c>
-      <c r="W50" t="s">
-        <v>10</v>
-      </c>
-      <c r="X50" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" t="s">
-        <v>11</v>
-      </c>
-      <c r="N51" t="s">
-        <v>11</v>
-      </c>
-      <c r="O51" t="s">
-        <v>11</v>
-      </c>
-      <c r="P51" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>11</v>
-      </c>
-      <c r="R51" t="s">
-        <v>11</v>
-      </c>
-      <c r="S51" t="s">
-        <v>11</v>
-      </c>
-      <c r="T51" t="s">
-        <v>29</v>
-      </c>
-      <c r="U51" t="s">
-        <v>11</v>
-      </c>
-      <c r="V51" t="s">
-        <v>11</v>
-      </c>
-      <c r="W51" t="s">
-        <v>10</v>
-      </c>
-      <c r="X51" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB51">
         <v>50</v>
       </c>
     </row>
@@ -9058,10 +6679,10 @@
   <dimension ref="A2:AB433"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43847,13 +41468,13 @@
   <dimension ref="B1:M426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.86328125" customWidth="1"/>
-    <col min="3" max="3" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.265625" customWidth="1"/>
     <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
@@ -43875,51 +41496,45 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -43930,8 +41545,14 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D10" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -43942,8 +41563,14 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D11" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -43954,8 +41581,14 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D12" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -43966,8 +41599,14 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D13" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -43978,8 +41617,14 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D14" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -43990,14 +41635,14 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>710</v>
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>711</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -44008,10 +41653,14 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
-        <v>711</v>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -44024,8 +41673,8 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10" t="s">
-        <v>712</v>
+      <c r="D17" t="s">
+        <v>308</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -44038,8 +41687,8 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10" t="s">
-        <v>713</v>
+      <c r="D18" t="s">
+        <v>309</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -44052,8 +41701,8 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10" t="s">
-        <v>714</v>
+      <c r="D19" t="s">
+        <v>310</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -44066,8 +41715,8 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10" t="s">
-        <v>715</v>
+      <c r="D20" t="s">
+        <v>311</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -44080,8 +41729,8 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
-        <v>716</v>
+      <c r="D21" t="s">
+        <v>312</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -44094,8 +41743,8 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="10" t="s">
-        <v>717</v>
+      <c r="D22" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -44108,11 +41757,11 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -44124,9 +41773,15 @@
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>712</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -44138,9 +41793,15 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" t="s">
+        <v>713</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -44152,9 +41813,15 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" t="s">
+        <v>714</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -44166,9 +41833,15 @@
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" t="s">
+        <v>715</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -44180,9 +41853,15 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
+        <v>716</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -44194,7 +41873,15 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D29" s="10"/>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" t="s">
+        <v>717</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -44206,7 +41893,15 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D30" s="10"/>
+      <c r="B30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>643</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -44218,7 +41913,11 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10" t="s">
+        <v>644</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -44230,7 +41929,11 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10" t="s">
+        <v>645</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -44241,8 +41944,12 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D33" s="10"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10" t="s">
+        <v>646</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -44253,8 +41960,12 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D34" s="10"/>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10" t="s">
+        <v>647</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -44265,8 +41976,12 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D35" s="10"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10" t="s">
+        <v>648</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -44277,144 +41992,117 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D36" s="10"/>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D37" s="10"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10" t="s">
+        <v>650</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D38" s="10"/>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>718</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D39" s="10"/>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>719</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D40" s="10"/>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>720</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D41" s="10"/>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>721</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D42" s="10"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>722</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D43" s="10"/>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>723</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D77" s="10"/>
@@ -44761,8 +42449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D56"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44794,37 +42482,37 @@
         <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D3" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D4" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D5" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D6" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D7" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -44836,43 +42524,43 @@
         <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D9" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D10" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D14" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -44884,43 +42572,43 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -44932,67 +42620,67 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -45004,37 +42692,37 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -45046,61 +42734,61 @@
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -45112,49 +42800,49 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -45166,7 +42854,7 @@
         <v>281</v>
       </c>
       <c r="D57" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -45178,7 +42866,7 @@
         <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -45190,7 +42878,7 @@
         <v>281</v>
       </c>
       <c r="D59" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -45202,7 +42890,7 @@
         <v>281</v>
       </c>
       <c r="D60" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -45214,7 +42902,7 @@
         <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -45226,7 +42914,7 @@
         <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -45238,37 +42926,37 @@
         <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D64" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D65" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D66" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D67" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D68" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H68" s="2"/>
     </row>
@@ -45280,61 +42968,61 @@
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D70" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D71" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -45346,43 +43034,43 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -45394,67 +43082,67 @@
         <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D87" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D88" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D89" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D90" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D96" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -45466,37 +43154,37 @@
         <v>42</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D98" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D99" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D100" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D101" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D102" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -45508,43 +43196,43 @@
         <v>58</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D104" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D105" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D106" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D107" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D108" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D109" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H109" s="2"/>
     </row>
@@ -45556,37 +43244,37 @@
         <v>42</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D111" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D112" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D113" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D114" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D115" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H115" s="2"/>
     </row>
@@ -45598,43 +43286,43 @@
         <v>58</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D117" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D118" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D119" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D120" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D121" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D122" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -45646,37 +43334,37 @@
         <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D124" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D125" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D126" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D127" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D128" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -45688,43 +43376,43 @@
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D130" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D131" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D132" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D133" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D134" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D135" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H135" s="2"/>
     </row>
@@ -45736,37 +43424,37 @@
         <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D137" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D138" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D139" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D140" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D141" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H141" s="2"/>
     </row>
@@ -45778,61 +43466,61 @@
         <v>62</v>
       </c>
       <c r="D142" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D143" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D144" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D145" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D146" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D147" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D148" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D149" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D150" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H150" s="2"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D151" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -45844,43 +43532,43 @@
         <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D153" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D154" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D155" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D156" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D157" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D158" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -45892,67 +43580,67 @@
         <v>61</v>
       </c>
       <c r="D159" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H159" s="2"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D160" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H160" s="2"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D161" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H161" s="2"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D162" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H162" s="2"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D163" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D164" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D165" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H165" s="2"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D166" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H166" s="2"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D167" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H167" s="2"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D168" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D169" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H169" s="2"/>
     </row>
@@ -45964,37 +43652,37 @@
         <v>42</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H170" s="2"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D171" s="10" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H171" s="2"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D172" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D173" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D174" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H174" s="2"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D175" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H175" s="2"/>
     </row>
@@ -46006,43 +43694,43 @@
         <v>58</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H176" s="2"/>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D177" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H177" s="2"/>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D178" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H178" s="2"/>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D179" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H179" s="2"/>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D180" s="10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H180" s="2"/>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D181" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D182" s="10" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H182" s="2"/>
     </row>
@@ -46054,37 +43742,37 @@
         <v>42</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H183" s="2"/>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D184" s="10" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H184" s="2"/>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D185" s="10" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D186" s="10" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H186" s="2"/>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D187" s="10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D188" s="10" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H188" s="2"/>
     </row>
@@ -46096,43 +43784,43 @@
         <v>58</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D190" s="10" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D191" s="10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D192" s="10" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D193" s="10" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D194" s="10" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D195" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H195" s="2"/>
     </row>
@@ -46144,37 +43832,37 @@
         <v>42</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D197" s="10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D198" s="10" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D199" s="10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D200" s="10" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H200" s="2"/>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D201" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H201" s="2"/>
     </row>
@@ -46186,43 +43874,43 @@
         <v>58</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D203" s="10" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D204" s="10" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H204" s="2"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D205" s="10" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H205" s="2"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D206" s="10" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H206" s="2"/>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D207" s="10" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H207" s="2"/>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D208" s="10" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H208" s="2"/>
     </row>
@@ -46234,37 +43922,37 @@
         <v>42</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H209" s="2"/>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D210" s="10" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H210" s="2"/>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D211" s="10" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="H211" s="2"/>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D212" s="10" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H212" s="2"/>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D213" s="10" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D214" s="10" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H214" s="2"/>
     </row>
@@ -46276,43 +43964,43 @@
         <v>58</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D216" s="10" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D217" s="10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H217" s="2"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D218" s="10" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D219" s="10" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D220" s="10" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H220" s="2"/>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D221" s="10" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H221" s="2"/>
     </row>
@@ -46324,37 +44012,37 @@
         <v>42</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H222" s="2"/>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D223" s="10" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H223" s="2"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D224" s="10" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H224" s="2"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D225" s="10" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H225" s="2"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D226" s="10" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="H226" s="2"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D227" s="10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H227" s="2"/>
     </row>
@@ -46366,43 +44054,43 @@
         <v>58</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D229" s="10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D230" s="10" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D231" s="10" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="H231" s="2"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D232" s="10" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H232" s="2"/>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D233" s="10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D234" s="10" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="H234" s="2"/>
     </row>
@@ -46414,37 +44102,37 @@
         <v>42</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D236" s="10" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D237" s="10" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D238" s="10" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H238" s="2"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D239" s="10" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H239" s="2"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D240" s="10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H240" s="2"/>
     </row>
@@ -46456,43 +44144,43 @@
         <v>58</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="H241" s="2"/>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D242" s="10" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H242" s="2"/>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D243" s="10" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H243" s="2"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D244" s="10" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H244" s="2"/>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D245" s="10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H245" s="2"/>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D246" s="10" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="H246" s="2"/>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D247" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H247" s="2"/>
     </row>
@@ -46504,37 +44192,37 @@
         <v>42</v>
       </c>
       <c r="D248" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H248" s="2"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D249" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H249" s="2"/>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D250" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H250" s="2"/>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D251" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H251" s="2"/>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D252" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H252" s="2"/>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D253" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H253" s="2"/>
     </row>
@@ -46546,43 +44234,43 @@
         <v>58</v>
       </c>
       <c r="D254" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H254" s="2"/>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D255" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H255" s="2"/>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D256" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H256" s="2"/>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D257" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H257" s="2"/>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D258" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H258" s="2"/>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D259" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D260" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H260" s="2"/>
     </row>
@@ -46594,37 +44282,37 @@
         <v>42</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H261" s="2"/>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D262" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D263" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D264" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H264" s="2"/>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D265" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H265" s="2"/>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D266" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H266" s="2"/>
     </row>
@@ -46636,43 +44324,43 @@
         <v>58</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H267" s="2"/>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D268" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D269" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H269" s="2"/>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D270" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H270" s="2"/>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D271" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H271" s="2"/>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D272" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H272" s="2"/>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D273" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H273" s="2"/>
     </row>
@@ -46684,37 +44372,37 @@
         <v>42</v>
       </c>
       <c r="D274" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H274" s="2"/>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D275" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H275" s="2"/>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D276" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H276" s="2"/>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D277" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H277" s="2"/>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D278" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H278" s="2"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D279" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H279" s="2"/>
     </row>
@@ -46726,43 +44414,43 @@
         <v>58</v>
       </c>
       <c r="D280" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H280" s="2"/>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D281" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H281" s="2"/>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D282" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H282" s="2"/>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D283" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H283" s="2"/>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D284" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H284" s="2"/>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D285" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H285" s="2"/>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D286" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H286" s="2"/>
     </row>
@@ -46774,37 +44462,37 @@
         <v>42</v>
       </c>
       <c r="D287" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H287" s="2"/>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D288" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H288" s="2"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D289" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H289" s="2"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D290" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H290" s="2"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D291" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H291" s="2"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D292" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H292" s="2"/>
     </row>
@@ -46816,43 +44504,43 @@
         <v>58</v>
       </c>
       <c r="D293" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H293" s="2"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D294" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H294" s="2"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D295" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H295" s="2"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D296" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H296" s="2"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D297" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H297" s="2"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D298" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H298" s="2"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D299" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H299" s="2"/>
     </row>
@@ -46864,33 +44552,33 @@
         <v>42</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H300" s="2"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D301" s="10" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D302" s="10" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D303" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D304" s="10" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D305" s="10" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.45">
@@ -46901,37 +44589,37 @@
         <v>58</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D307" s="10" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D308" s="10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D309" s="10" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D310" s="10" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D311" s="10" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D312" s="10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.45">
@@ -46942,32 +44630,32 @@
         <v>42</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D314" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D315" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D316" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D317" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D318" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.45">
@@ -46978,37 +44666,37 @@
         <v>58</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D320" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D321" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D322" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D323" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D324" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D325" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.45">
@@ -47019,32 +44707,32 @@
         <v>42</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D327" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D328" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D329" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D330" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D331" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.45">
@@ -47055,37 +44743,37 @@
         <v>58</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D333" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D334" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D335" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D336" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D337" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D338" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.45">
@@ -47096,32 +44784,32 @@
         <v>42</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D340" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D341" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D342" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D343" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D344" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.45">
@@ -47132,37 +44820,37 @@
         <v>58</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D346" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D347" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D348" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D349" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D350" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D351" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.45">
@@ -47173,32 +44861,32 @@
         <v>42</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D353" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D354" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D355" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D356" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D357" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.45">
@@ -47209,37 +44897,37 @@
         <v>58</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D359" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D360" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D361" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D362" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D363" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D364" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.45">
@@ -47250,32 +44938,32 @@
         <v>42</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D366" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D367" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D368" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D369" s="10" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D370" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.45">
@@ -47286,45 +44974,45 @@
         <v>58</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D372" s="10" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D373" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.45">
@@ -47426,7 +45114,7 @@
         <v>42</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
@@ -47436,7 +45124,7 @@
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
@@ -47446,7 +45134,7 @@
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
@@ -47456,7 +45144,7 @@
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
@@ -47466,7 +45154,7 @@
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
@@ -47476,7 +45164,7 @@
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
@@ -47490,7 +45178,7 @@
         <v>58</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
@@ -47500,7 +45188,7 @@
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
@@ -47510,7 +45198,7 @@
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
@@ -47520,7 +45208,7 @@
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
@@ -47530,7 +45218,7 @@
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
@@ -47540,7 +45228,7 @@
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
@@ -47550,7 +45238,7 @@
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
@@ -47648,7 +45336,7 @@
         <v>281</v>
       </c>
       <c r="D412" t="s">
-        <v>315</v>
+        <v>712</v>
       </c>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
@@ -47662,7 +45350,7 @@
         <v>281</v>
       </c>
       <c r="D413" t="s">
-        <v>316</v>
+        <v>713</v>
       </c>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
@@ -47676,7 +45364,7 @@
         <v>281</v>
       </c>
       <c r="D414" t="s">
-        <v>317</v>
+        <v>714</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
@@ -47690,7 +45378,7 @@
         <v>281</v>
       </c>
       <c r="D415" t="s">
-        <v>318</v>
+        <v>715</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
@@ -47704,7 +45392,7 @@
         <v>281</v>
       </c>
       <c r="D416" t="s">
-        <v>319</v>
+        <v>716</v>
       </c>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
@@ -47718,7 +45406,7 @@
         <v>281</v>
       </c>
       <c r="D417" t="s">
-        <v>320</v>
+        <v>717</v>
       </c>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
@@ -47732,7 +45420,7 @@
         <v>60</v>
       </c>
       <c r="D418" s="10" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
@@ -47742,7 +45430,7 @@
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
@@ -47752,7 +45440,7 @@
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
@@ -47762,7 +45450,7 @@
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
@@ -47772,7 +45460,7 @@
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
       <c r="D422" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
@@ -47782,7 +45470,7 @@
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
       <c r="D423" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
@@ -47792,7 +45480,7 @@
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
       <c r="D424" s="10" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
@@ -47802,7 +45490,7 @@
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
       <c r="D425" s="10" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
@@ -47816,7 +45504,7 @@
         <v>281</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
@@ -47830,7 +45518,7 @@
         <v>281</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>658</v>
+        <v>719</v>
       </c>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
@@ -47844,7 +45532,7 @@
         <v>281</v>
       </c>
       <c r="D428" s="10" t="s">
-        <v>659</v>
+        <v>720</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
@@ -47858,7 +45546,7 @@
         <v>281</v>
       </c>
       <c r="D429" s="10" t="s">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
@@ -47872,7 +45560,7 @@
         <v>281</v>
       </c>
       <c r="D430" s="10" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
@@ -47886,7 +45574,7 @@
         <v>281</v>
       </c>
       <c r="D431" s="10" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pav_reb_Config_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14285" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14302" uniqueCount="724">
   <si>
     <t>Group</t>
   </si>
@@ -2608,7 +2608,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41465,16 +41465,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M426"/>
+  <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.86328125" customWidth="1"/>
-    <col min="3" max="3" width="28.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.265625" customWidth="1"/>
     <col min="4" max="4" width="77.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.265625" customWidth="1"/>
     <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
@@ -41654,13 +41654,13 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>307</v>
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -41670,11 +41670,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" t="s">
-        <v>308</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D17" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -41684,11 +41682,9 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" t="s">
-        <v>309</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D18" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -41698,11 +41694,9 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" t="s">
-        <v>310</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D19" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -41712,11 +41706,9 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" t="s">
-        <v>311</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D20" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -41726,11 +41718,9 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" t="s">
-        <v>312</v>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D21" s="10" t="s">
+        <v>518</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -41740,11 +41730,15 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" t="s">
-        <v>313</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -41756,11 +41750,9 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" t="s">
-        <v>314</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D23" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -41772,15 +41764,9 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" t="s">
-        <v>712</v>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D24" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -41792,15 +41778,9 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" t="s">
-        <v>713</v>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D25" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -41812,15 +41792,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" t="s">
-        <v>714</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D26" s="10" t="s">
+        <v>523</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -41832,15 +41806,9 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" t="s">
-        <v>715</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D27" s="10" t="s">
+        <v>524</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -41852,15 +41820,9 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" t="s">
-        <v>716</v>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D28" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -41872,15 +41834,16 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>281</v>
+      <c r="C29" t="s">
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>717</v>
+        <v>307</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -41892,15 +41855,11 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>643</v>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" t="s">
+        <v>308</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -41912,11 +41871,11 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="10" t="s">
-        <v>644</v>
+      <c r="D31" t="s">
+        <v>309</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -41928,11 +41887,11 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="10" t="s">
-        <v>645</v>
+      <c r="D32" t="s">
+        <v>310</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -41947,8 +41906,8 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="10" t="s">
-        <v>646</v>
+      <c r="D33" t="s">
+        <v>311</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -41963,8 +41922,8 @@
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="10" t="s">
-        <v>647</v>
+      <c r="D34" t="s">
+        <v>312</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -41979,8 +41938,8 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="10" t="s">
-        <v>648</v>
+      <c r="D35" t="s">
+        <v>313</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -41995,114 +41954,224 @@
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="10" t="s">
-        <v>649</v>
+      <c r="D36" t="s">
+        <v>314</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10" t="s">
-        <v>650</v>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" t="s">
+        <v>712</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>718</v>
+      <c r="D38" t="s">
+        <v>713</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>719</v>
+      <c r="D39" t="s">
+        <v>714</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>720</v>
+      <c r="D40" t="s">
+        <v>715</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>721</v>
+      <c r="D41" t="s">
+        <v>716</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>722</v>
+      <c r="D42" t="s">
+        <v>717</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>281</v>
+      <c r="C43" t="s">
+        <v>60</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>723</v>
+        <v>643</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D45" s="10"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D48" s="10"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D77" s="10"/>
@@ -42449,8 +42518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45704,8 +45773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -46107,8 +46176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:S32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RECC_ModelConfig_List_V2_4.xlsx
+++ b/RECC_ModelConfig_List_V2_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pav_reb_Config_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14302" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14285" uniqueCount="724">
   <si>
     <t>Group</t>
   </si>
@@ -41465,10 +41465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M426"/>
+  <dimension ref="A1:M413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41480,7 +41480,7 @@
     <col min="6" max="6" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -41491,7 +41491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -41502,37 +41502,37 @@
         <v>698</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>705</v>
       </c>
@@ -41544,7 +41544,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
@@ -41562,7 +41562,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
@@ -41580,7 +41580,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
@@ -41598,7 +41598,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
@@ -41616,7 +41616,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
@@ -41634,7 +41634,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
@@ -41652,16 +41652,19 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>513</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -41670,10 +41673,14 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D17" s="10" t="s">
-        <v>514</v>
-      </c>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -41682,10 +41689,14 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D18" s="10" t="s">
-        <v>515</v>
-      </c>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -41694,10 +41705,14 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D19" s="10" t="s">
-        <v>516</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -41706,10 +41721,14 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D20" s="10" t="s">
-        <v>517</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -41718,10 +41737,14 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D21" s="10" t="s">
-        <v>518</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -41730,15 +41753,11 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>519</v>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -41750,428 +41769,266 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D23" s="10" t="s">
-        <v>520</v>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
+        <v>314</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D24" s="10" t="s">
-        <v>521</v>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" t="s">
+        <v>712</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D25" s="10" t="s">
-        <v>522</v>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" t="s">
+        <v>713</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D26" s="10" t="s">
-        <v>523</v>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" t="s">
+        <v>714</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D27" s="10" t="s">
-        <v>524</v>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" t="s">
+        <v>715</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="D28" s="10" t="s">
-        <v>525</v>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
+        <v>716</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>184</v>
       </c>
-      <c r="C29" t="s">
-        <v>60</v>
+      <c r="C29" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>307</v>
+        <v>717</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" t="s">
-        <v>308</v>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>643</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D31" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D32" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D33" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" t="s">
-        <v>312</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D34" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" t="s">
-        <v>313</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D35" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" t="s">
-        <v>712</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D36" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D38" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D39" t="s">
-        <v>714</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D39" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D40" t="s">
-        <v>715</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D40" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D41" t="s">
-        <v>716</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D41" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D42" t="s">
-        <v>717</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
+      <c r="D42" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>185</v>
       </c>
-      <c r="C43" t="s">
-        <v>60</v>
+      <c r="C43" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="8"/>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="10" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D77" s="10"/>
@@ -42233,44 +42090,42 @@
     <row r="96" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D96" s="10"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D105" s="10"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D106" s="10"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D109" s="10"/>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B359" s="8"/>
+      <c r="C359" s="8"/>
+      <c r="D359" s="8"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B361" s="8"/>
+      <c r="C361" s="8"/>
+      <c r="D361" s="8"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B368" s="8"/>
+      <c r="D368" s="8"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D369" s="8"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B370" s="8"/>
+      <c r="C370" s="8"/>
+      <c r="D370" s="8"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B372" s="8"/>
@@ -42292,11 +42147,39 @@
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
     </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="8"/>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="8"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="D380" s="8"/>
+    </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
       <c r="D381" s="8"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
       <c r="D382" s="8"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.45">
@@ -42330,71 +42213,66 @@
       <c r="D388" s="8"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
-      <c r="D389" s="8"/>
+      <c r="D389" s="9"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
-      <c r="D390" s="8"/>
+      <c r="D390" s="9"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
-      <c r="D391" s="8"/>
+      <c r="D391" s="9"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
-      <c r="D392" s="8"/>
+      <c r="D392" s="9"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
-      <c r="D393" s="8"/>
+      <c r="D393" s="9"/>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
-      <c r="D394" s="8"/>
+      <c r="D394" s="9"/>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
-      <c r="D395" s="8"/>
+      <c r="D395" s="9"/>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
-      <c r="D396" s="8"/>
+      <c r="D396" s="9"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B397" s="8"/>
       <c r="C397" s="8"/>
-      <c r="D397" s="8"/>
+      <c r="D397" s="9"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B398" s="8"/>
       <c r="C398" s="8"/>
-      <c r="D398" s="8"/>
+      <c r="D398" s="9"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B399" s="8"/>
       <c r="C399" s="8"/>
-      <c r="D399" s="8"/>
+      <c r="D399" s="9"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B400" s="8"/>
       <c r="C400" s="8"/>
-      <c r="D400" s="8"/>
+      <c r="D400" s="9"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B401" s="8"/>
-      <c r="C401" s="8"/>
-      <c r="D401" s="8"/>
+      <c r="D401" s="9"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B402" s="8"/>
+      <c r="C402" s="8"/>
       <c r="D402" s="9"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.45">
@@ -42428,7 +42306,6 @@
       <c r="D408" s="9"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B409" s="8"/>
       <c r="C409" s="8"/>
       <c r="D409" s="9"/>
     </row>
@@ -42445,68 +42322,9 @@
       <c r="D412" s="9"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B413" s="8"/>
       <c r="C413" s="8"/>
-      <c r="D413" s="9"/>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B414" s="8"/>
-      <c r="D414" s="9"/>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="9"/>
-    </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="9"/>
-    </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="9"/>
-    </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
-      <c r="D418" s="9"/>
-    </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="9"/>
-    </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="9"/>
-    </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B421" s="8"/>
-      <c r="C421" s="8"/>
-      <c r="D421" s="9"/>
-    </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C422" s="8"/>
-      <c r="D422" s="9"/>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C423" s="8"/>
-      <c r="D423" s="9"/>
-    </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C424" s="8"/>
-      <c r="D424" s="9"/>
-    </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C425" s="8"/>
-      <c r="D425" s="9"/>
-    </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="D426" s="8"/>
+      <c r="D413" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -42518,7 +42336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
@@ -45773,7 +45591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
